--- a/020_アプリケーション開発標準/010_設計標準/UI標準(画面).xlsx
+++ b/020_アプリケーション開発標準/010_設計標準/UI標準(画面).xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69945E30-65E7-45E1-9C9C-7B21D0438124}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F653B9E9-5965-4B2C-ABD6-297FAD8CFC4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="945" yWindow="945" windowWidth="17820" windowHeight="17760" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3570" yWindow="435" windowWidth="31395" windowHeight="18960" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="28" r:id="rId1"/>
@@ -6464,13 +6464,7 @@
       <t>カクニン</t>
     </rPh>
     <rPh sb="7" eb="9">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ガメン</t>
+      <t>ガメンカクニンガメン</t>
     </rPh>
     <phoneticPr fontId="11"/>
   </si>
@@ -9212,6 +9206,42 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="31" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -9602,6 +9632,198 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -9614,79 +9836,88 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
@@ -9697,243 +9928,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -16692,120 +16686,6 @@
               </a:r>
             </a:p>
           </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="506" name="Text Box 49">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000FA010000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1">
-              <a:spLocks noChangeArrowheads="1"/>
-            </xdr:cNvSpPr>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="2578687" y="20225655"/>
-              <a:ext cx="504825" cy="266700"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="ja-JP" altLang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
-                  <a:ea typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
-                </a:rPr>
-                <a:t>戻る</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="507" name="Line 50">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-0000FB010000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr>
-              <a:spLocks noChangeShapeType="1"/>
-            </xdr:cNvSpPr>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm flipH="1">
-              <a:off x="2400735" y="20240625"/>
-              <a:ext cx="736577" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="line">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:round/>
-              <a:headEnd/>
-              <a:tailEnd type="triangle" w="med" len="med"/>
-            </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                  <a:noFill/>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -27941,12 +27821,12 @@
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
-      <c r="I25" s="370">
+      <c r="I25" s="382">
         <f ca="1">IF(INDIRECT("変更履歴!D8")="","",MAX(INDIRECT("変更履歴!D8"):INDIRECT("変更履歴!F33")))</f>
         <v>43336</v>
       </c>
-      <c r="J25" s="370"/>
-      <c r="K25" s="370"/>
+      <c r="J25" s="382"/>
+      <c r="K25" s="382"/>
     </row>
     <row r="26" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F26" s="3"/>
@@ -28544,55 +28424,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="386" t="s">
+      <c r="A1" s="398" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="378"/>
-      <c r="C1" s="378"/>
-      <c r="D1" s="379"/>
-      <c r="E1" s="380"/>
-      <c r="F1" s="381"/>
-      <c r="G1" s="381"/>
-      <c r="H1" s="381"/>
-      <c r="I1" s="381"/>
-      <c r="J1" s="381"/>
-      <c r="K1" s="381"/>
-      <c r="L1" s="381"/>
-      <c r="M1" s="381"/>
-      <c r="N1" s="382"/>
-      <c r="O1" s="387" t="s">
+      <c r="B1" s="390"/>
+      <c r="C1" s="390"/>
+      <c r="D1" s="391"/>
+      <c r="E1" s="392"/>
+      <c r="F1" s="393"/>
+      <c r="G1" s="393"/>
+      <c r="H1" s="393"/>
+      <c r="I1" s="393"/>
+      <c r="J1" s="393"/>
+      <c r="K1" s="393"/>
+      <c r="L1" s="393"/>
+      <c r="M1" s="393"/>
+      <c r="N1" s="394"/>
+      <c r="O1" s="399" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="388"/>
-      <c r="Q1" s="388"/>
-      <c r="R1" s="389"/>
-      <c r="S1" s="396" t="s">
+      <c r="P1" s="400"/>
+      <c r="Q1" s="400"/>
+      <c r="R1" s="401"/>
+      <c r="S1" s="408" t="s">
         <v>24</v>
       </c>
-      <c r="T1" s="397"/>
-      <c r="U1" s="397"/>
-      <c r="V1" s="397"/>
-      <c r="W1" s="397"/>
-      <c r="X1" s="397"/>
-      <c r="Y1" s="397"/>
-      <c r="Z1" s="398"/>
-      <c r="AA1" s="377" t="s">
+      <c r="T1" s="409"/>
+      <c r="U1" s="409"/>
+      <c r="V1" s="409"/>
+      <c r="W1" s="409"/>
+      <c r="X1" s="409"/>
+      <c r="Y1" s="409"/>
+      <c r="Z1" s="410"/>
+      <c r="AA1" s="389" t="s">
         <v>11</v>
       </c>
-      <c r="AB1" s="379"/>
-      <c r="AC1" s="405" t="str">
+      <c r="AB1" s="391"/>
+      <c r="AC1" s="417" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="406"/>
-      <c r="AE1" s="406"/>
-      <c r="AF1" s="407"/>
-      <c r="AG1" s="371">
+      <c r="AD1" s="418"/>
+      <c r="AE1" s="418"/>
+      <c r="AF1" s="419"/>
+      <c r="AG1" s="383">
         <f>IF(D8="","",D8)</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="372"/>
-      <c r="AI1" s="373"/>
+      <c r="AH1" s="384"/>
+      <c r="AI1" s="385"/>
       <c r="AJ1" s="7"/>
       <c r="AK1" s="7"/>
       <c r="AL1" s="7"/>
@@ -28600,51 +28480,51 @@
       <c r="AN1" s="8"/>
     </row>
     <row r="2" spans="1:40" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="377" t="s">
+      <c r="A2" s="389" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="378"/>
-      <c r="C2" s="378"/>
-      <c r="D2" s="379"/>
-      <c r="E2" s="380"/>
-      <c r="F2" s="381"/>
-      <c r="G2" s="381"/>
-      <c r="H2" s="381"/>
-      <c r="I2" s="381"/>
-      <c r="J2" s="381"/>
-      <c r="K2" s="381"/>
-      <c r="L2" s="381"/>
-      <c r="M2" s="381"/>
-      <c r="N2" s="382"/>
-      <c r="O2" s="390"/>
-      <c r="P2" s="391"/>
-      <c r="Q2" s="391"/>
-      <c r="R2" s="392"/>
-      <c r="S2" s="399"/>
-      <c r="T2" s="400"/>
-      <c r="U2" s="400"/>
-      <c r="V2" s="400"/>
-      <c r="W2" s="400"/>
-      <c r="X2" s="400"/>
-      <c r="Y2" s="400"/>
-      <c r="Z2" s="401"/>
-      <c r="AA2" s="377" t="s">
+      <c r="B2" s="390"/>
+      <c r="C2" s="390"/>
+      <c r="D2" s="391"/>
+      <c r="E2" s="392"/>
+      <c r="F2" s="393"/>
+      <c r="G2" s="393"/>
+      <c r="H2" s="393"/>
+      <c r="I2" s="393"/>
+      <c r="J2" s="393"/>
+      <c r="K2" s="393"/>
+      <c r="L2" s="393"/>
+      <c r="M2" s="393"/>
+      <c r="N2" s="394"/>
+      <c r="O2" s="402"/>
+      <c r="P2" s="403"/>
+      <c r="Q2" s="403"/>
+      <c r="R2" s="404"/>
+      <c r="S2" s="411"/>
+      <c r="T2" s="412"/>
+      <c r="U2" s="412"/>
+      <c r="V2" s="412"/>
+      <c r="W2" s="412"/>
+      <c r="X2" s="412"/>
+      <c r="Y2" s="412"/>
+      <c r="Z2" s="413"/>
+      <c r="AA2" s="389" t="s">
         <v>12</v>
       </c>
-      <c r="AB2" s="379"/>
-      <c r="AC2" s="383" t="str">
+      <c r="AB2" s="391"/>
+      <c r="AC2" s="395" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="384"/>
-      <c r="AE2" s="384"/>
-      <c r="AF2" s="385"/>
-      <c r="AG2" s="371" t="str">
+      <c r="AD2" s="396"/>
+      <c r="AE2" s="396"/>
+      <c r="AF2" s="397"/>
+      <c r="AG2" s="383" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="372"/>
-      <c r="AI2" s="373"/>
+      <c r="AH2" s="384"/>
+      <c r="AI2" s="385"/>
       <c r="AJ2" s="7"/>
       <c r="AK2" s="7"/>
       <c r="AL2" s="7"/>
@@ -28652,43 +28532,43 @@
       <c r="AN2" s="7"/>
     </row>
     <row r="3" spans="1:40" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="377" t="s">
+      <c r="A3" s="389" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="378"/>
-      <c r="C3" s="378"/>
-      <c r="D3" s="379"/>
-      <c r="E3" s="408"/>
-      <c r="F3" s="381"/>
-      <c r="G3" s="381"/>
-      <c r="H3" s="381"/>
-      <c r="I3" s="381"/>
-      <c r="J3" s="381"/>
-      <c r="K3" s="381"/>
-      <c r="L3" s="381"/>
-      <c r="M3" s="381"/>
-      <c r="N3" s="382"/>
-      <c r="O3" s="393"/>
-      <c r="P3" s="394"/>
-      <c r="Q3" s="394"/>
-      <c r="R3" s="395"/>
-      <c r="S3" s="402"/>
-      <c r="T3" s="403"/>
-      <c r="U3" s="403"/>
-      <c r="V3" s="403"/>
-      <c r="W3" s="403"/>
-      <c r="X3" s="403"/>
-      <c r="Y3" s="403"/>
-      <c r="Z3" s="404"/>
-      <c r="AA3" s="377"/>
-      <c r="AB3" s="379"/>
-      <c r="AC3" s="405"/>
-      <c r="AD3" s="406"/>
-      <c r="AE3" s="406"/>
-      <c r="AF3" s="407"/>
-      <c r="AG3" s="371"/>
-      <c r="AH3" s="372"/>
-      <c r="AI3" s="373"/>
+      <c r="B3" s="390"/>
+      <c r="C3" s="390"/>
+      <c r="D3" s="391"/>
+      <c r="E3" s="420"/>
+      <c r="F3" s="393"/>
+      <c r="G3" s="393"/>
+      <c r="H3" s="393"/>
+      <c r="I3" s="393"/>
+      <c r="J3" s="393"/>
+      <c r="K3" s="393"/>
+      <c r="L3" s="393"/>
+      <c r="M3" s="393"/>
+      <c r="N3" s="394"/>
+      <c r="O3" s="405"/>
+      <c r="P3" s="406"/>
+      <c r="Q3" s="406"/>
+      <c r="R3" s="407"/>
+      <c r="S3" s="414"/>
+      <c r="T3" s="415"/>
+      <c r="U3" s="415"/>
+      <c r="V3" s="415"/>
+      <c r="W3" s="415"/>
+      <c r="X3" s="415"/>
+      <c r="Y3" s="415"/>
+      <c r="Z3" s="416"/>
+      <c r="AA3" s="389"/>
+      <c r="AB3" s="391"/>
+      <c r="AC3" s="417"/>
+      <c r="AD3" s="418"/>
+      <c r="AE3" s="418"/>
+      <c r="AF3" s="419"/>
+      <c r="AG3" s="383"/>
+      <c r="AH3" s="384"/>
+      <c r="AI3" s="385"/>
       <c r="AJ3" s="7"/>
       <c r="AK3" s="7"/>
       <c r="AL3" s="7"/>
@@ -28725,1028 +28605,1028 @@
       <c r="A7" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="374" t="s">
+      <c r="B7" s="386" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="375"/>
-      <c r="D7" s="374" t="s">
+      <c r="C7" s="387"/>
+      <c r="D7" s="386" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="376"/>
-      <c r="F7" s="375"/>
-      <c r="G7" s="374" t="s">
+      <c r="E7" s="388"/>
+      <c r="F7" s="387"/>
+      <c r="G7" s="386" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="376"/>
-      <c r="I7" s="375"/>
-      <c r="J7" s="374" t="s">
+      <c r="H7" s="388"/>
+      <c r="I7" s="387"/>
+      <c r="J7" s="386" t="s">
         <v>9</v>
       </c>
-      <c r="K7" s="376"/>
-      <c r="L7" s="376"/>
-      <c r="M7" s="376"/>
-      <c r="N7" s="376"/>
-      <c r="O7" s="376"/>
-      <c r="P7" s="375"/>
-      <c r="Q7" s="374" t="s">
+      <c r="K7" s="388"/>
+      <c r="L7" s="388"/>
+      <c r="M7" s="388"/>
+      <c r="N7" s="388"/>
+      <c r="O7" s="388"/>
+      <c r="P7" s="387"/>
+      <c r="Q7" s="386" t="s">
         <v>5</v>
       </c>
-      <c r="R7" s="376"/>
-      <c r="S7" s="376"/>
-      <c r="T7" s="376"/>
-      <c r="U7" s="376"/>
-      <c r="V7" s="376"/>
-      <c r="W7" s="376"/>
-      <c r="X7" s="376"/>
-      <c r="Y7" s="376"/>
-      <c r="Z7" s="376"/>
-      <c r="AA7" s="376"/>
-      <c r="AB7" s="376"/>
-      <c r="AC7" s="376"/>
-      <c r="AD7" s="376"/>
-      <c r="AE7" s="375"/>
-      <c r="AF7" s="374" t="s">
+      <c r="R7" s="388"/>
+      <c r="S7" s="388"/>
+      <c r="T7" s="388"/>
+      <c r="U7" s="388"/>
+      <c r="V7" s="388"/>
+      <c r="W7" s="388"/>
+      <c r="X7" s="388"/>
+      <c r="Y7" s="388"/>
+      <c r="Z7" s="388"/>
+      <c r="AA7" s="388"/>
+      <c r="AB7" s="388"/>
+      <c r="AC7" s="388"/>
+      <c r="AD7" s="388"/>
+      <c r="AE7" s="387"/>
+      <c r="AF7" s="386" t="s">
         <v>6</v>
       </c>
-      <c r="AG7" s="376"/>
-      <c r="AH7" s="376"/>
-      <c r="AI7" s="375"/>
+      <c r="AG7" s="388"/>
+      <c r="AH7" s="388"/>
+      <c r="AI7" s="387"/>
     </row>
     <row r="8" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="147">
         <v>1</v>
       </c>
-      <c r="B8" s="421" t="s">
+      <c r="B8" s="433" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="422"/>
-      <c r="D8" s="423">
+      <c r="C8" s="434"/>
+      <c r="D8" s="435">
         <v>43336</v>
       </c>
-      <c r="E8" s="424"/>
-      <c r="F8" s="425"/>
-      <c r="G8" s="426" t="s">
+      <c r="E8" s="436"/>
+      <c r="F8" s="437"/>
+      <c r="G8" s="438" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="427"/>
-      <c r="I8" s="428"/>
-      <c r="J8" s="429" t="s">
+      <c r="H8" s="439"/>
+      <c r="I8" s="440"/>
+      <c r="J8" s="441" t="s">
         <v>21</v>
       </c>
-      <c r="K8" s="430"/>
-      <c r="L8" s="430"/>
-      <c r="M8" s="430"/>
-      <c r="N8" s="430"/>
-      <c r="O8" s="430"/>
-      <c r="P8" s="431"/>
-      <c r="Q8" s="432" t="s">
+      <c r="K8" s="442"/>
+      <c r="L8" s="442"/>
+      <c r="M8" s="442"/>
+      <c r="N8" s="442"/>
+      <c r="O8" s="442"/>
+      <c r="P8" s="443"/>
+      <c r="Q8" s="444" t="s">
         <v>22</v>
       </c>
-      <c r="R8" s="433"/>
-      <c r="S8" s="433"/>
-      <c r="T8" s="433"/>
-      <c r="U8" s="433"/>
-      <c r="V8" s="433"/>
-      <c r="W8" s="433"/>
-      <c r="X8" s="433"/>
-      <c r="Y8" s="433"/>
-      <c r="Z8" s="433"/>
-      <c r="AA8" s="433"/>
-      <c r="AB8" s="433"/>
-      <c r="AC8" s="433"/>
-      <c r="AD8" s="433"/>
-      <c r="AE8" s="434"/>
-      <c r="AF8" s="429" t="s">
+      <c r="R8" s="445"/>
+      <c r="S8" s="445"/>
+      <c r="T8" s="445"/>
+      <c r="U8" s="445"/>
+      <c r="V8" s="445"/>
+      <c r="W8" s="445"/>
+      <c r="X8" s="445"/>
+      <c r="Y8" s="445"/>
+      <c r="Z8" s="445"/>
+      <c r="AA8" s="445"/>
+      <c r="AB8" s="445"/>
+      <c r="AC8" s="445"/>
+      <c r="AD8" s="445"/>
+      <c r="AE8" s="446"/>
+      <c r="AF8" s="441" t="s">
         <v>23</v>
       </c>
-      <c r="AG8" s="430"/>
-      <c r="AH8" s="430"/>
-      <c r="AI8" s="431"/>
+      <c r="AG8" s="442"/>
+      <c r="AH8" s="442"/>
+      <c r="AI8" s="443"/>
     </row>
     <row r="9" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="146"/>
-      <c r="B9" s="409"/>
-      <c r="C9" s="410"/>
-      <c r="D9" s="411"/>
-      <c r="E9" s="412"/>
-      <c r="F9" s="413"/>
-      <c r="G9" s="411"/>
-      <c r="H9" s="414"/>
-      <c r="I9" s="410"/>
-      <c r="J9" s="415"/>
-      <c r="K9" s="416"/>
-      <c r="L9" s="416"/>
-      <c r="M9" s="416"/>
-      <c r="N9" s="416"/>
-      <c r="O9" s="416"/>
-      <c r="P9" s="417"/>
-      <c r="Q9" s="418"/>
-      <c r="R9" s="419"/>
-      <c r="S9" s="419"/>
-      <c r="T9" s="419"/>
-      <c r="U9" s="419"/>
-      <c r="V9" s="419"/>
-      <c r="W9" s="419"/>
-      <c r="X9" s="419"/>
-      <c r="Y9" s="419"/>
-      <c r="Z9" s="419"/>
-      <c r="AA9" s="419"/>
-      <c r="AB9" s="419"/>
-      <c r="AC9" s="419"/>
-      <c r="AD9" s="419"/>
-      <c r="AE9" s="420"/>
-      <c r="AF9" s="415"/>
-      <c r="AG9" s="416"/>
-      <c r="AH9" s="416"/>
-      <c r="AI9" s="417"/>
+      <c r="B9" s="421"/>
+      <c r="C9" s="422"/>
+      <c r="D9" s="423"/>
+      <c r="E9" s="424"/>
+      <c r="F9" s="425"/>
+      <c r="G9" s="423"/>
+      <c r="H9" s="426"/>
+      <c r="I9" s="422"/>
+      <c r="J9" s="427"/>
+      <c r="K9" s="428"/>
+      <c r="L9" s="428"/>
+      <c r="M9" s="428"/>
+      <c r="N9" s="428"/>
+      <c r="O9" s="428"/>
+      <c r="P9" s="429"/>
+      <c r="Q9" s="430"/>
+      <c r="R9" s="431"/>
+      <c r="S9" s="431"/>
+      <c r="T9" s="431"/>
+      <c r="U9" s="431"/>
+      <c r="V9" s="431"/>
+      <c r="W9" s="431"/>
+      <c r="X9" s="431"/>
+      <c r="Y9" s="431"/>
+      <c r="Z9" s="431"/>
+      <c r="AA9" s="431"/>
+      <c r="AB9" s="431"/>
+      <c r="AC9" s="431"/>
+      <c r="AD9" s="431"/>
+      <c r="AE9" s="432"/>
+      <c r="AF9" s="427"/>
+      <c r="AG9" s="428"/>
+      <c r="AH9" s="428"/>
+      <c r="AI9" s="429"/>
     </row>
     <row r="10" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="146"/>
-      <c r="B10" s="409"/>
-      <c r="C10" s="410"/>
-      <c r="D10" s="411"/>
-      <c r="E10" s="412"/>
-      <c r="F10" s="413"/>
-      <c r="G10" s="409"/>
-      <c r="H10" s="414"/>
-      <c r="I10" s="410"/>
-      <c r="J10" s="415"/>
-      <c r="K10" s="416"/>
-      <c r="L10" s="416"/>
-      <c r="M10" s="416"/>
-      <c r="N10" s="416"/>
-      <c r="O10" s="416"/>
-      <c r="P10" s="417"/>
-      <c r="Q10" s="418"/>
-      <c r="R10" s="419"/>
-      <c r="S10" s="419"/>
-      <c r="T10" s="419"/>
-      <c r="U10" s="419"/>
-      <c r="V10" s="419"/>
-      <c r="W10" s="419"/>
-      <c r="X10" s="419"/>
-      <c r="Y10" s="419"/>
-      <c r="Z10" s="419"/>
-      <c r="AA10" s="419"/>
-      <c r="AB10" s="419"/>
-      <c r="AC10" s="419"/>
-      <c r="AD10" s="419"/>
-      <c r="AE10" s="420"/>
-      <c r="AF10" s="415"/>
-      <c r="AG10" s="416"/>
-      <c r="AH10" s="416"/>
-      <c r="AI10" s="417"/>
+      <c r="B10" s="421"/>
+      <c r="C10" s="422"/>
+      <c r="D10" s="423"/>
+      <c r="E10" s="424"/>
+      <c r="F10" s="425"/>
+      <c r="G10" s="421"/>
+      <c r="H10" s="426"/>
+      <c r="I10" s="422"/>
+      <c r="J10" s="427"/>
+      <c r="K10" s="428"/>
+      <c r="L10" s="428"/>
+      <c r="M10" s="428"/>
+      <c r="N10" s="428"/>
+      <c r="O10" s="428"/>
+      <c r="P10" s="429"/>
+      <c r="Q10" s="430"/>
+      <c r="R10" s="431"/>
+      <c r="S10" s="431"/>
+      <c r="T10" s="431"/>
+      <c r="U10" s="431"/>
+      <c r="V10" s="431"/>
+      <c r="W10" s="431"/>
+      <c r="X10" s="431"/>
+      <c r="Y10" s="431"/>
+      <c r="Z10" s="431"/>
+      <c r="AA10" s="431"/>
+      <c r="AB10" s="431"/>
+      <c r="AC10" s="431"/>
+      <c r="AD10" s="431"/>
+      <c r="AE10" s="432"/>
+      <c r="AF10" s="427"/>
+      <c r="AG10" s="428"/>
+      <c r="AH10" s="428"/>
+      <c r="AI10" s="429"/>
     </row>
     <row r="11" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="146"/>
-      <c r="B11" s="409"/>
-      <c r="C11" s="410"/>
-      <c r="D11" s="411"/>
-      <c r="E11" s="412"/>
-      <c r="F11" s="413"/>
-      <c r="G11" s="409"/>
-      <c r="H11" s="414"/>
-      <c r="I11" s="410"/>
-      <c r="J11" s="415"/>
-      <c r="K11" s="416"/>
-      <c r="L11" s="416"/>
-      <c r="M11" s="416"/>
-      <c r="N11" s="416"/>
-      <c r="O11" s="416"/>
-      <c r="P11" s="417"/>
-      <c r="Q11" s="418"/>
-      <c r="R11" s="419"/>
-      <c r="S11" s="419"/>
-      <c r="T11" s="419"/>
-      <c r="U11" s="419"/>
-      <c r="V11" s="419"/>
-      <c r="W11" s="419"/>
-      <c r="X11" s="419"/>
-      <c r="Y11" s="419"/>
-      <c r="Z11" s="419"/>
-      <c r="AA11" s="419"/>
-      <c r="AB11" s="419"/>
-      <c r="AC11" s="419"/>
-      <c r="AD11" s="419"/>
-      <c r="AE11" s="420"/>
-      <c r="AF11" s="415"/>
-      <c r="AG11" s="416"/>
-      <c r="AH11" s="416"/>
-      <c r="AI11" s="417"/>
+      <c r="B11" s="421"/>
+      <c r="C11" s="422"/>
+      <c r="D11" s="423"/>
+      <c r="E11" s="424"/>
+      <c r="F11" s="425"/>
+      <c r="G11" s="421"/>
+      <c r="H11" s="426"/>
+      <c r="I11" s="422"/>
+      <c r="J11" s="427"/>
+      <c r="K11" s="428"/>
+      <c r="L11" s="428"/>
+      <c r="M11" s="428"/>
+      <c r="N11" s="428"/>
+      <c r="O11" s="428"/>
+      <c r="P11" s="429"/>
+      <c r="Q11" s="430"/>
+      <c r="R11" s="431"/>
+      <c r="S11" s="431"/>
+      <c r="T11" s="431"/>
+      <c r="U11" s="431"/>
+      <c r="V11" s="431"/>
+      <c r="W11" s="431"/>
+      <c r="X11" s="431"/>
+      <c r="Y11" s="431"/>
+      <c r="Z11" s="431"/>
+      <c r="AA11" s="431"/>
+      <c r="AB11" s="431"/>
+      <c r="AC11" s="431"/>
+      <c r="AD11" s="431"/>
+      <c r="AE11" s="432"/>
+      <c r="AF11" s="427"/>
+      <c r="AG11" s="428"/>
+      <c r="AH11" s="428"/>
+      <c r="AI11" s="429"/>
     </row>
     <row r="12" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="146"/>
-      <c r="B12" s="409"/>
-      <c r="C12" s="410"/>
-      <c r="D12" s="411"/>
-      <c r="E12" s="412"/>
-      <c r="F12" s="413"/>
-      <c r="G12" s="409"/>
-      <c r="H12" s="414"/>
-      <c r="I12" s="410"/>
-      <c r="J12" s="415"/>
-      <c r="K12" s="416"/>
-      <c r="L12" s="416"/>
-      <c r="M12" s="416"/>
-      <c r="N12" s="416"/>
-      <c r="O12" s="416"/>
-      <c r="P12" s="417"/>
-      <c r="Q12" s="418"/>
-      <c r="R12" s="419"/>
-      <c r="S12" s="419"/>
-      <c r="T12" s="419"/>
-      <c r="U12" s="419"/>
-      <c r="V12" s="419"/>
-      <c r="W12" s="419"/>
-      <c r="X12" s="419"/>
-      <c r="Y12" s="419"/>
-      <c r="Z12" s="419"/>
-      <c r="AA12" s="419"/>
-      <c r="AB12" s="419"/>
-      <c r="AC12" s="419"/>
-      <c r="AD12" s="419"/>
-      <c r="AE12" s="420"/>
-      <c r="AF12" s="415"/>
-      <c r="AG12" s="416"/>
-      <c r="AH12" s="416"/>
-      <c r="AI12" s="417"/>
+      <c r="B12" s="421"/>
+      <c r="C12" s="422"/>
+      <c r="D12" s="423"/>
+      <c r="E12" s="424"/>
+      <c r="F12" s="425"/>
+      <c r="G12" s="421"/>
+      <c r="H12" s="426"/>
+      <c r="I12" s="422"/>
+      <c r="J12" s="427"/>
+      <c r="K12" s="428"/>
+      <c r="L12" s="428"/>
+      <c r="M12" s="428"/>
+      <c r="N12" s="428"/>
+      <c r="O12" s="428"/>
+      <c r="P12" s="429"/>
+      <c r="Q12" s="430"/>
+      <c r="R12" s="431"/>
+      <c r="S12" s="431"/>
+      <c r="T12" s="431"/>
+      <c r="U12" s="431"/>
+      <c r="V12" s="431"/>
+      <c r="W12" s="431"/>
+      <c r="X12" s="431"/>
+      <c r="Y12" s="431"/>
+      <c r="Z12" s="431"/>
+      <c r="AA12" s="431"/>
+      <c r="AB12" s="431"/>
+      <c r="AC12" s="431"/>
+      <c r="AD12" s="431"/>
+      <c r="AE12" s="432"/>
+      <c r="AF12" s="427"/>
+      <c r="AG12" s="428"/>
+      <c r="AH12" s="428"/>
+      <c r="AI12" s="429"/>
     </row>
     <row r="13" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="146"/>
-      <c r="B13" s="409"/>
-      <c r="C13" s="410"/>
-      <c r="D13" s="411"/>
-      <c r="E13" s="412"/>
-      <c r="F13" s="413"/>
-      <c r="G13" s="409"/>
-      <c r="H13" s="414"/>
-      <c r="I13" s="410"/>
-      <c r="J13" s="415"/>
-      <c r="K13" s="416"/>
-      <c r="L13" s="416"/>
-      <c r="M13" s="416"/>
-      <c r="N13" s="416"/>
-      <c r="O13" s="416"/>
-      <c r="P13" s="417"/>
-      <c r="Q13" s="418"/>
-      <c r="R13" s="419"/>
-      <c r="S13" s="419"/>
-      <c r="T13" s="419"/>
-      <c r="U13" s="419"/>
-      <c r="V13" s="419"/>
-      <c r="W13" s="419"/>
-      <c r="X13" s="419"/>
-      <c r="Y13" s="419"/>
-      <c r="Z13" s="419"/>
-      <c r="AA13" s="419"/>
-      <c r="AB13" s="419"/>
-      <c r="AC13" s="419"/>
-      <c r="AD13" s="419"/>
-      <c r="AE13" s="420"/>
-      <c r="AF13" s="415"/>
-      <c r="AG13" s="416"/>
-      <c r="AH13" s="416"/>
-      <c r="AI13" s="417"/>
+      <c r="B13" s="421"/>
+      <c r="C13" s="422"/>
+      <c r="D13" s="423"/>
+      <c r="E13" s="424"/>
+      <c r="F13" s="425"/>
+      <c r="G13" s="421"/>
+      <c r="H13" s="426"/>
+      <c r="I13" s="422"/>
+      <c r="J13" s="427"/>
+      <c r="K13" s="428"/>
+      <c r="L13" s="428"/>
+      <c r="M13" s="428"/>
+      <c r="N13" s="428"/>
+      <c r="O13" s="428"/>
+      <c r="P13" s="429"/>
+      <c r="Q13" s="430"/>
+      <c r="R13" s="431"/>
+      <c r="S13" s="431"/>
+      <c r="T13" s="431"/>
+      <c r="U13" s="431"/>
+      <c r="V13" s="431"/>
+      <c r="W13" s="431"/>
+      <c r="X13" s="431"/>
+      <c r="Y13" s="431"/>
+      <c r="Z13" s="431"/>
+      <c r="AA13" s="431"/>
+      <c r="AB13" s="431"/>
+      <c r="AC13" s="431"/>
+      <c r="AD13" s="431"/>
+      <c r="AE13" s="432"/>
+      <c r="AF13" s="427"/>
+      <c r="AG13" s="428"/>
+      <c r="AH13" s="428"/>
+      <c r="AI13" s="429"/>
     </row>
     <row r="14" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="146"/>
-      <c r="B14" s="409"/>
-      <c r="C14" s="410"/>
-      <c r="D14" s="411"/>
-      <c r="E14" s="412"/>
-      <c r="F14" s="413"/>
-      <c r="G14" s="409"/>
-      <c r="H14" s="414"/>
-      <c r="I14" s="410"/>
-      <c r="J14" s="415"/>
-      <c r="K14" s="416"/>
-      <c r="L14" s="416"/>
-      <c r="M14" s="416"/>
-      <c r="N14" s="416"/>
-      <c r="O14" s="416"/>
-      <c r="P14" s="417"/>
-      <c r="Q14" s="418"/>
-      <c r="R14" s="419"/>
-      <c r="S14" s="419"/>
-      <c r="T14" s="419"/>
-      <c r="U14" s="419"/>
-      <c r="V14" s="419"/>
-      <c r="W14" s="419"/>
-      <c r="X14" s="419"/>
-      <c r="Y14" s="419"/>
-      <c r="Z14" s="419"/>
-      <c r="AA14" s="419"/>
-      <c r="AB14" s="419"/>
-      <c r="AC14" s="419"/>
-      <c r="AD14" s="419"/>
-      <c r="AE14" s="420"/>
-      <c r="AF14" s="415"/>
-      <c r="AG14" s="416"/>
-      <c r="AH14" s="416"/>
-      <c r="AI14" s="417"/>
+      <c r="B14" s="421"/>
+      <c r="C14" s="422"/>
+      <c r="D14" s="423"/>
+      <c r="E14" s="424"/>
+      <c r="F14" s="425"/>
+      <c r="G14" s="421"/>
+      <c r="H14" s="426"/>
+      <c r="I14" s="422"/>
+      <c r="J14" s="427"/>
+      <c r="K14" s="428"/>
+      <c r="L14" s="428"/>
+      <c r="M14" s="428"/>
+      <c r="N14" s="428"/>
+      <c r="O14" s="428"/>
+      <c r="P14" s="429"/>
+      <c r="Q14" s="430"/>
+      <c r="R14" s="431"/>
+      <c r="S14" s="431"/>
+      <c r="T14" s="431"/>
+      <c r="U14" s="431"/>
+      <c r="V14" s="431"/>
+      <c r="W14" s="431"/>
+      <c r="X14" s="431"/>
+      <c r="Y14" s="431"/>
+      <c r="Z14" s="431"/>
+      <c r="AA14" s="431"/>
+      <c r="AB14" s="431"/>
+      <c r="AC14" s="431"/>
+      <c r="AD14" s="431"/>
+      <c r="AE14" s="432"/>
+      <c r="AF14" s="427"/>
+      <c r="AG14" s="428"/>
+      <c r="AH14" s="428"/>
+      <c r="AI14" s="429"/>
     </row>
     <row r="15" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="146"/>
-      <c r="B15" s="409"/>
-      <c r="C15" s="410"/>
-      <c r="D15" s="411"/>
-      <c r="E15" s="412"/>
-      <c r="F15" s="413"/>
-      <c r="G15" s="409"/>
-      <c r="H15" s="414"/>
-      <c r="I15" s="410"/>
-      <c r="J15" s="415"/>
-      <c r="K15" s="416"/>
-      <c r="L15" s="416"/>
-      <c r="M15" s="416"/>
-      <c r="N15" s="416"/>
-      <c r="O15" s="416"/>
-      <c r="P15" s="417"/>
-      <c r="Q15" s="418"/>
-      <c r="R15" s="419"/>
-      <c r="S15" s="419"/>
-      <c r="T15" s="419"/>
-      <c r="U15" s="419"/>
-      <c r="V15" s="419"/>
-      <c r="W15" s="419"/>
-      <c r="X15" s="419"/>
-      <c r="Y15" s="419"/>
-      <c r="Z15" s="419"/>
-      <c r="AA15" s="419"/>
-      <c r="AB15" s="419"/>
-      <c r="AC15" s="419"/>
-      <c r="AD15" s="419"/>
-      <c r="AE15" s="420"/>
-      <c r="AF15" s="415"/>
-      <c r="AG15" s="416"/>
-      <c r="AH15" s="416"/>
-      <c r="AI15" s="417"/>
+      <c r="B15" s="421"/>
+      <c r="C15" s="422"/>
+      <c r="D15" s="423"/>
+      <c r="E15" s="424"/>
+      <c r="F15" s="425"/>
+      <c r="G15" s="421"/>
+      <c r="H15" s="426"/>
+      <c r="I15" s="422"/>
+      <c r="J15" s="427"/>
+      <c r="K15" s="428"/>
+      <c r="L15" s="428"/>
+      <c r="M15" s="428"/>
+      <c r="N15" s="428"/>
+      <c r="O15" s="428"/>
+      <c r="P15" s="429"/>
+      <c r="Q15" s="430"/>
+      <c r="R15" s="431"/>
+      <c r="S15" s="431"/>
+      <c r="T15" s="431"/>
+      <c r="U15" s="431"/>
+      <c r="V15" s="431"/>
+      <c r="W15" s="431"/>
+      <c r="X15" s="431"/>
+      <c r="Y15" s="431"/>
+      <c r="Z15" s="431"/>
+      <c r="AA15" s="431"/>
+      <c r="AB15" s="431"/>
+      <c r="AC15" s="431"/>
+      <c r="AD15" s="431"/>
+      <c r="AE15" s="432"/>
+      <c r="AF15" s="427"/>
+      <c r="AG15" s="428"/>
+      <c r="AH15" s="428"/>
+      <c r="AI15" s="429"/>
     </row>
     <row r="16" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="146"/>
-      <c r="B16" s="409"/>
-      <c r="C16" s="410"/>
-      <c r="D16" s="411"/>
-      <c r="E16" s="412"/>
-      <c r="F16" s="413"/>
-      <c r="G16" s="409"/>
-      <c r="H16" s="414"/>
-      <c r="I16" s="410"/>
-      <c r="J16" s="415"/>
-      <c r="K16" s="416"/>
-      <c r="L16" s="416"/>
-      <c r="M16" s="416"/>
-      <c r="N16" s="416"/>
-      <c r="O16" s="416"/>
-      <c r="P16" s="417"/>
-      <c r="Q16" s="418"/>
-      <c r="R16" s="419"/>
-      <c r="S16" s="419"/>
-      <c r="T16" s="419"/>
-      <c r="U16" s="419"/>
-      <c r="V16" s="419"/>
-      <c r="W16" s="419"/>
-      <c r="X16" s="419"/>
-      <c r="Y16" s="419"/>
-      <c r="Z16" s="419"/>
-      <c r="AA16" s="419"/>
-      <c r="AB16" s="419"/>
-      <c r="AC16" s="419"/>
-      <c r="AD16" s="419"/>
-      <c r="AE16" s="420"/>
-      <c r="AF16" s="415"/>
-      <c r="AG16" s="416"/>
-      <c r="AH16" s="416"/>
-      <c r="AI16" s="417"/>
+      <c r="B16" s="421"/>
+      <c r="C16" s="422"/>
+      <c r="D16" s="423"/>
+      <c r="E16" s="424"/>
+      <c r="F16" s="425"/>
+      <c r="G16" s="421"/>
+      <c r="H16" s="426"/>
+      <c r="I16" s="422"/>
+      <c r="J16" s="427"/>
+      <c r="K16" s="428"/>
+      <c r="L16" s="428"/>
+      <c r="M16" s="428"/>
+      <c r="N16" s="428"/>
+      <c r="O16" s="428"/>
+      <c r="P16" s="429"/>
+      <c r="Q16" s="430"/>
+      <c r="R16" s="431"/>
+      <c r="S16" s="431"/>
+      <c r="T16" s="431"/>
+      <c r="U16" s="431"/>
+      <c r="V16" s="431"/>
+      <c r="W16" s="431"/>
+      <c r="X16" s="431"/>
+      <c r="Y16" s="431"/>
+      <c r="Z16" s="431"/>
+      <c r="AA16" s="431"/>
+      <c r="AB16" s="431"/>
+      <c r="AC16" s="431"/>
+      <c r="AD16" s="431"/>
+      <c r="AE16" s="432"/>
+      <c r="AF16" s="427"/>
+      <c r="AG16" s="428"/>
+      <c r="AH16" s="428"/>
+      <c r="AI16" s="429"/>
     </row>
     <row r="17" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="146"/>
-      <c r="B17" s="409"/>
-      <c r="C17" s="410"/>
-      <c r="D17" s="411"/>
-      <c r="E17" s="412"/>
-      <c r="F17" s="413"/>
-      <c r="G17" s="409"/>
-      <c r="H17" s="414"/>
-      <c r="I17" s="410"/>
-      <c r="J17" s="415"/>
-      <c r="K17" s="416"/>
-      <c r="L17" s="416"/>
-      <c r="M17" s="416"/>
-      <c r="N17" s="416"/>
-      <c r="O17" s="416"/>
-      <c r="P17" s="417"/>
-      <c r="Q17" s="418"/>
-      <c r="R17" s="419"/>
-      <c r="S17" s="419"/>
-      <c r="T17" s="419"/>
-      <c r="U17" s="419"/>
-      <c r="V17" s="419"/>
-      <c r="W17" s="419"/>
-      <c r="X17" s="419"/>
-      <c r="Y17" s="419"/>
-      <c r="Z17" s="419"/>
-      <c r="AA17" s="419"/>
-      <c r="AB17" s="419"/>
-      <c r="AC17" s="419"/>
-      <c r="AD17" s="419"/>
-      <c r="AE17" s="420"/>
-      <c r="AF17" s="415"/>
-      <c r="AG17" s="416"/>
-      <c r="AH17" s="416"/>
-      <c r="AI17" s="417"/>
+      <c r="B17" s="421"/>
+      <c r="C17" s="422"/>
+      <c r="D17" s="423"/>
+      <c r="E17" s="424"/>
+      <c r="F17" s="425"/>
+      <c r="G17" s="421"/>
+      <c r="H17" s="426"/>
+      <c r="I17" s="422"/>
+      <c r="J17" s="427"/>
+      <c r="K17" s="428"/>
+      <c r="L17" s="428"/>
+      <c r="M17" s="428"/>
+      <c r="N17" s="428"/>
+      <c r="O17" s="428"/>
+      <c r="P17" s="429"/>
+      <c r="Q17" s="430"/>
+      <c r="R17" s="431"/>
+      <c r="S17" s="431"/>
+      <c r="T17" s="431"/>
+      <c r="U17" s="431"/>
+      <c r="V17" s="431"/>
+      <c r="W17" s="431"/>
+      <c r="X17" s="431"/>
+      <c r="Y17" s="431"/>
+      <c r="Z17" s="431"/>
+      <c r="AA17" s="431"/>
+      <c r="AB17" s="431"/>
+      <c r="AC17" s="431"/>
+      <c r="AD17" s="431"/>
+      <c r="AE17" s="432"/>
+      <c r="AF17" s="427"/>
+      <c r="AG17" s="428"/>
+      <c r="AH17" s="428"/>
+      <c r="AI17" s="429"/>
     </row>
     <row r="18" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="146"/>
-      <c r="B18" s="409"/>
-      <c r="C18" s="410"/>
-      <c r="D18" s="411"/>
-      <c r="E18" s="412"/>
-      <c r="F18" s="413"/>
-      <c r="G18" s="409"/>
-      <c r="H18" s="414"/>
-      <c r="I18" s="410"/>
-      <c r="J18" s="415"/>
-      <c r="K18" s="416"/>
-      <c r="L18" s="416"/>
-      <c r="M18" s="416"/>
-      <c r="N18" s="416"/>
-      <c r="O18" s="416"/>
-      <c r="P18" s="417"/>
-      <c r="Q18" s="418"/>
-      <c r="R18" s="419"/>
-      <c r="S18" s="419"/>
-      <c r="T18" s="419"/>
-      <c r="U18" s="419"/>
-      <c r="V18" s="419"/>
-      <c r="W18" s="419"/>
-      <c r="X18" s="419"/>
-      <c r="Y18" s="419"/>
-      <c r="Z18" s="419"/>
-      <c r="AA18" s="419"/>
-      <c r="AB18" s="419"/>
-      <c r="AC18" s="419"/>
-      <c r="AD18" s="419"/>
-      <c r="AE18" s="420"/>
-      <c r="AF18" s="415"/>
-      <c r="AG18" s="416"/>
-      <c r="AH18" s="416"/>
-      <c r="AI18" s="417"/>
+      <c r="B18" s="421"/>
+      <c r="C18" s="422"/>
+      <c r="D18" s="423"/>
+      <c r="E18" s="424"/>
+      <c r="F18" s="425"/>
+      <c r="G18" s="421"/>
+      <c r="H18" s="426"/>
+      <c r="I18" s="422"/>
+      <c r="J18" s="427"/>
+      <c r="K18" s="428"/>
+      <c r="L18" s="428"/>
+      <c r="M18" s="428"/>
+      <c r="N18" s="428"/>
+      <c r="O18" s="428"/>
+      <c r="P18" s="429"/>
+      <c r="Q18" s="430"/>
+      <c r="R18" s="431"/>
+      <c r="S18" s="431"/>
+      <c r="T18" s="431"/>
+      <c r="U18" s="431"/>
+      <c r="V18" s="431"/>
+      <c r="W18" s="431"/>
+      <c r="X18" s="431"/>
+      <c r="Y18" s="431"/>
+      <c r="Z18" s="431"/>
+      <c r="AA18" s="431"/>
+      <c r="AB18" s="431"/>
+      <c r="AC18" s="431"/>
+      <c r="AD18" s="431"/>
+      <c r="AE18" s="432"/>
+      <c r="AF18" s="427"/>
+      <c r="AG18" s="428"/>
+      <c r="AH18" s="428"/>
+      <c r="AI18" s="429"/>
     </row>
     <row r="19" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="146"/>
-      <c r="B19" s="409"/>
-      <c r="C19" s="410"/>
-      <c r="D19" s="411"/>
-      <c r="E19" s="412"/>
-      <c r="F19" s="413"/>
-      <c r="G19" s="409"/>
-      <c r="H19" s="414"/>
-      <c r="I19" s="410"/>
-      <c r="J19" s="415"/>
-      <c r="K19" s="416"/>
-      <c r="L19" s="416"/>
-      <c r="M19" s="416"/>
-      <c r="N19" s="416"/>
-      <c r="O19" s="416"/>
-      <c r="P19" s="417"/>
-      <c r="Q19" s="418"/>
-      <c r="R19" s="419"/>
-      <c r="S19" s="419"/>
-      <c r="T19" s="419"/>
-      <c r="U19" s="419"/>
-      <c r="V19" s="419"/>
-      <c r="W19" s="419"/>
-      <c r="X19" s="419"/>
-      <c r="Y19" s="419"/>
-      <c r="Z19" s="419"/>
-      <c r="AA19" s="419"/>
-      <c r="AB19" s="419"/>
-      <c r="AC19" s="419"/>
-      <c r="AD19" s="419"/>
-      <c r="AE19" s="420"/>
-      <c r="AF19" s="415"/>
-      <c r="AG19" s="416"/>
-      <c r="AH19" s="416"/>
-      <c r="AI19" s="417"/>
+      <c r="B19" s="421"/>
+      <c r="C19" s="422"/>
+      <c r="D19" s="423"/>
+      <c r="E19" s="424"/>
+      <c r="F19" s="425"/>
+      <c r="G19" s="421"/>
+      <c r="H19" s="426"/>
+      <c r="I19" s="422"/>
+      <c r="J19" s="427"/>
+      <c r="K19" s="428"/>
+      <c r="L19" s="428"/>
+      <c r="M19" s="428"/>
+      <c r="N19" s="428"/>
+      <c r="O19" s="428"/>
+      <c r="P19" s="429"/>
+      <c r="Q19" s="430"/>
+      <c r="R19" s="431"/>
+      <c r="S19" s="431"/>
+      <c r="T19" s="431"/>
+      <c r="U19" s="431"/>
+      <c r="V19" s="431"/>
+      <c r="W19" s="431"/>
+      <c r="X19" s="431"/>
+      <c r="Y19" s="431"/>
+      <c r="Z19" s="431"/>
+      <c r="AA19" s="431"/>
+      <c r="AB19" s="431"/>
+      <c r="AC19" s="431"/>
+      <c r="AD19" s="431"/>
+      <c r="AE19" s="432"/>
+      <c r="AF19" s="427"/>
+      <c r="AG19" s="428"/>
+      <c r="AH19" s="428"/>
+      <c r="AI19" s="429"/>
     </row>
     <row r="20" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="146"/>
-      <c r="B20" s="409"/>
-      <c r="C20" s="410"/>
-      <c r="D20" s="411"/>
-      <c r="E20" s="412"/>
-      <c r="F20" s="413"/>
-      <c r="G20" s="409"/>
-      <c r="H20" s="414"/>
-      <c r="I20" s="410"/>
-      <c r="J20" s="415"/>
-      <c r="K20" s="416"/>
-      <c r="L20" s="416"/>
-      <c r="M20" s="416"/>
-      <c r="N20" s="416"/>
-      <c r="O20" s="416"/>
-      <c r="P20" s="417"/>
-      <c r="Q20" s="418"/>
-      <c r="R20" s="419"/>
-      <c r="S20" s="419"/>
-      <c r="T20" s="419"/>
-      <c r="U20" s="419"/>
-      <c r="V20" s="419"/>
-      <c r="W20" s="419"/>
-      <c r="X20" s="419"/>
-      <c r="Y20" s="419"/>
-      <c r="Z20" s="419"/>
-      <c r="AA20" s="419"/>
-      <c r="AB20" s="419"/>
-      <c r="AC20" s="419"/>
-      <c r="AD20" s="419"/>
-      <c r="AE20" s="420"/>
-      <c r="AF20" s="415"/>
-      <c r="AG20" s="416"/>
-      <c r="AH20" s="416"/>
-      <c r="AI20" s="417"/>
+      <c r="B20" s="421"/>
+      <c r="C20" s="422"/>
+      <c r="D20" s="423"/>
+      <c r="E20" s="424"/>
+      <c r="F20" s="425"/>
+      <c r="G20" s="421"/>
+      <c r="H20" s="426"/>
+      <c r="I20" s="422"/>
+      <c r="J20" s="427"/>
+      <c r="K20" s="428"/>
+      <c r="L20" s="428"/>
+      <c r="M20" s="428"/>
+      <c r="N20" s="428"/>
+      <c r="O20" s="428"/>
+      <c r="P20" s="429"/>
+      <c r="Q20" s="430"/>
+      <c r="R20" s="431"/>
+      <c r="S20" s="431"/>
+      <c r="T20" s="431"/>
+      <c r="U20" s="431"/>
+      <c r="V20" s="431"/>
+      <c r="W20" s="431"/>
+      <c r="X20" s="431"/>
+      <c r="Y20" s="431"/>
+      <c r="Z20" s="431"/>
+      <c r="AA20" s="431"/>
+      <c r="AB20" s="431"/>
+      <c r="AC20" s="431"/>
+      <c r="AD20" s="431"/>
+      <c r="AE20" s="432"/>
+      <c r="AF20" s="427"/>
+      <c r="AG20" s="428"/>
+      <c r="AH20" s="428"/>
+      <c r="AI20" s="429"/>
     </row>
     <row r="21" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="146"/>
-      <c r="B21" s="409"/>
-      <c r="C21" s="410"/>
-      <c r="D21" s="411"/>
-      <c r="E21" s="412"/>
-      <c r="F21" s="413"/>
-      <c r="G21" s="409"/>
-      <c r="H21" s="414"/>
-      <c r="I21" s="410"/>
-      <c r="J21" s="415"/>
-      <c r="K21" s="416"/>
-      <c r="L21" s="416"/>
-      <c r="M21" s="416"/>
-      <c r="N21" s="416"/>
-      <c r="O21" s="416"/>
-      <c r="P21" s="417"/>
-      <c r="Q21" s="418"/>
-      <c r="R21" s="419"/>
-      <c r="S21" s="419"/>
-      <c r="T21" s="419"/>
-      <c r="U21" s="419"/>
-      <c r="V21" s="419"/>
-      <c r="W21" s="419"/>
-      <c r="X21" s="419"/>
-      <c r="Y21" s="419"/>
-      <c r="Z21" s="419"/>
-      <c r="AA21" s="419"/>
-      <c r="AB21" s="419"/>
-      <c r="AC21" s="419"/>
-      <c r="AD21" s="419"/>
-      <c r="AE21" s="420"/>
-      <c r="AF21" s="415"/>
-      <c r="AG21" s="416"/>
-      <c r="AH21" s="416"/>
-      <c r="AI21" s="417"/>
+      <c r="B21" s="421"/>
+      <c r="C21" s="422"/>
+      <c r="D21" s="423"/>
+      <c r="E21" s="424"/>
+      <c r="F21" s="425"/>
+      <c r="G21" s="421"/>
+      <c r="H21" s="426"/>
+      <c r="I21" s="422"/>
+      <c r="J21" s="427"/>
+      <c r="K21" s="428"/>
+      <c r="L21" s="428"/>
+      <c r="M21" s="428"/>
+      <c r="N21" s="428"/>
+      <c r="O21" s="428"/>
+      <c r="P21" s="429"/>
+      <c r="Q21" s="430"/>
+      <c r="R21" s="431"/>
+      <c r="S21" s="431"/>
+      <c r="T21" s="431"/>
+      <c r="U21" s="431"/>
+      <c r="V21" s="431"/>
+      <c r="W21" s="431"/>
+      <c r="X21" s="431"/>
+      <c r="Y21" s="431"/>
+      <c r="Z21" s="431"/>
+      <c r="AA21" s="431"/>
+      <c r="AB21" s="431"/>
+      <c r="AC21" s="431"/>
+      <c r="AD21" s="431"/>
+      <c r="AE21" s="432"/>
+      <c r="AF21" s="427"/>
+      <c r="AG21" s="428"/>
+      <c r="AH21" s="428"/>
+      <c r="AI21" s="429"/>
     </row>
     <row r="22" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="146"/>
-      <c r="B22" s="409"/>
-      <c r="C22" s="410"/>
-      <c r="D22" s="411"/>
-      <c r="E22" s="412"/>
-      <c r="F22" s="413"/>
-      <c r="G22" s="409"/>
-      <c r="H22" s="414"/>
-      <c r="I22" s="410"/>
-      <c r="J22" s="415"/>
-      <c r="K22" s="416"/>
-      <c r="L22" s="416"/>
-      <c r="M22" s="416"/>
-      <c r="N22" s="416"/>
-      <c r="O22" s="416"/>
-      <c r="P22" s="417"/>
-      <c r="Q22" s="418"/>
-      <c r="R22" s="419"/>
-      <c r="S22" s="419"/>
-      <c r="T22" s="419"/>
-      <c r="U22" s="419"/>
-      <c r="V22" s="419"/>
-      <c r="W22" s="419"/>
-      <c r="X22" s="419"/>
-      <c r="Y22" s="419"/>
-      <c r="Z22" s="419"/>
-      <c r="AA22" s="419"/>
-      <c r="AB22" s="419"/>
-      <c r="AC22" s="419"/>
-      <c r="AD22" s="419"/>
-      <c r="AE22" s="420"/>
-      <c r="AF22" s="415"/>
-      <c r="AG22" s="416"/>
-      <c r="AH22" s="416"/>
-      <c r="AI22" s="417"/>
+      <c r="B22" s="421"/>
+      <c r="C22" s="422"/>
+      <c r="D22" s="423"/>
+      <c r="E22" s="424"/>
+      <c r="F22" s="425"/>
+      <c r="G22" s="421"/>
+      <c r="H22" s="426"/>
+      <c r="I22" s="422"/>
+      <c r="J22" s="427"/>
+      <c r="K22" s="428"/>
+      <c r="L22" s="428"/>
+      <c r="M22" s="428"/>
+      <c r="N22" s="428"/>
+      <c r="O22" s="428"/>
+      <c r="P22" s="429"/>
+      <c r="Q22" s="430"/>
+      <c r="R22" s="431"/>
+      <c r="S22" s="431"/>
+      <c r="T22" s="431"/>
+      <c r="U22" s="431"/>
+      <c r="V22" s="431"/>
+      <c r="W22" s="431"/>
+      <c r="X22" s="431"/>
+      <c r="Y22" s="431"/>
+      <c r="Z22" s="431"/>
+      <c r="AA22" s="431"/>
+      <c r="AB22" s="431"/>
+      <c r="AC22" s="431"/>
+      <c r="AD22" s="431"/>
+      <c r="AE22" s="432"/>
+      <c r="AF22" s="427"/>
+      <c r="AG22" s="428"/>
+      <c r="AH22" s="428"/>
+      <c r="AI22" s="429"/>
     </row>
     <row r="23" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="146"/>
-      <c r="B23" s="409"/>
-      <c r="C23" s="410"/>
-      <c r="D23" s="411"/>
-      <c r="E23" s="412"/>
-      <c r="F23" s="413"/>
-      <c r="G23" s="409"/>
-      <c r="H23" s="414"/>
-      <c r="I23" s="410"/>
-      <c r="J23" s="415"/>
-      <c r="K23" s="416"/>
-      <c r="L23" s="416"/>
-      <c r="M23" s="416"/>
-      <c r="N23" s="416"/>
-      <c r="O23" s="416"/>
-      <c r="P23" s="417"/>
-      <c r="Q23" s="418"/>
-      <c r="R23" s="419"/>
-      <c r="S23" s="419"/>
-      <c r="T23" s="419"/>
-      <c r="U23" s="419"/>
-      <c r="V23" s="419"/>
-      <c r="W23" s="419"/>
-      <c r="X23" s="419"/>
-      <c r="Y23" s="419"/>
-      <c r="Z23" s="419"/>
-      <c r="AA23" s="419"/>
-      <c r="AB23" s="419"/>
-      <c r="AC23" s="419"/>
-      <c r="AD23" s="419"/>
-      <c r="AE23" s="420"/>
-      <c r="AF23" s="415"/>
-      <c r="AG23" s="416"/>
-      <c r="AH23" s="416"/>
-      <c r="AI23" s="417"/>
+      <c r="B23" s="421"/>
+      <c r="C23" s="422"/>
+      <c r="D23" s="423"/>
+      <c r="E23" s="424"/>
+      <c r="F23" s="425"/>
+      <c r="G23" s="421"/>
+      <c r="H23" s="426"/>
+      <c r="I23" s="422"/>
+      <c r="J23" s="427"/>
+      <c r="K23" s="428"/>
+      <c r="L23" s="428"/>
+      <c r="M23" s="428"/>
+      <c r="N23" s="428"/>
+      <c r="O23" s="428"/>
+      <c r="P23" s="429"/>
+      <c r="Q23" s="430"/>
+      <c r="R23" s="431"/>
+      <c r="S23" s="431"/>
+      <c r="T23" s="431"/>
+      <c r="U23" s="431"/>
+      <c r="V23" s="431"/>
+      <c r="W23" s="431"/>
+      <c r="X23" s="431"/>
+      <c r="Y23" s="431"/>
+      <c r="Z23" s="431"/>
+      <c r="AA23" s="431"/>
+      <c r="AB23" s="431"/>
+      <c r="AC23" s="431"/>
+      <c r="AD23" s="431"/>
+      <c r="AE23" s="432"/>
+      <c r="AF23" s="427"/>
+      <c r="AG23" s="428"/>
+      <c r="AH23" s="428"/>
+      <c r="AI23" s="429"/>
     </row>
     <row r="24" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="146"/>
-      <c r="B24" s="409"/>
-      <c r="C24" s="410"/>
-      <c r="D24" s="411"/>
-      <c r="E24" s="412"/>
-      <c r="F24" s="413"/>
-      <c r="G24" s="409"/>
-      <c r="H24" s="414"/>
-      <c r="I24" s="410"/>
-      <c r="J24" s="415"/>
-      <c r="K24" s="416"/>
-      <c r="L24" s="416"/>
-      <c r="M24" s="416"/>
-      <c r="N24" s="416"/>
-      <c r="O24" s="416"/>
-      <c r="P24" s="417"/>
-      <c r="Q24" s="418"/>
-      <c r="R24" s="419"/>
-      <c r="S24" s="419"/>
-      <c r="T24" s="419"/>
-      <c r="U24" s="419"/>
-      <c r="V24" s="419"/>
-      <c r="W24" s="419"/>
-      <c r="X24" s="419"/>
-      <c r="Y24" s="419"/>
-      <c r="Z24" s="419"/>
-      <c r="AA24" s="419"/>
-      <c r="AB24" s="419"/>
-      <c r="AC24" s="419"/>
-      <c r="AD24" s="419"/>
-      <c r="AE24" s="420"/>
-      <c r="AF24" s="415"/>
-      <c r="AG24" s="416"/>
-      <c r="AH24" s="416"/>
-      <c r="AI24" s="417"/>
+      <c r="B24" s="421"/>
+      <c r="C24" s="422"/>
+      <c r="D24" s="423"/>
+      <c r="E24" s="424"/>
+      <c r="F24" s="425"/>
+      <c r="G24" s="421"/>
+      <c r="H24" s="426"/>
+      <c r="I24" s="422"/>
+      <c r="J24" s="427"/>
+      <c r="K24" s="428"/>
+      <c r="L24" s="428"/>
+      <c r="M24" s="428"/>
+      <c r="N24" s="428"/>
+      <c r="O24" s="428"/>
+      <c r="P24" s="429"/>
+      <c r="Q24" s="430"/>
+      <c r="R24" s="431"/>
+      <c r="S24" s="431"/>
+      <c r="T24" s="431"/>
+      <c r="U24" s="431"/>
+      <c r="V24" s="431"/>
+      <c r="W24" s="431"/>
+      <c r="X24" s="431"/>
+      <c r="Y24" s="431"/>
+      <c r="Z24" s="431"/>
+      <c r="AA24" s="431"/>
+      <c r="AB24" s="431"/>
+      <c r="AC24" s="431"/>
+      <c r="AD24" s="431"/>
+      <c r="AE24" s="432"/>
+      <c r="AF24" s="427"/>
+      <c r="AG24" s="428"/>
+      <c r="AH24" s="428"/>
+      <c r="AI24" s="429"/>
     </row>
     <row r="25" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="146"/>
-      <c r="B25" s="409"/>
-      <c r="C25" s="410"/>
-      <c r="D25" s="411"/>
-      <c r="E25" s="412"/>
-      <c r="F25" s="413"/>
-      <c r="G25" s="409"/>
-      <c r="H25" s="414"/>
-      <c r="I25" s="410"/>
-      <c r="J25" s="415"/>
-      <c r="K25" s="416"/>
-      <c r="L25" s="416"/>
-      <c r="M25" s="416"/>
-      <c r="N25" s="416"/>
-      <c r="O25" s="416"/>
-      <c r="P25" s="417"/>
-      <c r="Q25" s="418"/>
-      <c r="R25" s="419"/>
-      <c r="S25" s="419"/>
-      <c r="T25" s="419"/>
-      <c r="U25" s="419"/>
-      <c r="V25" s="419"/>
-      <c r="W25" s="419"/>
-      <c r="X25" s="419"/>
-      <c r="Y25" s="419"/>
-      <c r="Z25" s="419"/>
-      <c r="AA25" s="419"/>
-      <c r="AB25" s="419"/>
-      <c r="AC25" s="419"/>
-      <c r="AD25" s="419"/>
-      <c r="AE25" s="420"/>
-      <c r="AF25" s="415"/>
-      <c r="AG25" s="416"/>
-      <c r="AH25" s="416"/>
-      <c r="AI25" s="417"/>
+      <c r="B25" s="421"/>
+      <c r="C25" s="422"/>
+      <c r="D25" s="423"/>
+      <c r="E25" s="424"/>
+      <c r="F25" s="425"/>
+      <c r="G25" s="421"/>
+      <c r="H25" s="426"/>
+      <c r="I25" s="422"/>
+      <c r="J25" s="427"/>
+      <c r="K25" s="428"/>
+      <c r="L25" s="428"/>
+      <c r="M25" s="428"/>
+      <c r="N25" s="428"/>
+      <c r="O25" s="428"/>
+      <c r="P25" s="429"/>
+      <c r="Q25" s="430"/>
+      <c r="R25" s="431"/>
+      <c r="S25" s="431"/>
+      <c r="T25" s="431"/>
+      <c r="U25" s="431"/>
+      <c r="V25" s="431"/>
+      <c r="W25" s="431"/>
+      <c r="X25" s="431"/>
+      <c r="Y25" s="431"/>
+      <c r="Z25" s="431"/>
+      <c r="AA25" s="431"/>
+      <c r="AB25" s="431"/>
+      <c r="AC25" s="431"/>
+      <c r="AD25" s="431"/>
+      <c r="AE25" s="432"/>
+      <c r="AF25" s="427"/>
+      <c r="AG25" s="428"/>
+      <c r="AH25" s="428"/>
+      <c r="AI25" s="429"/>
     </row>
     <row r="26" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="146"/>
-      <c r="B26" s="409"/>
-      <c r="C26" s="410"/>
-      <c r="D26" s="411"/>
-      <c r="E26" s="412"/>
-      <c r="F26" s="413"/>
-      <c r="G26" s="409"/>
-      <c r="H26" s="414"/>
-      <c r="I26" s="410"/>
-      <c r="J26" s="415"/>
-      <c r="K26" s="416"/>
-      <c r="L26" s="416"/>
-      <c r="M26" s="416"/>
-      <c r="N26" s="416"/>
-      <c r="O26" s="416"/>
-      <c r="P26" s="417"/>
-      <c r="Q26" s="418"/>
-      <c r="R26" s="419"/>
-      <c r="S26" s="419"/>
-      <c r="T26" s="419"/>
-      <c r="U26" s="419"/>
-      <c r="V26" s="419"/>
-      <c r="W26" s="419"/>
-      <c r="X26" s="419"/>
-      <c r="Y26" s="419"/>
-      <c r="Z26" s="419"/>
-      <c r="AA26" s="419"/>
-      <c r="AB26" s="419"/>
-      <c r="AC26" s="419"/>
-      <c r="AD26" s="419"/>
-      <c r="AE26" s="420"/>
-      <c r="AF26" s="415"/>
-      <c r="AG26" s="416"/>
-      <c r="AH26" s="416"/>
-      <c r="AI26" s="417"/>
+      <c r="B26" s="421"/>
+      <c r="C26" s="422"/>
+      <c r="D26" s="423"/>
+      <c r="E26" s="424"/>
+      <c r="F26" s="425"/>
+      <c r="G26" s="421"/>
+      <c r="H26" s="426"/>
+      <c r="I26" s="422"/>
+      <c r="J26" s="427"/>
+      <c r="K26" s="428"/>
+      <c r="L26" s="428"/>
+      <c r="M26" s="428"/>
+      <c r="N26" s="428"/>
+      <c r="O26" s="428"/>
+      <c r="P26" s="429"/>
+      <c r="Q26" s="430"/>
+      <c r="R26" s="431"/>
+      <c r="S26" s="431"/>
+      <c r="T26" s="431"/>
+      <c r="U26" s="431"/>
+      <c r="V26" s="431"/>
+      <c r="W26" s="431"/>
+      <c r="X26" s="431"/>
+      <c r="Y26" s="431"/>
+      <c r="Z26" s="431"/>
+      <c r="AA26" s="431"/>
+      <c r="AB26" s="431"/>
+      <c r="AC26" s="431"/>
+      <c r="AD26" s="431"/>
+      <c r="AE26" s="432"/>
+      <c r="AF26" s="427"/>
+      <c r="AG26" s="428"/>
+      <c r="AH26" s="428"/>
+      <c r="AI26" s="429"/>
     </row>
     <row r="27" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="146"/>
-      <c r="B27" s="409"/>
-      <c r="C27" s="410"/>
-      <c r="D27" s="411"/>
-      <c r="E27" s="412"/>
-      <c r="F27" s="413"/>
-      <c r="G27" s="409"/>
-      <c r="H27" s="414"/>
-      <c r="I27" s="410"/>
-      <c r="J27" s="415"/>
-      <c r="K27" s="416"/>
-      <c r="L27" s="416"/>
-      <c r="M27" s="416"/>
-      <c r="N27" s="416"/>
-      <c r="O27" s="416"/>
-      <c r="P27" s="417"/>
-      <c r="Q27" s="418"/>
-      <c r="R27" s="419"/>
-      <c r="S27" s="419"/>
-      <c r="T27" s="419"/>
-      <c r="U27" s="419"/>
-      <c r="V27" s="419"/>
-      <c r="W27" s="419"/>
-      <c r="X27" s="419"/>
-      <c r="Y27" s="419"/>
-      <c r="Z27" s="419"/>
-      <c r="AA27" s="419"/>
-      <c r="AB27" s="419"/>
-      <c r="AC27" s="419"/>
-      <c r="AD27" s="419"/>
-      <c r="AE27" s="420"/>
-      <c r="AF27" s="415"/>
-      <c r="AG27" s="416"/>
-      <c r="AH27" s="416"/>
-      <c r="AI27" s="417"/>
+      <c r="B27" s="421"/>
+      <c r="C27" s="422"/>
+      <c r="D27" s="423"/>
+      <c r="E27" s="424"/>
+      <c r="F27" s="425"/>
+      <c r="G27" s="421"/>
+      <c r="H27" s="426"/>
+      <c r="I27" s="422"/>
+      <c r="J27" s="427"/>
+      <c r="K27" s="428"/>
+      <c r="L27" s="428"/>
+      <c r="M27" s="428"/>
+      <c r="N27" s="428"/>
+      <c r="O27" s="428"/>
+      <c r="P27" s="429"/>
+      <c r="Q27" s="430"/>
+      <c r="R27" s="431"/>
+      <c r="S27" s="431"/>
+      <c r="T27" s="431"/>
+      <c r="U27" s="431"/>
+      <c r="V27" s="431"/>
+      <c r="W27" s="431"/>
+      <c r="X27" s="431"/>
+      <c r="Y27" s="431"/>
+      <c r="Z27" s="431"/>
+      <c r="AA27" s="431"/>
+      <c r="AB27" s="431"/>
+      <c r="AC27" s="431"/>
+      <c r="AD27" s="431"/>
+      <c r="AE27" s="432"/>
+      <c r="AF27" s="427"/>
+      <c r="AG27" s="428"/>
+      <c r="AH27" s="428"/>
+      <c r="AI27" s="429"/>
     </row>
     <row r="28" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="146"/>
-      <c r="B28" s="409"/>
-      <c r="C28" s="410"/>
-      <c r="D28" s="411"/>
-      <c r="E28" s="412"/>
-      <c r="F28" s="413"/>
-      <c r="G28" s="409"/>
-      <c r="H28" s="414"/>
-      <c r="I28" s="410"/>
-      <c r="J28" s="415"/>
-      <c r="K28" s="416"/>
-      <c r="L28" s="416"/>
-      <c r="M28" s="416"/>
-      <c r="N28" s="416"/>
-      <c r="O28" s="416"/>
-      <c r="P28" s="417"/>
-      <c r="Q28" s="418"/>
-      <c r="R28" s="419"/>
-      <c r="S28" s="419"/>
-      <c r="T28" s="419"/>
-      <c r="U28" s="419"/>
-      <c r="V28" s="419"/>
-      <c r="W28" s="419"/>
-      <c r="X28" s="419"/>
-      <c r="Y28" s="419"/>
-      <c r="Z28" s="419"/>
-      <c r="AA28" s="419"/>
-      <c r="AB28" s="419"/>
-      <c r="AC28" s="419"/>
-      <c r="AD28" s="419"/>
-      <c r="AE28" s="420"/>
-      <c r="AF28" s="415"/>
-      <c r="AG28" s="416"/>
-      <c r="AH28" s="416"/>
-      <c r="AI28" s="417"/>
+      <c r="B28" s="421"/>
+      <c r="C28" s="422"/>
+      <c r="D28" s="423"/>
+      <c r="E28" s="424"/>
+      <c r="F28" s="425"/>
+      <c r="G28" s="421"/>
+      <c r="H28" s="426"/>
+      <c r="I28" s="422"/>
+      <c r="J28" s="427"/>
+      <c r="K28" s="428"/>
+      <c r="L28" s="428"/>
+      <c r="M28" s="428"/>
+      <c r="N28" s="428"/>
+      <c r="O28" s="428"/>
+      <c r="P28" s="429"/>
+      <c r="Q28" s="430"/>
+      <c r="R28" s="431"/>
+      <c r="S28" s="431"/>
+      <c r="T28" s="431"/>
+      <c r="U28" s="431"/>
+      <c r="V28" s="431"/>
+      <c r="W28" s="431"/>
+      <c r="X28" s="431"/>
+      <c r="Y28" s="431"/>
+      <c r="Z28" s="431"/>
+      <c r="AA28" s="431"/>
+      <c r="AB28" s="431"/>
+      <c r="AC28" s="431"/>
+      <c r="AD28" s="431"/>
+      <c r="AE28" s="432"/>
+      <c r="AF28" s="427"/>
+      <c r="AG28" s="428"/>
+      <c r="AH28" s="428"/>
+      <c r="AI28" s="429"/>
     </row>
     <row r="29" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="146"/>
-      <c r="B29" s="409"/>
-      <c r="C29" s="410"/>
-      <c r="D29" s="411"/>
-      <c r="E29" s="412"/>
-      <c r="F29" s="413"/>
-      <c r="G29" s="409"/>
-      <c r="H29" s="414"/>
-      <c r="I29" s="410"/>
-      <c r="J29" s="415"/>
-      <c r="K29" s="416"/>
-      <c r="L29" s="416"/>
-      <c r="M29" s="416"/>
-      <c r="N29" s="416"/>
-      <c r="O29" s="416"/>
-      <c r="P29" s="417"/>
-      <c r="Q29" s="418"/>
-      <c r="R29" s="419"/>
-      <c r="S29" s="419"/>
-      <c r="T29" s="419"/>
-      <c r="U29" s="419"/>
-      <c r="V29" s="419"/>
-      <c r="W29" s="419"/>
-      <c r="X29" s="419"/>
-      <c r="Y29" s="419"/>
-      <c r="Z29" s="419"/>
-      <c r="AA29" s="419"/>
-      <c r="AB29" s="419"/>
-      <c r="AC29" s="419"/>
-      <c r="AD29" s="419"/>
-      <c r="AE29" s="420"/>
-      <c r="AF29" s="415"/>
-      <c r="AG29" s="416"/>
-      <c r="AH29" s="416"/>
-      <c r="AI29" s="417"/>
+      <c r="B29" s="421"/>
+      <c r="C29" s="422"/>
+      <c r="D29" s="423"/>
+      <c r="E29" s="424"/>
+      <c r="F29" s="425"/>
+      <c r="G29" s="421"/>
+      <c r="H29" s="426"/>
+      <c r="I29" s="422"/>
+      <c r="J29" s="427"/>
+      <c r="K29" s="428"/>
+      <c r="L29" s="428"/>
+      <c r="M29" s="428"/>
+      <c r="N29" s="428"/>
+      <c r="O29" s="428"/>
+      <c r="P29" s="429"/>
+      <c r="Q29" s="430"/>
+      <c r="R29" s="431"/>
+      <c r="S29" s="431"/>
+      <c r="T29" s="431"/>
+      <c r="U29" s="431"/>
+      <c r="V29" s="431"/>
+      <c r="W29" s="431"/>
+      <c r="X29" s="431"/>
+      <c r="Y29" s="431"/>
+      <c r="Z29" s="431"/>
+      <c r="AA29" s="431"/>
+      <c r="AB29" s="431"/>
+      <c r="AC29" s="431"/>
+      <c r="AD29" s="431"/>
+      <c r="AE29" s="432"/>
+      <c r="AF29" s="427"/>
+      <c r="AG29" s="428"/>
+      <c r="AH29" s="428"/>
+      <c r="AI29" s="429"/>
     </row>
     <row r="30" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="146"/>
-      <c r="B30" s="409"/>
-      <c r="C30" s="410"/>
-      <c r="D30" s="411"/>
-      <c r="E30" s="412"/>
-      <c r="F30" s="413"/>
-      <c r="G30" s="409"/>
-      <c r="H30" s="414"/>
-      <c r="I30" s="410"/>
-      <c r="J30" s="415"/>
-      <c r="K30" s="416"/>
-      <c r="L30" s="416"/>
-      <c r="M30" s="416"/>
-      <c r="N30" s="416"/>
-      <c r="O30" s="416"/>
-      <c r="P30" s="417"/>
-      <c r="Q30" s="418"/>
-      <c r="R30" s="419"/>
-      <c r="S30" s="419"/>
-      <c r="T30" s="419"/>
-      <c r="U30" s="419"/>
-      <c r="V30" s="419"/>
-      <c r="W30" s="419"/>
-      <c r="X30" s="419"/>
-      <c r="Y30" s="419"/>
-      <c r="Z30" s="419"/>
-      <c r="AA30" s="419"/>
-      <c r="AB30" s="419"/>
-      <c r="AC30" s="419"/>
-      <c r="AD30" s="419"/>
-      <c r="AE30" s="420"/>
-      <c r="AF30" s="415"/>
-      <c r="AG30" s="416"/>
-      <c r="AH30" s="416"/>
-      <c r="AI30" s="417"/>
+      <c r="B30" s="421"/>
+      <c r="C30" s="422"/>
+      <c r="D30" s="423"/>
+      <c r="E30" s="424"/>
+      <c r="F30" s="425"/>
+      <c r="G30" s="421"/>
+      <c r="H30" s="426"/>
+      <c r="I30" s="422"/>
+      <c r="J30" s="427"/>
+      <c r="K30" s="428"/>
+      <c r="L30" s="428"/>
+      <c r="M30" s="428"/>
+      <c r="N30" s="428"/>
+      <c r="O30" s="428"/>
+      <c r="P30" s="429"/>
+      <c r="Q30" s="430"/>
+      <c r="R30" s="431"/>
+      <c r="S30" s="431"/>
+      <c r="T30" s="431"/>
+      <c r="U30" s="431"/>
+      <c r="V30" s="431"/>
+      <c r="W30" s="431"/>
+      <c r="X30" s="431"/>
+      <c r="Y30" s="431"/>
+      <c r="Z30" s="431"/>
+      <c r="AA30" s="431"/>
+      <c r="AB30" s="431"/>
+      <c r="AC30" s="431"/>
+      <c r="AD30" s="431"/>
+      <c r="AE30" s="432"/>
+      <c r="AF30" s="427"/>
+      <c r="AG30" s="428"/>
+      <c r="AH30" s="428"/>
+      <c r="AI30" s="429"/>
     </row>
     <row r="31" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="146"/>
-      <c r="B31" s="409"/>
-      <c r="C31" s="410"/>
-      <c r="D31" s="411"/>
-      <c r="E31" s="412"/>
-      <c r="F31" s="413"/>
-      <c r="G31" s="409"/>
-      <c r="H31" s="414"/>
-      <c r="I31" s="410"/>
-      <c r="J31" s="415"/>
-      <c r="K31" s="416"/>
-      <c r="L31" s="416"/>
-      <c r="M31" s="416"/>
-      <c r="N31" s="416"/>
-      <c r="O31" s="416"/>
-      <c r="P31" s="417"/>
-      <c r="Q31" s="418"/>
-      <c r="R31" s="419"/>
-      <c r="S31" s="419"/>
-      <c r="T31" s="419"/>
-      <c r="U31" s="419"/>
-      <c r="V31" s="419"/>
-      <c r="W31" s="419"/>
-      <c r="X31" s="419"/>
-      <c r="Y31" s="419"/>
-      <c r="Z31" s="419"/>
-      <c r="AA31" s="419"/>
-      <c r="AB31" s="419"/>
-      <c r="AC31" s="419"/>
-      <c r="AD31" s="419"/>
-      <c r="AE31" s="420"/>
-      <c r="AF31" s="415"/>
-      <c r="AG31" s="416"/>
-      <c r="AH31" s="416"/>
-      <c r="AI31" s="417"/>
+      <c r="B31" s="421"/>
+      <c r="C31" s="422"/>
+      <c r="D31" s="423"/>
+      <c r="E31" s="424"/>
+      <c r="F31" s="425"/>
+      <c r="G31" s="421"/>
+      <c r="H31" s="426"/>
+      <c r="I31" s="422"/>
+      <c r="J31" s="427"/>
+      <c r="K31" s="428"/>
+      <c r="L31" s="428"/>
+      <c r="M31" s="428"/>
+      <c r="N31" s="428"/>
+      <c r="O31" s="428"/>
+      <c r="P31" s="429"/>
+      <c r="Q31" s="430"/>
+      <c r="R31" s="431"/>
+      <c r="S31" s="431"/>
+      <c r="T31" s="431"/>
+      <c r="U31" s="431"/>
+      <c r="V31" s="431"/>
+      <c r="W31" s="431"/>
+      <c r="X31" s="431"/>
+      <c r="Y31" s="431"/>
+      <c r="Z31" s="431"/>
+      <c r="AA31" s="431"/>
+      <c r="AB31" s="431"/>
+      <c r="AC31" s="431"/>
+      <c r="AD31" s="431"/>
+      <c r="AE31" s="432"/>
+      <c r="AF31" s="427"/>
+      <c r="AG31" s="428"/>
+      <c r="AH31" s="428"/>
+      <c r="AI31" s="429"/>
     </row>
     <row r="32" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="146"/>
-      <c r="B32" s="409"/>
-      <c r="C32" s="410"/>
-      <c r="D32" s="411"/>
-      <c r="E32" s="412"/>
-      <c r="F32" s="413"/>
-      <c r="G32" s="409"/>
-      <c r="H32" s="414"/>
-      <c r="I32" s="410"/>
-      <c r="J32" s="415"/>
-      <c r="K32" s="435"/>
-      <c r="L32" s="416"/>
-      <c r="M32" s="416"/>
-      <c r="N32" s="416"/>
-      <c r="O32" s="416"/>
-      <c r="P32" s="417"/>
-      <c r="Q32" s="418"/>
-      <c r="R32" s="419"/>
-      <c r="S32" s="419"/>
-      <c r="T32" s="419"/>
-      <c r="U32" s="419"/>
-      <c r="V32" s="419"/>
-      <c r="W32" s="419"/>
-      <c r="X32" s="419"/>
-      <c r="Y32" s="419"/>
-      <c r="Z32" s="419"/>
-      <c r="AA32" s="419"/>
-      <c r="AB32" s="419"/>
-      <c r="AC32" s="419"/>
-      <c r="AD32" s="419"/>
-      <c r="AE32" s="420"/>
-      <c r="AF32" s="415"/>
-      <c r="AG32" s="416"/>
-      <c r="AH32" s="416"/>
-      <c r="AI32" s="417"/>
+      <c r="B32" s="421"/>
+      <c r="C32" s="422"/>
+      <c r="D32" s="423"/>
+      <c r="E32" s="424"/>
+      <c r="F32" s="425"/>
+      <c r="G32" s="421"/>
+      <c r="H32" s="426"/>
+      <c r="I32" s="422"/>
+      <c r="J32" s="427"/>
+      <c r="K32" s="447"/>
+      <c r="L32" s="428"/>
+      <c r="M32" s="428"/>
+      <c r="N32" s="428"/>
+      <c r="O32" s="428"/>
+      <c r="P32" s="429"/>
+      <c r="Q32" s="430"/>
+      <c r="R32" s="431"/>
+      <c r="S32" s="431"/>
+      <c r="T32" s="431"/>
+      <c r="U32" s="431"/>
+      <c r="V32" s="431"/>
+      <c r="W32" s="431"/>
+      <c r="X32" s="431"/>
+      <c r="Y32" s="431"/>
+      <c r="Z32" s="431"/>
+      <c r="AA32" s="431"/>
+      <c r="AB32" s="431"/>
+      <c r="AC32" s="431"/>
+      <c r="AD32" s="431"/>
+      <c r="AE32" s="432"/>
+      <c r="AF32" s="427"/>
+      <c r="AG32" s="428"/>
+      <c r="AH32" s="428"/>
+      <c r="AI32" s="429"/>
     </row>
     <row r="33" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="146"/>
-      <c r="B33" s="409"/>
-      <c r="C33" s="410"/>
-      <c r="D33" s="411"/>
-      <c r="E33" s="412"/>
-      <c r="F33" s="413"/>
-      <c r="G33" s="409"/>
-      <c r="H33" s="414"/>
-      <c r="I33" s="410"/>
-      <c r="J33" s="415"/>
-      <c r="K33" s="416"/>
-      <c r="L33" s="416"/>
-      <c r="M33" s="416"/>
-      <c r="N33" s="416"/>
-      <c r="O33" s="416"/>
-      <c r="P33" s="417"/>
-      <c r="Q33" s="418"/>
-      <c r="R33" s="419"/>
-      <c r="S33" s="419"/>
-      <c r="T33" s="419"/>
-      <c r="U33" s="419"/>
-      <c r="V33" s="419"/>
-      <c r="W33" s="419"/>
-      <c r="X33" s="419"/>
-      <c r="Y33" s="419"/>
-      <c r="Z33" s="419"/>
-      <c r="AA33" s="419"/>
-      <c r="AB33" s="419"/>
-      <c r="AC33" s="419"/>
-      <c r="AD33" s="419"/>
-      <c r="AE33" s="420"/>
-      <c r="AF33" s="415"/>
-      <c r="AG33" s="416"/>
-      <c r="AH33" s="416"/>
-      <c r="AI33" s="417"/>
+      <c r="B33" s="421"/>
+      <c r="C33" s="422"/>
+      <c r="D33" s="423"/>
+      <c r="E33" s="424"/>
+      <c r="F33" s="425"/>
+      <c r="G33" s="421"/>
+      <c r="H33" s="426"/>
+      <c r="I33" s="422"/>
+      <c r="J33" s="427"/>
+      <c r="K33" s="428"/>
+      <c r="L33" s="428"/>
+      <c r="M33" s="428"/>
+      <c r="N33" s="428"/>
+      <c r="O33" s="428"/>
+      <c r="P33" s="429"/>
+      <c r="Q33" s="430"/>
+      <c r="R33" s="431"/>
+      <c r="S33" s="431"/>
+      <c r="T33" s="431"/>
+      <c r="U33" s="431"/>
+      <c r="V33" s="431"/>
+      <c r="W33" s="431"/>
+      <c r="X33" s="431"/>
+      <c r="Y33" s="431"/>
+      <c r="Z33" s="431"/>
+      <c r="AA33" s="431"/>
+      <c r="AB33" s="431"/>
+      <c r="AC33" s="431"/>
+      <c r="AD33" s="431"/>
+      <c r="AE33" s="432"/>
+      <c r="AF33" s="427"/>
+      <c r="AG33" s="428"/>
+      <c r="AH33" s="428"/>
+      <c r="AI33" s="429"/>
     </row>
     <row r="34" spans="1:35" ht="14.25" x14ac:dyDescent="0.15">
       <c r="K34" s="16"/>
@@ -30088,163 +29968,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:53" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="377" t="s">
+      <c r="A1" s="389" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="378"/>
-      <c r="C1" s="378"/>
-      <c r="D1" s="379"/>
-      <c r="E1" s="408" t="str">
+      <c r="B1" s="390"/>
+      <c r="C1" s="390"/>
+      <c r="D1" s="391"/>
+      <c r="E1" s="420" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v/>
       </c>
-      <c r="F1" s="381"/>
-      <c r="G1" s="381"/>
-      <c r="H1" s="381"/>
-      <c r="I1" s="381"/>
-      <c r="J1" s="381"/>
-      <c r="K1" s="381"/>
-      <c r="L1" s="381"/>
-      <c r="M1" s="381"/>
-      <c r="N1" s="382"/>
-      <c r="O1" s="387" t="s">
+      <c r="F1" s="393"/>
+      <c r="G1" s="393"/>
+      <c r="H1" s="393"/>
+      <c r="I1" s="393"/>
+      <c r="J1" s="393"/>
+      <c r="K1" s="393"/>
+      <c r="L1" s="393"/>
+      <c r="M1" s="393"/>
+      <c r="N1" s="394"/>
+      <c r="O1" s="399" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="388"/>
-      <c r="Q1" s="388"/>
-      <c r="R1" s="389"/>
-      <c r="S1" s="441" t="str">
+      <c r="P1" s="400"/>
+      <c r="Q1" s="400"/>
+      <c r="R1" s="401"/>
+      <c r="S1" s="453" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>UI標準(画面)</v>
       </c>
-      <c r="T1" s="397"/>
-      <c r="U1" s="397"/>
-      <c r="V1" s="397"/>
-      <c r="W1" s="397"/>
-      <c r="X1" s="397"/>
-      <c r="Y1" s="397"/>
-      <c r="Z1" s="398"/>
-      <c r="AA1" s="439" t="s">
+      <c r="T1" s="409"/>
+      <c r="U1" s="409"/>
+      <c r="V1" s="409"/>
+      <c r="W1" s="409"/>
+      <c r="X1" s="409"/>
+      <c r="Y1" s="409"/>
+      <c r="Z1" s="410"/>
+      <c r="AA1" s="451" t="s">
         <v>11</v>
       </c>
-      <c r="AB1" s="440"/>
-      <c r="AC1" s="405" t="str">
+      <c r="AB1" s="452"/>
+      <c r="AC1" s="417" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="406"/>
-      <c r="AE1" s="406"/>
-      <c r="AF1" s="407"/>
-      <c r="AG1" s="436">
+      <c r="AD1" s="418"/>
+      <c r="AE1" s="418"/>
+      <c r="AF1" s="419"/>
+      <c r="AG1" s="448">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="437"/>
-      <c r="AI1" s="438"/>
+      <c r="AH1" s="449"/>
+      <c r="AI1" s="450"/>
       <c r="AJ1" s="11"/>
       <c r="AK1" s="11"/>
       <c r="AL1" s="148"/>
     </row>
     <row r="2" spans="1:53" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="377" t="s">
+      <c r="A2" s="389" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="378"/>
-      <c r="C2" s="378"/>
-      <c r="D2" s="379"/>
-      <c r="E2" s="408" t="str">
+      <c r="B2" s="390"/>
+      <c r="C2" s="390"/>
+      <c r="D2" s="391"/>
+      <c r="E2" s="420" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v/>
       </c>
-      <c r="F2" s="381"/>
-      <c r="G2" s="381"/>
-      <c r="H2" s="381"/>
-      <c r="I2" s="381"/>
-      <c r="J2" s="381"/>
-      <c r="K2" s="381"/>
-      <c r="L2" s="381"/>
-      <c r="M2" s="381"/>
-      <c r="N2" s="382"/>
-      <c r="O2" s="390"/>
-      <c r="P2" s="391"/>
-      <c r="Q2" s="391"/>
-      <c r="R2" s="392"/>
-      <c r="S2" s="399"/>
-      <c r="T2" s="400"/>
-      <c r="U2" s="400"/>
-      <c r="V2" s="400"/>
-      <c r="W2" s="400"/>
-      <c r="X2" s="400"/>
-      <c r="Y2" s="400"/>
-      <c r="Z2" s="401"/>
-      <c r="AA2" s="439" t="s">
+      <c r="F2" s="393"/>
+      <c r="G2" s="393"/>
+      <c r="H2" s="393"/>
+      <c r="I2" s="393"/>
+      <c r="J2" s="393"/>
+      <c r="K2" s="393"/>
+      <c r="L2" s="393"/>
+      <c r="M2" s="393"/>
+      <c r="N2" s="394"/>
+      <c r="O2" s="402"/>
+      <c r="P2" s="403"/>
+      <c r="Q2" s="403"/>
+      <c r="R2" s="404"/>
+      <c r="S2" s="411"/>
+      <c r="T2" s="412"/>
+      <c r="U2" s="412"/>
+      <c r="V2" s="412"/>
+      <c r="W2" s="412"/>
+      <c r="X2" s="412"/>
+      <c r="Y2" s="412"/>
+      <c r="Z2" s="413"/>
+      <c r="AA2" s="451" t="s">
         <v>12</v>
       </c>
-      <c r="AB2" s="440"/>
-      <c r="AC2" s="405" t="str">
+      <c r="AB2" s="452"/>
+      <c r="AC2" s="417" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="406"/>
-      <c r="AE2" s="406"/>
-      <c r="AF2" s="407"/>
-      <c r="AG2" s="436" t="str">
+      <c r="AD2" s="418"/>
+      <c r="AE2" s="418"/>
+      <c r="AF2" s="419"/>
+      <c r="AG2" s="448" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="437"/>
-      <c r="AI2" s="438"/>
+      <c r="AH2" s="449"/>
+      <c r="AI2" s="450"/>
       <c r="AJ2" s="11"/>
       <c r="AK2" s="11"/>
       <c r="AL2" s="11"/>
     </row>
     <row r="3" spans="1:53" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="377" t="s">
+      <c r="A3" s="389" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="378"/>
-      <c r="C3" s="378"/>
-      <c r="D3" s="379"/>
-      <c r="E3" s="408" t="str">
+      <c r="B3" s="390"/>
+      <c r="C3" s="390"/>
+      <c r="D3" s="391"/>
+      <c r="E3" s="420" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="381"/>
-      <c r="G3" s="381"/>
-      <c r="H3" s="381"/>
-      <c r="I3" s="381"/>
-      <c r="J3" s="381"/>
-      <c r="K3" s="381"/>
-      <c r="L3" s="381"/>
-      <c r="M3" s="381"/>
-      <c r="N3" s="382"/>
-      <c r="O3" s="393"/>
-      <c r="P3" s="394"/>
-      <c r="Q3" s="394"/>
-      <c r="R3" s="395"/>
-      <c r="S3" s="402"/>
-      <c r="T3" s="403"/>
-      <c r="U3" s="403"/>
-      <c r="V3" s="403"/>
-      <c r="W3" s="403"/>
-      <c r="X3" s="403"/>
-      <c r="Y3" s="403"/>
-      <c r="Z3" s="404"/>
-      <c r="AA3" s="439"/>
-      <c r="AB3" s="440"/>
-      <c r="AC3" s="405" t="str">
+      <c r="F3" s="393"/>
+      <c r="G3" s="393"/>
+      <c r="H3" s="393"/>
+      <c r="I3" s="393"/>
+      <c r="J3" s="393"/>
+      <c r="K3" s="393"/>
+      <c r="L3" s="393"/>
+      <c r="M3" s="393"/>
+      <c r="N3" s="394"/>
+      <c r="O3" s="405"/>
+      <c r="P3" s="406"/>
+      <c r="Q3" s="406"/>
+      <c r="R3" s="407"/>
+      <c r="S3" s="414"/>
+      <c r="T3" s="415"/>
+      <c r="U3" s="415"/>
+      <c r="V3" s="415"/>
+      <c r="W3" s="415"/>
+      <c r="X3" s="415"/>
+      <c r="Y3" s="415"/>
+      <c r="Z3" s="416"/>
+      <c r="AA3" s="451"/>
+      <c r="AB3" s="452"/>
+      <c r="AC3" s="417" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="406"/>
-      <c r="AE3" s="406"/>
-      <c r="AF3" s="407"/>
-      <c r="AG3" s="436" t="str">
+      <c r="AD3" s="418"/>
+      <c r="AE3" s="418"/>
+      <c r="AF3" s="419"/>
+      <c r="AG3" s="448" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="437"/>
-      <c r="AI3" s="438"/>
+      <c r="AH3" s="449"/>
+      <c r="AI3" s="450"/>
       <c r="AJ3" s="11"/>
       <c r="AK3" s="11"/>
       <c r="AL3" s="11"/>
@@ -33340,159 +33220,159 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="454" t="s">
+      <c r="A1" s="466" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="455"/>
-      <c r="C1" s="455"/>
-      <c r="D1" s="456"/>
-      <c r="E1" s="457"/>
-      <c r="F1" s="458"/>
-      <c r="G1" s="458"/>
-      <c r="H1" s="458"/>
-      <c r="I1" s="458"/>
-      <c r="J1" s="458"/>
-      <c r="K1" s="458"/>
-      <c r="L1" s="458"/>
-      <c r="M1" s="458"/>
-      <c r="N1" s="459"/>
-      <c r="O1" s="463" t="s">
+      <c r="B1" s="467"/>
+      <c r="C1" s="467"/>
+      <c r="D1" s="468"/>
+      <c r="E1" s="469"/>
+      <c r="F1" s="470"/>
+      <c r="G1" s="470"/>
+      <c r="H1" s="470"/>
+      <c r="I1" s="470"/>
+      <c r="J1" s="470"/>
+      <c r="K1" s="470"/>
+      <c r="L1" s="470"/>
+      <c r="M1" s="470"/>
+      <c r="N1" s="471"/>
+      <c r="O1" s="475" t="s">
         <v>17</v>
       </c>
-      <c r="P1" s="464"/>
-      <c r="Q1" s="464"/>
-      <c r="R1" s="465"/>
-      <c r="S1" s="472" t="str">
+      <c r="P1" s="476"/>
+      <c r="Q1" s="476"/>
+      <c r="R1" s="477"/>
+      <c r="S1" s="484" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>UI標準(画面)</v>
       </c>
-      <c r="T1" s="473"/>
-      <c r="U1" s="473"/>
-      <c r="V1" s="473"/>
-      <c r="W1" s="473"/>
-      <c r="X1" s="473"/>
-      <c r="Y1" s="473"/>
-      <c r="Z1" s="474"/>
-      <c r="AA1" s="454" t="s">
+      <c r="T1" s="485"/>
+      <c r="U1" s="485"/>
+      <c r="V1" s="485"/>
+      <c r="W1" s="485"/>
+      <c r="X1" s="485"/>
+      <c r="Y1" s="485"/>
+      <c r="Z1" s="486"/>
+      <c r="AA1" s="466" t="s">
         <v>14</v>
       </c>
-      <c r="AB1" s="456"/>
-      <c r="AC1" s="460" t="str">
+      <c r="AB1" s="468"/>
+      <c r="AC1" s="472" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="461"/>
-      <c r="AE1" s="461"/>
-      <c r="AF1" s="462"/>
-      <c r="AG1" s="442">
+      <c r="AD1" s="473"/>
+      <c r="AE1" s="473"/>
+      <c r="AF1" s="474"/>
+      <c r="AG1" s="454">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="443"/>
-      <c r="AI1" s="444"/>
+      <c r="AH1" s="455"/>
+      <c r="AI1" s="456"/>
       <c r="AJ1" s="11"/>
       <c r="AN1" s="18"/>
       <c r="AO1" s="18"/>
       <c r="AP1" s="18"/>
     </row>
     <row r="2" spans="1:42" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="454" t="s">
+      <c r="A2" s="466" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="455"/>
-      <c r="C2" s="455"/>
-      <c r="D2" s="456"/>
-      <c r="E2" s="457"/>
-      <c r="F2" s="458"/>
-      <c r="G2" s="458"/>
-      <c r="H2" s="458"/>
-      <c r="I2" s="458"/>
-      <c r="J2" s="458"/>
-      <c r="K2" s="458"/>
-      <c r="L2" s="458"/>
-      <c r="M2" s="458"/>
-      <c r="N2" s="459"/>
-      <c r="O2" s="466"/>
-      <c r="P2" s="467"/>
-      <c r="Q2" s="467"/>
-      <c r="R2" s="468"/>
-      <c r="S2" s="475"/>
-      <c r="T2" s="476"/>
-      <c r="U2" s="476"/>
-      <c r="V2" s="476"/>
-      <c r="W2" s="476"/>
-      <c r="X2" s="476"/>
-      <c r="Y2" s="476"/>
-      <c r="Z2" s="477"/>
-      <c r="AA2" s="454" t="s">
+      <c r="B2" s="467"/>
+      <c r="C2" s="467"/>
+      <c r="D2" s="468"/>
+      <c r="E2" s="469"/>
+      <c r="F2" s="470"/>
+      <c r="G2" s="470"/>
+      <c r="H2" s="470"/>
+      <c r="I2" s="470"/>
+      <c r="J2" s="470"/>
+      <c r="K2" s="470"/>
+      <c r="L2" s="470"/>
+      <c r="M2" s="470"/>
+      <c r="N2" s="471"/>
+      <c r="O2" s="478"/>
+      <c r="P2" s="479"/>
+      <c r="Q2" s="479"/>
+      <c r="R2" s="480"/>
+      <c r="S2" s="487"/>
+      <c r="T2" s="488"/>
+      <c r="U2" s="488"/>
+      <c r="V2" s="488"/>
+      <c r="W2" s="488"/>
+      <c r="X2" s="488"/>
+      <c r="Y2" s="488"/>
+      <c r="Z2" s="489"/>
+      <c r="AA2" s="466" t="s">
         <v>15</v>
       </c>
-      <c r="AB2" s="456"/>
-      <c r="AC2" s="460" t="str">
+      <c r="AB2" s="468"/>
+      <c r="AC2" s="472" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="461"/>
-      <c r="AE2" s="461"/>
-      <c r="AF2" s="462"/>
-      <c r="AG2" s="442" t="str">
+      <c r="AD2" s="473"/>
+      <c r="AE2" s="473"/>
+      <c r="AF2" s="474"/>
+      <c r="AG2" s="454" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="443"/>
-      <c r="AI2" s="444"/>
+      <c r="AH2" s="455"/>
+      <c r="AI2" s="456"/>
       <c r="AJ2" s="11"/>
       <c r="AN2" s="18"/>
       <c r="AO2" s="18"/>
       <c r="AP2" s="18"/>
     </row>
     <row r="3" spans="1:42" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="454" t="s">
+      <c r="A3" s="466" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="455"/>
-      <c r="C3" s="455"/>
-      <c r="D3" s="456"/>
-      <c r="E3" s="457" t="str">
+      <c r="B3" s="467"/>
+      <c r="C3" s="467"/>
+      <c r="D3" s="468"/>
+      <c r="E3" s="469" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="458"/>
-      <c r="G3" s="458"/>
-      <c r="H3" s="458"/>
-      <c r="I3" s="458"/>
-      <c r="J3" s="458"/>
-      <c r="K3" s="458"/>
-      <c r="L3" s="458"/>
-      <c r="M3" s="458"/>
-      <c r="N3" s="459"/>
-      <c r="O3" s="469"/>
-      <c r="P3" s="470"/>
-      <c r="Q3" s="470"/>
-      <c r="R3" s="471"/>
-      <c r="S3" s="478"/>
-      <c r="T3" s="479"/>
-      <c r="U3" s="479"/>
-      <c r="V3" s="479"/>
-      <c r="W3" s="479"/>
-      <c r="X3" s="479"/>
-      <c r="Y3" s="479"/>
-      <c r="Z3" s="480"/>
-      <c r="AA3" s="454"/>
-      <c r="AB3" s="456"/>
-      <c r="AC3" s="460" t="str">
+      <c r="F3" s="470"/>
+      <c r="G3" s="470"/>
+      <c r="H3" s="470"/>
+      <c r="I3" s="470"/>
+      <c r="J3" s="470"/>
+      <c r="K3" s="470"/>
+      <c r="L3" s="470"/>
+      <c r="M3" s="470"/>
+      <c r="N3" s="471"/>
+      <c r="O3" s="481"/>
+      <c r="P3" s="482"/>
+      <c r="Q3" s="482"/>
+      <c r="R3" s="483"/>
+      <c r="S3" s="490"/>
+      <c r="T3" s="491"/>
+      <c r="U3" s="491"/>
+      <c r="V3" s="491"/>
+      <c r="W3" s="491"/>
+      <c r="X3" s="491"/>
+      <c r="Y3" s="491"/>
+      <c r="Z3" s="492"/>
+      <c r="AA3" s="466"/>
+      <c r="AB3" s="468"/>
+      <c r="AC3" s="472" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="461"/>
-      <c r="AE3" s="461"/>
-      <c r="AF3" s="462"/>
-      <c r="AG3" s="442" t="str">
+      <c r="AD3" s="473"/>
+      <c r="AE3" s="473"/>
+      <c r="AF3" s="474"/>
+      <c r="AG3" s="454" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="443"/>
-      <c r="AI3" s="444"/>
+      <c r="AH3" s="455"/>
+      <c r="AI3" s="456"/>
       <c r="AJ3" s="11"/>
       <c r="AN3" s="18"/>
       <c r="AO3" s="18"/>
@@ -33543,70 +33423,70 @@
       <c r="C14" s="145"/>
     </row>
     <row r="15" spans="1:42" x14ac:dyDescent="0.15">
-      <c r="D15" s="445" t="s">
+      <c r="D15" s="457" t="s">
         <v>55</v>
       </c>
-      <c r="E15" s="446"/>
-      <c r="F15" s="446"/>
-      <c r="G15" s="446"/>
-      <c r="H15" s="446"/>
-      <c r="I15" s="446"/>
-      <c r="J15" s="447"/>
-      <c r="K15" s="445" t="s">
+      <c r="E15" s="458"/>
+      <c r="F15" s="458"/>
+      <c r="G15" s="458"/>
+      <c r="H15" s="458"/>
+      <c r="I15" s="458"/>
+      <c r="J15" s="459"/>
+      <c r="K15" s="457" t="s">
         <v>56</v>
       </c>
-      <c r="L15" s="446"/>
-      <c r="M15" s="446"/>
-      <c r="N15" s="446"/>
-      <c r="O15" s="446"/>
-      <c r="P15" s="446"/>
-      <c r="Q15" s="446"/>
-      <c r="R15" s="446"/>
-      <c r="S15" s="446"/>
-      <c r="T15" s="446"/>
-      <c r="U15" s="446"/>
-      <c r="V15" s="446"/>
-      <c r="W15" s="446"/>
-      <c r="X15" s="446"/>
-      <c r="Y15" s="446"/>
-      <c r="Z15" s="446"/>
-      <c r="AA15" s="446"/>
-      <c r="AB15" s="446"/>
-      <c r="AC15" s="446"/>
-      <c r="AD15" s="447"/>
+      <c r="L15" s="458"/>
+      <c r="M15" s="458"/>
+      <c r="N15" s="458"/>
+      <c r="O15" s="458"/>
+      <c r="P15" s="458"/>
+      <c r="Q15" s="458"/>
+      <c r="R15" s="458"/>
+      <c r="S15" s="458"/>
+      <c r="T15" s="458"/>
+      <c r="U15" s="458"/>
+      <c r="V15" s="458"/>
+      <c r="W15" s="458"/>
+      <c r="X15" s="458"/>
+      <c r="Y15" s="458"/>
+      <c r="Z15" s="458"/>
+      <c r="AA15" s="458"/>
+      <c r="AB15" s="458"/>
+      <c r="AC15" s="458"/>
+      <c r="AD15" s="459"/>
     </row>
     <row r="16" spans="1:42" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D16" s="451" t="s">
+      <c r="D16" s="463" t="s">
         <v>294</v>
       </c>
-      <c r="E16" s="452"/>
-      <c r="F16" s="452"/>
-      <c r="G16" s="452"/>
-      <c r="H16" s="452"/>
-      <c r="I16" s="452"/>
-      <c r="J16" s="453"/>
-      <c r="K16" s="448" t="s">
+      <c r="E16" s="464"/>
+      <c r="F16" s="464"/>
+      <c r="G16" s="464"/>
+      <c r="H16" s="464"/>
+      <c r="I16" s="464"/>
+      <c r="J16" s="465"/>
+      <c r="K16" s="460" t="s">
         <v>76</v>
       </c>
-      <c r="L16" s="449"/>
-      <c r="M16" s="449"/>
-      <c r="N16" s="449"/>
-      <c r="O16" s="449"/>
-      <c r="P16" s="449"/>
-      <c r="Q16" s="449"/>
-      <c r="R16" s="449"/>
-      <c r="S16" s="449"/>
-      <c r="T16" s="449"/>
-      <c r="U16" s="449"/>
-      <c r="V16" s="449"/>
-      <c r="W16" s="449"/>
-      <c r="X16" s="449"/>
-      <c r="Y16" s="449"/>
-      <c r="Z16" s="449"/>
-      <c r="AA16" s="449"/>
-      <c r="AB16" s="449"/>
-      <c r="AC16" s="449"/>
-      <c r="AD16" s="450"/>
+      <c r="L16" s="461"/>
+      <c r="M16" s="461"/>
+      <c r="N16" s="461"/>
+      <c r="O16" s="461"/>
+      <c r="P16" s="461"/>
+      <c r="Q16" s="461"/>
+      <c r="R16" s="461"/>
+      <c r="S16" s="461"/>
+      <c r="T16" s="461"/>
+      <c r="U16" s="461"/>
+      <c r="V16" s="461"/>
+      <c r="W16" s="461"/>
+      <c r="X16" s="461"/>
+      <c r="Y16" s="461"/>
+      <c r="Z16" s="461"/>
+      <c r="AA16" s="461"/>
+      <c r="AB16" s="461"/>
+      <c r="AC16" s="461"/>
+      <c r="AD16" s="462"/>
     </row>
     <row r="21" spans="3:3" ht="13.5" x14ac:dyDescent="0.15">
       <c r="C21" s="176"/>
@@ -33663,159 +33543,159 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="454" t="s">
+      <c r="A1" s="466" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="455"/>
-      <c r="C1" s="455"/>
-      <c r="D1" s="456"/>
-      <c r="E1" s="457"/>
-      <c r="F1" s="458"/>
-      <c r="G1" s="458"/>
-      <c r="H1" s="458"/>
-      <c r="I1" s="458"/>
-      <c r="J1" s="458"/>
-      <c r="K1" s="458"/>
-      <c r="L1" s="458"/>
-      <c r="M1" s="458"/>
-      <c r="N1" s="459"/>
-      <c r="O1" s="463" t="s">
+      <c r="B1" s="467"/>
+      <c r="C1" s="467"/>
+      <c r="D1" s="468"/>
+      <c r="E1" s="469"/>
+      <c r="F1" s="470"/>
+      <c r="G1" s="470"/>
+      <c r="H1" s="470"/>
+      <c r="I1" s="470"/>
+      <c r="J1" s="470"/>
+      <c r="K1" s="470"/>
+      <c r="L1" s="470"/>
+      <c r="M1" s="470"/>
+      <c r="N1" s="471"/>
+      <c r="O1" s="475" t="s">
         <v>61</v>
       </c>
-      <c r="P1" s="464"/>
-      <c r="Q1" s="464"/>
-      <c r="R1" s="465"/>
-      <c r="S1" s="472" t="str">
+      <c r="P1" s="476"/>
+      <c r="Q1" s="476"/>
+      <c r="R1" s="477"/>
+      <c r="S1" s="484" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>UI標準(画面)</v>
       </c>
-      <c r="T1" s="473"/>
-      <c r="U1" s="473"/>
-      <c r="V1" s="473"/>
-      <c r="W1" s="473"/>
-      <c r="X1" s="473"/>
-      <c r="Y1" s="473"/>
-      <c r="Z1" s="474"/>
-      <c r="AA1" s="454" t="s">
+      <c r="T1" s="485"/>
+      <c r="U1" s="485"/>
+      <c r="V1" s="485"/>
+      <c r="W1" s="485"/>
+      <c r="X1" s="485"/>
+      <c r="Y1" s="485"/>
+      <c r="Z1" s="486"/>
+      <c r="AA1" s="466" t="s">
         <v>14</v>
       </c>
-      <c r="AB1" s="456"/>
-      <c r="AC1" s="460" t="str">
+      <c r="AB1" s="468"/>
+      <c r="AC1" s="472" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="461"/>
-      <c r="AE1" s="461"/>
-      <c r="AF1" s="462"/>
-      <c r="AG1" s="481">
+      <c r="AD1" s="473"/>
+      <c r="AE1" s="473"/>
+      <c r="AF1" s="474"/>
+      <c r="AG1" s="493">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="482"/>
-      <c r="AI1" s="483"/>
+      <c r="AH1" s="494"/>
+      <c r="AI1" s="495"/>
       <c r="AJ1" s="49"/>
       <c r="AN1" s="47"/>
       <c r="AO1" s="47"/>
       <c r="AP1" s="47"/>
     </row>
     <row r="2" spans="1:42" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="454" t="s">
+      <c r="A2" s="466" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="455"/>
-      <c r="C2" s="455"/>
-      <c r="D2" s="456"/>
-      <c r="E2" s="457"/>
-      <c r="F2" s="458"/>
-      <c r="G2" s="458"/>
-      <c r="H2" s="458"/>
-      <c r="I2" s="458"/>
-      <c r="J2" s="458"/>
-      <c r="K2" s="458"/>
-      <c r="L2" s="458"/>
-      <c r="M2" s="458"/>
-      <c r="N2" s="459"/>
-      <c r="O2" s="466"/>
-      <c r="P2" s="467"/>
-      <c r="Q2" s="467"/>
-      <c r="R2" s="468"/>
-      <c r="S2" s="475"/>
-      <c r="T2" s="476"/>
-      <c r="U2" s="476"/>
-      <c r="V2" s="476"/>
-      <c r="W2" s="476"/>
-      <c r="X2" s="476"/>
-      <c r="Y2" s="476"/>
-      <c r="Z2" s="477"/>
-      <c r="AA2" s="454" t="s">
+      <c r="B2" s="467"/>
+      <c r="C2" s="467"/>
+      <c r="D2" s="468"/>
+      <c r="E2" s="469"/>
+      <c r="F2" s="470"/>
+      <c r="G2" s="470"/>
+      <c r="H2" s="470"/>
+      <c r="I2" s="470"/>
+      <c r="J2" s="470"/>
+      <c r="K2" s="470"/>
+      <c r="L2" s="470"/>
+      <c r="M2" s="470"/>
+      <c r="N2" s="471"/>
+      <c r="O2" s="478"/>
+      <c r="P2" s="479"/>
+      <c r="Q2" s="479"/>
+      <c r="R2" s="480"/>
+      <c r="S2" s="487"/>
+      <c r="T2" s="488"/>
+      <c r="U2" s="488"/>
+      <c r="V2" s="488"/>
+      <c r="W2" s="488"/>
+      <c r="X2" s="488"/>
+      <c r="Y2" s="488"/>
+      <c r="Z2" s="489"/>
+      <c r="AA2" s="466" t="s">
         <v>15</v>
       </c>
-      <c r="AB2" s="456"/>
-      <c r="AC2" s="460" t="str">
+      <c r="AB2" s="468"/>
+      <c r="AC2" s="472" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="461"/>
-      <c r="AE2" s="461"/>
-      <c r="AF2" s="462"/>
-      <c r="AG2" s="481" t="str">
+      <c r="AD2" s="473"/>
+      <c r="AE2" s="473"/>
+      <c r="AF2" s="474"/>
+      <c r="AG2" s="493" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="482"/>
-      <c r="AI2" s="483"/>
+      <c r="AH2" s="494"/>
+      <c r="AI2" s="495"/>
       <c r="AJ2" s="49"/>
       <c r="AN2" s="47"/>
       <c r="AO2" s="47"/>
       <c r="AP2" s="47"/>
     </row>
     <row r="3" spans="1:42" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="454" t="s">
+      <c r="A3" s="466" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="455"/>
-      <c r="C3" s="455"/>
-      <c r="D3" s="456"/>
-      <c r="E3" s="457" t="str">
+      <c r="B3" s="467"/>
+      <c r="C3" s="467"/>
+      <c r="D3" s="468"/>
+      <c r="E3" s="469" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="458"/>
-      <c r="G3" s="458"/>
-      <c r="H3" s="458"/>
-      <c r="I3" s="458"/>
-      <c r="J3" s="458"/>
-      <c r="K3" s="458"/>
-      <c r="L3" s="458"/>
-      <c r="M3" s="458"/>
-      <c r="N3" s="459"/>
-      <c r="O3" s="469"/>
-      <c r="P3" s="470"/>
-      <c r="Q3" s="470"/>
-      <c r="R3" s="471"/>
-      <c r="S3" s="478"/>
-      <c r="T3" s="479"/>
-      <c r="U3" s="479"/>
-      <c r="V3" s="479"/>
-      <c r="W3" s="479"/>
-      <c r="X3" s="479"/>
-      <c r="Y3" s="479"/>
-      <c r="Z3" s="480"/>
-      <c r="AA3" s="454"/>
-      <c r="AB3" s="456"/>
-      <c r="AC3" s="460" t="str">
+      <c r="F3" s="470"/>
+      <c r="G3" s="470"/>
+      <c r="H3" s="470"/>
+      <c r="I3" s="470"/>
+      <c r="J3" s="470"/>
+      <c r="K3" s="470"/>
+      <c r="L3" s="470"/>
+      <c r="M3" s="470"/>
+      <c r="N3" s="471"/>
+      <c r="O3" s="481"/>
+      <c r="P3" s="482"/>
+      <c r="Q3" s="482"/>
+      <c r="R3" s="483"/>
+      <c r="S3" s="490"/>
+      <c r="T3" s="491"/>
+      <c r="U3" s="491"/>
+      <c r="V3" s="491"/>
+      <c r="W3" s="491"/>
+      <c r="X3" s="491"/>
+      <c r="Y3" s="491"/>
+      <c r="Z3" s="492"/>
+      <c r="AA3" s="466"/>
+      <c r="AB3" s="468"/>
+      <c r="AC3" s="472" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="461"/>
-      <c r="AE3" s="461"/>
-      <c r="AF3" s="462"/>
-      <c r="AG3" s="481" t="str">
+      <c r="AD3" s="473"/>
+      <c r="AE3" s="473"/>
+      <c r="AF3" s="474"/>
+      <c r="AG3" s="493" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="482"/>
-      <c r="AI3" s="483"/>
+      <c r="AH3" s="494"/>
+      <c r="AI3" s="495"/>
       <c r="AJ3" s="49"/>
       <c r="AN3" s="47"/>
       <c r="AO3" s="47"/>
@@ -34015,12 +33895,12 @@
     </row>
     <row r="21" spans="4:35" x14ac:dyDescent="0.15">
       <c r="D21" s="145"/>
-      <c r="F21" s="484" t="s">
+      <c r="F21" s="496" t="s">
         <v>25</v>
       </c>
-      <c r="G21" s="485"/>
-      <c r="H21" s="485"/>
-      <c r="I21" s="486"/>
+      <c r="G21" s="497"/>
+      <c r="H21" s="497"/>
+      <c r="I21" s="498"/>
       <c r="J21" s="106" t="s">
         <v>26</v>
       </c>
@@ -35692,17 +35572,17 @@
       <c r="D65" s="17"/>
       <c r="E65" s="17"/>
       <c r="F65" s="43"/>
-      <c r="G65" s="497" t="s">
+      <c r="G65" s="509" t="s">
         <v>29</v>
       </c>
-      <c r="H65" s="498"/>
-      <c r="I65" s="498"/>
-      <c r="J65" s="499"/>
-      <c r="K65" s="445" t="s">
+      <c r="H65" s="510"/>
+      <c r="I65" s="510"/>
+      <c r="J65" s="511"/>
+      <c r="K65" s="457" t="s">
         <v>71</v>
       </c>
-      <c r="L65" s="446"/>
-      <c r="M65" s="447"/>
+      <c r="L65" s="458"/>
+      <c r="M65" s="459"/>
       <c r="N65" s="106" t="s">
         <v>218</v>
       </c>
@@ -35745,17 +35625,17 @@
       <c r="D66" s="17"/>
       <c r="E66" s="17"/>
       <c r="F66" s="32"/>
-      <c r="G66" s="487" t="s">
+      <c r="G66" s="499" t="s">
         <v>597</v>
       </c>
-      <c r="H66" s="488"/>
-      <c r="I66" s="488"/>
-      <c r="J66" s="489"/>
-      <c r="K66" s="487" t="s">
+      <c r="H66" s="500"/>
+      <c r="I66" s="500"/>
+      <c r="J66" s="501"/>
+      <c r="K66" s="499" t="s">
         <v>598</v>
       </c>
-      <c r="L66" s="488"/>
-      <c r="M66" s="489"/>
+      <c r="L66" s="500"/>
+      <c r="M66" s="501"/>
       <c r="N66" s="144" t="s">
         <v>421</v>
       </c>
@@ -35798,13 +35678,13 @@
       <c r="D67" s="17"/>
       <c r="E67" s="17"/>
       <c r="F67" s="32"/>
-      <c r="G67" s="490"/>
-      <c r="H67" s="491"/>
-      <c r="I67" s="491"/>
-      <c r="J67" s="492"/>
-      <c r="K67" s="496"/>
-      <c r="L67" s="491"/>
-      <c r="M67" s="492"/>
+      <c r="G67" s="502"/>
+      <c r="H67" s="503"/>
+      <c r="I67" s="503"/>
+      <c r="J67" s="504"/>
+      <c r="K67" s="508"/>
+      <c r="L67" s="503"/>
+      <c r="M67" s="504"/>
       <c r="N67" s="181" t="s">
         <v>422</v>
       </c>
@@ -35847,13 +35727,13 @@
       <c r="D68" s="17"/>
       <c r="E68" s="17"/>
       <c r="F68" s="32"/>
-      <c r="G68" s="490"/>
-      <c r="H68" s="491"/>
-      <c r="I68" s="491"/>
-      <c r="J68" s="492"/>
-      <c r="K68" s="490"/>
-      <c r="L68" s="491"/>
-      <c r="M68" s="492"/>
+      <c r="G68" s="502"/>
+      <c r="H68" s="503"/>
+      <c r="I68" s="503"/>
+      <c r="J68" s="504"/>
+      <c r="K68" s="502"/>
+      <c r="L68" s="503"/>
+      <c r="M68" s="504"/>
       <c r="N68" s="181" t="s">
         <v>412</v>
       </c>
@@ -35896,13 +35776,13 @@
       <c r="D69" s="17"/>
       <c r="E69" s="17"/>
       <c r="F69" s="32"/>
-      <c r="G69" s="490"/>
-      <c r="H69" s="491"/>
-      <c r="I69" s="491"/>
-      <c r="J69" s="492"/>
-      <c r="K69" s="490"/>
-      <c r="L69" s="491"/>
-      <c r="M69" s="492"/>
+      <c r="G69" s="502"/>
+      <c r="H69" s="503"/>
+      <c r="I69" s="503"/>
+      <c r="J69" s="504"/>
+      <c r="K69" s="502"/>
+      <c r="L69" s="503"/>
+      <c r="M69" s="504"/>
       <c r="N69" s="181" t="s">
         <v>667</v>
       </c>
@@ -35945,13 +35825,13 @@
       <c r="D70" s="15"/>
       <c r="E70" s="15"/>
       <c r="F70" s="33"/>
-      <c r="G70" s="493"/>
-      <c r="H70" s="494"/>
-      <c r="I70" s="494"/>
-      <c r="J70" s="495"/>
-      <c r="K70" s="493"/>
-      <c r="L70" s="494"/>
-      <c r="M70" s="495"/>
+      <c r="G70" s="505"/>
+      <c r="H70" s="506"/>
+      <c r="I70" s="506"/>
+      <c r="J70" s="507"/>
+      <c r="K70" s="505"/>
+      <c r="L70" s="506"/>
+      <c r="M70" s="507"/>
       <c r="N70" s="183"/>
       <c r="O70" s="184"/>
       <c r="P70" s="184"/>
@@ -36393,159 +36273,159 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="454" t="s">
+      <c r="A1" s="466" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="455"/>
-      <c r="C1" s="455"/>
-      <c r="D1" s="456"/>
-      <c r="E1" s="457"/>
-      <c r="F1" s="458"/>
-      <c r="G1" s="458"/>
-      <c r="H1" s="458"/>
-      <c r="I1" s="458"/>
-      <c r="J1" s="458"/>
-      <c r="K1" s="458"/>
-      <c r="L1" s="458"/>
-      <c r="M1" s="458"/>
-      <c r="N1" s="459"/>
-      <c r="O1" s="504" t="s">
+      <c r="B1" s="467"/>
+      <c r="C1" s="467"/>
+      <c r="D1" s="468"/>
+      <c r="E1" s="469"/>
+      <c r="F1" s="470"/>
+      <c r="G1" s="470"/>
+      <c r="H1" s="470"/>
+      <c r="I1" s="470"/>
+      <c r="J1" s="470"/>
+      <c r="K1" s="470"/>
+      <c r="L1" s="470"/>
+      <c r="M1" s="470"/>
+      <c r="N1" s="471"/>
+      <c r="O1" s="512" t="s">
         <v>98</v>
       </c>
-      <c r="P1" s="464"/>
-      <c r="Q1" s="464"/>
-      <c r="R1" s="505"/>
-      <c r="S1" s="506" t="str">
+      <c r="P1" s="476"/>
+      <c r="Q1" s="476"/>
+      <c r="R1" s="513"/>
+      <c r="S1" s="514" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>UI標準(画面)</v>
       </c>
-      <c r="T1" s="473"/>
-      <c r="U1" s="473"/>
-      <c r="V1" s="473"/>
-      <c r="W1" s="473"/>
-      <c r="X1" s="473"/>
-      <c r="Y1" s="473"/>
-      <c r="Z1" s="507"/>
-      <c r="AA1" s="454" t="s">
+      <c r="T1" s="485"/>
+      <c r="U1" s="485"/>
+      <c r="V1" s="485"/>
+      <c r="W1" s="485"/>
+      <c r="X1" s="485"/>
+      <c r="Y1" s="485"/>
+      <c r="Z1" s="515"/>
+      <c r="AA1" s="466" t="s">
         <v>14</v>
       </c>
-      <c r="AB1" s="456"/>
-      <c r="AC1" s="460" t="str">
+      <c r="AB1" s="468"/>
+      <c r="AC1" s="472" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="461"/>
-      <c r="AE1" s="461"/>
-      <c r="AF1" s="462"/>
-      <c r="AG1" s="481">
+      <c r="AD1" s="473"/>
+      <c r="AE1" s="473"/>
+      <c r="AF1" s="474"/>
+      <c r="AG1" s="493">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="482"/>
-      <c r="AI1" s="483"/>
+      <c r="AH1" s="494"/>
+      <c r="AI1" s="495"/>
       <c r="AJ1" s="49"/>
       <c r="AN1" s="47"/>
       <c r="AO1" s="47"/>
       <c r="AP1" s="47"/>
     </row>
     <row r="2" spans="1:42" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="454" t="s">
+      <c r="A2" s="466" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="455"/>
-      <c r="C2" s="455"/>
-      <c r="D2" s="456"/>
-      <c r="E2" s="457"/>
-      <c r="F2" s="458"/>
-      <c r="G2" s="458"/>
-      <c r="H2" s="458"/>
-      <c r="I2" s="458"/>
-      <c r="J2" s="458"/>
-      <c r="K2" s="458"/>
-      <c r="L2" s="458"/>
-      <c r="M2" s="458"/>
-      <c r="N2" s="459"/>
-      <c r="O2" s="466"/>
-      <c r="P2" s="467"/>
-      <c r="Q2" s="467"/>
-      <c r="R2" s="468"/>
-      <c r="S2" s="475"/>
-      <c r="T2" s="476"/>
-      <c r="U2" s="476"/>
-      <c r="V2" s="476"/>
-      <c r="W2" s="476"/>
-      <c r="X2" s="476"/>
-      <c r="Y2" s="476"/>
-      <c r="Z2" s="477"/>
-      <c r="AA2" s="454" t="s">
+      <c r="B2" s="467"/>
+      <c r="C2" s="467"/>
+      <c r="D2" s="468"/>
+      <c r="E2" s="469"/>
+      <c r="F2" s="470"/>
+      <c r="G2" s="470"/>
+      <c r="H2" s="470"/>
+      <c r="I2" s="470"/>
+      <c r="J2" s="470"/>
+      <c r="K2" s="470"/>
+      <c r="L2" s="470"/>
+      <c r="M2" s="470"/>
+      <c r="N2" s="471"/>
+      <c r="O2" s="478"/>
+      <c r="P2" s="479"/>
+      <c r="Q2" s="479"/>
+      <c r="R2" s="480"/>
+      <c r="S2" s="487"/>
+      <c r="T2" s="488"/>
+      <c r="U2" s="488"/>
+      <c r="V2" s="488"/>
+      <c r="W2" s="488"/>
+      <c r="X2" s="488"/>
+      <c r="Y2" s="488"/>
+      <c r="Z2" s="489"/>
+      <c r="AA2" s="466" t="s">
         <v>15</v>
       </c>
-      <c r="AB2" s="456"/>
-      <c r="AC2" s="460" t="str">
+      <c r="AB2" s="468"/>
+      <c r="AC2" s="472" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="461"/>
-      <c r="AE2" s="461"/>
-      <c r="AF2" s="462"/>
-      <c r="AG2" s="481" t="str">
+      <c r="AD2" s="473"/>
+      <c r="AE2" s="473"/>
+      <c r="AF2" s="474"/>
+      <c r="AG2" s="493" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="482"/>
-      <c r="AI2" s="483"/>
+      <c r="AH2" s="494"/>
+      <c r="AI2" s="495"/>
       <c r="AJ2" s="49"/>
       <c r="AN2" s="47"/>
       <c r="AO2" s="47"/>
       <c r="AP2" s="47"/>
     </row>
     <row r="3" spans="1:42" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="454" t="s">
+      <c r="A3" s="466" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="455"/>
-      <c r="C3" s="455"/>
-      <c r="D3" s="456"/>
-      <c r="E3" s="457" t="str">
+      <c r="B3" s="467"/>
+      <c r="C3" s="467"/>
+      <c r="D3" s="468"/>
+      <c r="E3" s="469" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="458"/>
-      <c r="G3" s="458"/>
-      <c r="H3" s="458"/>
-      <c r="I3" s="458"/>
-      <c r="J3" s="458"/>
-      <c r="K3" s="458"/>
-      <c r="L3" s="458"/>
-      <c r="M3" s="458"/>
-      <c r="N3" s="459"/>
-      <c r="O3" s="469"/>
-      <c r="P3" s="470"/>
-      <c r="Q3" s="470"/>
-      <c r="R3" s="471"/>
-      <c r="S3" s="478"/>
-      <c r="T3" s="479"/>
-      <c r="U3" s="479"/>
-      <c r="V3" s="479"/>
-      <c r="W3" s="479"/>
-      <c r="X3" s="479"/>
-      <c r="Y3" s="479"/>
-      <c r="Z3" s="480"/>
-      <c r="AA3" s="454"/>
-      <c r="AB3" s="456"/>
-      <c r="AC3" s="460" t="str">
+      <c r="F3" s="470"/>
+      <c r="G3" s="470"/>
+      <c r="H3" s="470"/>
+      <c r="I3" s="470"/>
+      <c r="J3" s="470"/>
+      <c r="K3" s="470"/>
+      <c r="L3" s="470"/>
+      <c r="M3" s="470"/>
+      <c r="N3" s="471"/>
+      <c r="O3" s="481"/>
+      <c r="P3" s="482"/>
+      <c r="Q3" s="482"/>
+      <c r="R3" s="483"/>
+      <c r="S3" s="490"/>
+      <c r="T3" s="491"/>
+      <c r="U3" s="491"/>
+      <c r="V3" s="491"/>
+      <c r="W3" s="491"/>
+      <c r="X3" s="491"/>
+      <c r="Y3" s="491"/>
+      <c r="Z3" s="492"/>
+      <c r="AA3" s="466"/>
+      <c r="AB3" s="468"/>
+      <c r="AC3" s="472" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="461"/>
-      <c r="AE3" s="461"/>
-      <c r="AF3" s="462"/>
-      <c r="AG3" s="481" t="str">
+      <c r="AD3" s="473"/>
+      <c r="AE3" s="473"/>
+      <c r="AF3" s="474"/>
+      <c r="AG3" s="493" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="482"/>
-      <c r="AI3" s="483"/>
+      <c r="AH3" s="494"/>
+      <c r="AI3" s="495"/>
       <c r="AJ3" s="49"/>
       <c r="AN3" s="47"/>
       <c r="AO3" s="47"/>
@@ -36581,41 +36461,41 @@
       </c>
     </row>
     <row r="14" spans="1:42" x14ac:dyDescent="0.15">
-      <c r="E14" s="497" t="s">
+      <c r="E14" s="509" t="s">
         <v>97</v>
       </c>
-      <c r="F14" s="498"/>
-      <c r="G14" s="498"/>
-      <c r="H14" s="498"/>
-      <c r="I14" s="498"/>
-      <c r="J14" s="499"/>
-      <c r="K14" s="497" t="s">
+      <c r="F14" s="510"/>
+      <c r="G14" s="510"/>
+      <c r="H14" s="510"/>
+      <c r="I14" s="510"/>
+      <c r="J14" s="511"/>
+      <c r="K14" s="509" t="s">
         <v>104</v>
       </c>
-      <c r="L14" s="498"/>
-      <c r="M14" s="498"/>
-      <c r="N14" s="498"/>
-      <c r="O14" s="498"/>
-      <c r="P14" s="498"/>
-      <c r="Q14" s="498"/>
-      <c r="R14" s="498"/>
-      <c r="S14" s="499"/>
-      <c r="T14" s="497" t="s">
+      <c r="L14" s="510"/>
+      <c r="M14" s="510"/>
+      <c r="N14" s="510"/>
+      <c r="O14" s="510"/>
+      <c r="P14" s="510"/>
+      <c r="Q14" s="510"/>
+      <c r="R14" s="510"/>
+      <c r="S14" s="511"/>
+      <c r="T14" s="509" t="s">
         <v>96</v>
       </c>
-      <c r="U14" s="498"/>
-      <c r="V14" s="498"/>
-      <c r="W14" s="498"/>
-      <c r="X14" s="498"/>
-      <c r="Y14" s="498"/>
-      <c r="Z14" s="498"/>
-      <c r="AA14" s="498"/>
-      <c r="AB14" s="498"/>
-      <c r="AC14" s="498"/>
-      <c r="AD14" s="498"/>
-      <c r="AE14" s="498"/>
-      <c r="AF14" s="498"/>
-      <c r="AG14" s="499"/>
+      <c r="U14" s="510"/>
+      <c r="V14" s="510"/>
+      <c r="W14" s="510"/>
+      <c r="X14" s="510"/>
+      <c r="Y14" s="510"/>
+      <c r="Z14" s="510"/>
+      <c r="AA14" s="510"/>
+      <c r="AB14" s="510"/>
+      <c r="AC14" s="510"/>
+      <c r="AD14" s="510"/>
+      <c r="AE14" s="510"/>
+      <c r="AF14" s="510"/>
+      <c r="AG14" s="511"/>
     </row>
     <row r="15" spans="1:42" x14ac:dyDescent="0.15">
       <c r="E15" s="214" t="s">
@@ -37227,102 +37107,102 @@
       <c r="C74" s="53"/>
     </row>
     <row r="75" spans="3:7" s="319" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C75" s="604"/>
+      <c r="C75" s="377"/>
     </row>
     <row r="76" spans="3:7" s="319" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C76" s="604"/>
+      <c r="C76" s="377"/>
       <c r="D76" s="368" t="s">
         <v>637</v>
       </c>
     </row>
     <row r="77" spans="3:7" s="319" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C77" s="604"/>
+      <c r="C77" s="377"/>
       <c r="E77" s="368" t="s">
         <v>638</v>
       </c>
     </row>
     <row r="78" spans="3:7" s="319" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C78" s="604"/>
+      <c r="C78" s="377"/>
       <c r="E78" s="368" t="s">
         <v>639</v>
       </c>
     </row>
     <row r="79" spans="3:7" s="319" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C79" s="604"/>
+      <c r="C79" s="377"/>
     </row>
     <row r="80" spans="3:7" s="319" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C80" s="604"/>
+      <c r="C80" s="377"/>
       <c r="E80" s="368" t="s">
         <v>640</v>
       </c>
     </row>
     <row r="81" spans="3:29" s="319" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C81" s="604"/>
+      <c r="C81" s="377"/>
     </row>
     <row r="82" spans="3:29" s="319" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C82" s="604"/>
+      <c r="C82" s="377"/>
     </row>
     <row r="83" spans="3:29" s="319" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C83" s="604"/>
+      <c r="C83" s="377"/>
     </row>
     <row r="84" spans="3:29" s="319" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C84" s="604"/>
+      <c r="C84" s="377"/>
     </row>
     <row r="85" spans="3:29" s="319" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C85" s="604"/>
+      <c r="C85" s="377"/>
     </row>
     <row r="86" spans="3:29" s="319" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C86" s="604"/>
+      <c r="C86" s="377"/>
     </row>
     <row r="87" spans="3:29" s="319" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C87" s="604"/>
+      <c r="C87" s="377"/>
     </row>
     <row r="88" spans="3:29" s="319" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C88" s="604"/>
+      <c r="C88" s="377"/>
     </row>
     <row r="89" spans="3:29" s="319" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C89" s="604"/>
+      <c r="C89" s="377"/>
       <c r="N89" s="368" t="s">
         <v>641</v>
       </c>
     </row>
     <row r="90" spans="3:29" s="319" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C90" s="604"/>
+      <c r="C90" s="377"/>
     </row>
     <row r="91" spans="3:29" s="319" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C91" s="604"/>
-      <c r="F91" s="605" t="s">
+      <c r="C91" s="377"/>
+      <c r="F91" s="378" t="s">
         <v>101</v>
       </c>
-      <c r="G91" s="606"/>
-      <c r="H91" s="606"/>
-      <c r="I91" s="606"/>
-      <c r="J91" s="606"/>
-      <c r="K91" s="607"/>
-      <c r="L91" s="605" t="s">
+      <c r="G91" s="379"/>
+      <c r="H91" s="379"/>
+      <c r="I91" s="379"/>
+      <c r="J91" s="379"/>
+      <c r="K91" s="380"/>
+      <c r="L91" s="378" t="s">
         <v>218</v>
       </c>
-      <c r="M91" s="606"/>
-      <c r="N91" s="606"/>
-      <c r="O91" s="606"/>
-      <c r="P91" s="606"/>
-      <c r="Q91" s="606"/>
-      <c r="R91" s="606"/>
-      <c r="S91" s="606"/>
-      <c r="T91" s="606"/>
-      <c r="U91" s="606"/>
-      <c r="V91" s="606"/>
-      <c r="W91" s="606"/>
-      <c r="X91" s="606"/>
-      <c r="Y91" s="606"/>
-      <c r="Z91" s="606"/>
-      <c r="AA91" s="606"/>
-      <c r="AB91" s="606"/>
-      <c r="AC91" s="607"/>
+      <c r="M91" s="379"/>
+      <c r="N91" s="379"/>
+      <c r="O91" s="379"/>
+      <c r="P91" s="379"/>
+      <c r="Q91" s="379"/>
+      <c r="R91" s="379"/>
+      <c r="S91" s="379"/>
+      <c r="T91" s="379"/>
+      <c r="U91" s="379"/>
+      <c r="V91" s="379"/>
+      <c r="W91" s="379"/>
+      <c r="X91" s="379"/>
+      <c r="Y91" s="379"/>
+      <c r="Z91" s="379"/>
+      <c r="AA91" s="379"/>
+      <c r="AB91" s="379"/>
+      <c r="AC91" s="380"/>
     </row>
     <row r="92" spans="3:29" s="319" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C92" s="604"/>
-      <c r="F92" s="608" t="s">
+      <c r="C92" s="377"/>
+      <c r="F92" s="381" t="s">
         <v>642</v>
       </c>
       <c r="G92" s="366"/>
@@ -37330,7 +37210,7 @@
       <c r="I92" s="366"/>
       <c r="J92" s="366"/>
       <c r="K92" s="367"/>
-      <c r="L92" s="608" t="s">
+      <c r="L92" s="381" t="s">
         <v>643</v>
       </c>
       <c r="M92" s="366"/>
@@ -37352,8 +37232,8 @@
       <c r="AC92" s="367"/>
     </row>
     <row r="93" spans="3:29" s="319" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C93" s="604"/>
-      <c r="F93" s="608" t="s">
+      <c r="C93" s="377"/>
+      <c r="F93" s="381" t="s">
         <v>644</v>
       </c>
       <c r="G93" s="366"/>
@@ -37361,7 +37241,7 @@
       <c r="I93" s="366"/>
       <c r="J93" s="366"/>
       <c r="K93" s="367"/>
-      <c r="L93" s="608" t="s">
+      <c r="L93" s="381" t="s">
         <v>645</v>
       </c>
       <c r="M93" s="366"/>
@@ -37383,8 +37263,8 @@
       <c r="AC93" s="367"/>
     </row>
     <row r="94" spans="3:29" s="319" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C94" s="604"/>
-      <c r="F94" s="608" t="s">
+      <c r="C94" s="377"/>
+      <c r="F94" s="381" t="s">
         <v>646</v>
       </c>
       <c r="G94" s="366"/>
@@ -37392,7 +37272,7 @@
       <c r="I94" s="366"/>
       <c r="J94" s="366"/>
       <c r="K94" s="367"/>
-      <c r="L94" s="608" t="s">
+      <c r="L94" s="381" t="s">
         <v>647</v>
       </c>
       <c r="M94" s="366"/>
@@ -37414,93 +37294,93 @@
       <c r="AC94" s="367"/>
     </row>
     <row r="95" spans="3:29" s="319" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C95" s="604"/>
+      <c r="C95" s="377"/>
     </row>
     <row r="96" spans="3:29" s="319" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C96" s="604"/>
+      <c r="C96" s="377"/>
       <c r="F96" s="368" t="s">
         <v>648</v>
       </c>
     </row>
     <row r="97" spans="3:7" s="319" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C97" s="604"/>
+      <c r="C97" s="377"/>
     </row>
     <row r="98" spans="3:7" s="319" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C98" s="604"/>
+      <c r="C98" s="377"/>
     </row>
     <row r="99" spans="3:7" s="319" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C99" s="604"/>
+      <c r="C99" s="377"/>
       <c r="E99" s="368" t="s">
         <v>444</v>
       </c>
       <c r="F99" s="368"/>
     </row>
     <row r="100" spans="3:7" s="319" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C100" s="604"/>
+      <c r="C100" s="377"/>
       <c r="E100" s="368"/>
       <c r="F100" s="368"/>
       <c r="G100" s="368"/>
     </row>
     <row r="101" spans="3:7" s="319" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C101" s="604"/>
+      <c r="C101" s="377"/>
       <c r="F101" s="368" t="s">
         <v>649</v>
       </c>
     </row>
     <row r="102" spans="3:7" s="319" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C102" s="604"/>
+      <c r="C102" s="377"/>
       <c r="G102" s="368" t="s">
         <v>650</v>
       </c>
     </row>
     <row r="103" spans="3:7" s="319" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C103" s="604"/>
+      <c r="C103" s="377"/>
       <c r="G103" s="368"/>
     </row>
     <row r="104" spans="3:7" s="319" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C104" s="604"/>
+      <c r="C104" s="377"/>
       <c r="F104" s="368" t="s">
         <v>651</v>
       </c>
       <c r="G104" s="368"/>
     </row>
     <row r="105" spans="3:7" s="319" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C105" s="604"/>
+      <c r="C105" s="377"/>
       <c r="G105" s="368" t="s">
         <v>652</v>
       </c>
     </row>
     <row r="106" spans="3:7" s="319" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C106" s="604"/>
+      <c r="C106" s="377"/>
       <c r="G106" s="368" t="s">
         <v>653</v>
       </c>
     </row>
     <row r="107" spans="3:7" s="319" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C107" s="604"/>
+      <c r="C107" s="377"/>
       <c r="G107" s="368"/>
     </row>
     <row r="108" spans="3:7" s="319" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C108" s="604"/>
+      <c r="C108" s="377"/>
       <c r="F108" s="368" t="s">
         <v>654</v>
       </c>
     </row>
     <row r="109" spans="3:7" s="319" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C109" s="604"/>
+      <c r="C109" s="377"/>
       <c r="F109" s="368"/>
       <c r="G109" s="368" t="s">
         <v>655</v>
       </c>
     </row>
     <row r="110" spans="3:7" s="319" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C110" s="604"/>
+      <c r="C110" s="377"/>
       <c r="G110" s="368" t="s">
         <v>656</v>
       </c>
     </row>
     <row r="111" spans="3:7" s="319" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C111" s="604"/>
+      <c r="C111" s="377"/>
     </row>
     <row r="112" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C112" s="53"/>
@@ -39041,7 +38921,7 @@
     </row>
     <row r="292" spans="3:27" s="81" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C292" s="319"/>
-      <c r="D292" s="597" t="s">
+      <c r="D292" s="370" t="s">
         <v>614</v>
       </c>
       <c r="E292" s="319"/>
@@ -39462,7 +39342,7 @@
     </row>
     <row r="307" spans="3:31" s="243" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C307" s="319"/>
-      <c r="D307" s="597" t="s">
+      <c r="D307" s="370" t="s">
         <v>618</v>
       </c>
       <c r="E307" s="319"/>
@@ -39899,7 +39779,7 @@
       <c r="AE320" s="84"/>
     </row>
     <row r="321" spans="4:37" s="81" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D321" s="597" t="s">
+      <c r="D321" s="370" t="s">
         <v>621</v>
       </c>
       <c r="E321" s="319"/>
@@ -40374,82 +40254,82 @@
     </row>
     <row r="335" spans="4:37" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D335" s="319"/>
-      <c r="E335" s="598" t="s">
+      <c r="E335" s="371" t="s">
         <v>625</v>
       </c>
-      <c r="F335" s="599"/>
-      <c r="G335" s="599"/>
-      <c r="H335" s="599"/>
-      <c r="I335" s="599"/>
-      <c r="J335" s="599"/>
-      <c r="K335" s="599"/>
-      <c r="L335" s="598" t="s">
+      <c r="F335" s="372"/>
+      <c r="G335" s="372"/>
+      <c r="H335" s="372"/>
+      <c r="I335" s="372"/>
+      <c r="J335" s="372"/>
+      <c r="K335" s="372"/>
+      <c r="L335" s="371" t="s">
         <v>626</v>
       </c>
-      <c r="M335" s="599"/>
-      <c r="N335" s="599"/>
-      <c r="O335" s="599"/>
-      <c r="P335" s="599"/>
-      <c r="Q335" s="599"/>
-      <c r="R335" s="599"/>
-      <c r="S335" s="599"/>
-      <c r="T335" s="599"/>
-      <c r="U335" s="599"/>
-      <c r="V335" s="599"/>
-      <c r="W335" s="599"/>
-      <c r="X335" s="599"/>
-      <c r="Y335" s="599"/>
-      <c r="Z335" s="599"/>
-      <c r="AA335" s="599"/>
-      <c r="AB335" s="599"/>
-      <c r="AC335" s="599"/>
-      <c r="AD335" s="599"/>
-      <c r="AE335" s="599"/>
-      <c r="AF335" s="599"/>
-      <c r="AG335" s="599"/>
-      <c r="AH335" s="600"/>
+      <c r="M335" s="372"/>
+      <c r="N335" s="372"/>
+      <c r="O335" s="372"/>
+      <c r="P335" s="372"/>
+      <c r="Q335" s="372"/>
+      <c r="R335" s="372"/>
+      <c r="S335" s="372"/>
+      <c r="T335" s="372"/>
+      <c r="U335" s="372"/>
+      <c r="V335" s="372"/>
+      <c r="W335" s="372"/>
+      <c r="X335" s="372"/>
+      <c r="Y335" s="372"/>
+      <c r="Z335" s="372"/>
+      <c r="AA335" s="372"/>
+      <c r="AB335" s="372"/>
+      <c r="AC335" s="372"/>
+      <c r="AD335" s="372"/>
+      <c r="AE335" s="372"/>
+      <c r="AF335" s="372"/>
+      <c r="AG335" s="372"/>
+      <c r="AH335" s="373"/>
       <c r="AK335" s="51"/>
     </row>
     <row r="336" spans="4:37" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D336" s="319"/>
-      <c r="E336" s="601" t="s">
+      <c r="E336" s="374" t="s">
         <v>614</v>
       </c>
       <c r="F336" s="364"/>
       <c r="G336" s="364"/>
       <c r="H336" s="364"/>
-      <c r="I336" s="602"/>
+      <c r="I336" s="375"/>
       <c r="J336" s="364"/>
       <c r="K336" s="364"/>
-      <c r="L336" s="601" t="s">
+      <c r="L336" s="374" t="s">
         <v>627</v>
       </c>
       <c r="M336" s="364"/>
       <c r="N336" s="364"/>
       <c r="O336" s="364"/>
-      <c r="P336" s="602"/>
-      <c r="Q336" s="602"/>
-      <c r="R336" s="602"/>
-      <c r="S336" s="602"/>
-      <c r="T336" s="602"/>
-      <c r="U336" s="602"/>
-      <c r="V336" s="602"/>
-      <c r="W336" s="602"/>
-      <c r="X336" s="602"/>
-      <c r="Y336" s="602"/>
-      <c r="Z336" s="602"/>
-      <c r="AA336" s="602"/>
-      <c r="AB336" s="602"/>
-      <c r="AC336" s="602"/>
-      <c r="AD336" s="602"/>
-      <c r="AE336" s="602"/>
-      <c r="AF336" s="602"/>
-      <c r="AG336" s="602"/>
-      <c r="AH336" s="603"/>
+      <c r="P336" s="375"/>
+      <c r="Q336" s="375"/>
+      <c r="R336" s="375"/>
+      <c r="S336" s="375"/>
+      <c r="T336" s="375"/>
+      <c r="U336" s="375"/>
+      <c r="V336" s="375"/>
+      <c r="W336" s="375"/>
+      <c r="X336" s="375"/>
+      <c r="Y336" s="375"/>
+      <c r="Z336" s="375"/>
+      <c r="AA336" s="375"/>
+      <c r="AB336" s="375"/>
+      <c r="AC336" s="375"/>
+      <c r="AD336" s="375"/>
+      <c r="AE336" s="375"/>
+      <c r="AF336" s="375"/>
+      <c r="AG336" s="375"/>
+      <c r="AH336" s="376"/>
     </row>
     <row r="337" spans="4:34" x14ac:dyDescent="0.15">
       <c r="D337" s="319"/>
-      <c r="E337" s="601" t="s">
+      <c r="E337" s="374" t="s">
         <v>618</v>
       </c>
       <c r="F337" s="364"/>
@@ -40464,62 +40344,62 @@
       <c r="M337" s="364"/>
       <c r="N337" s="364"/>
       <c r="O337" s="364"/>
-      <c r="P337" s="602"/>
-      <c r="Q337" s="602"/>
-      <c r="R337" s="602"/>
-      <c r="S337" s="602"/>
-      <c r="T337" s="602"/>
-      <c r="U337" s="602"/>
-      <c r="V337" s="602"/>
-      <c r="W337" s="602"/>
-      <c r="X337" s="602"/>
-      <c r="Y337" s="602"/>
-      <c r="Z337" s="602"/>
-      <c r="AA337" s="602"/>
-      <c r="AB337" s="602"/>
-      <c r="AC337" s="602"/>
-      <c r="AD337" s="602"/>
-      <c r="AE337" s="602"/>
-      <c r="AF337" s="602"/>
-      <c r="AG337" s="602"/>
-      <c r="AH337" s="603"/>
+      <c r="P337" s="375"/>
+      <c r="Q337" s="375"/>
+      <c r="R337" s="375"/>
+      <c r="S337" s="375"/>
+      <c r="T337" s="375"/>
+      <c r="U337" s="375"/>
+      <c r="V337" s="375"/>
+      <c r="W337" s="375"/>
+      <c r="X337" s="375"/>
+      <c r="Y337" s="375"/>
+      <c r="Z337" s="375"/>
+      <c r="AA337" s="375"/>
+      <c r="AB337" s="375"/>
+      <c r="AC337" s="375"/>
+      <c r="AD337" s="375"/>
+      <c r="AE337" s="375"/>
+      <c r="AF337" s="375"/>
+      <c r="AG337" s="375"/>
+      <c r="AH337" s="376"/>
     </row>
     <row r="338" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D338" s="319"/>
-      <c r="E338" s="601" t="s">
+      <c r="E338" s="374" t="s">
         <v>628</v>
       </c>
       <c r="F338" s="364"/>
       <c r="G338" s="364"/>
       <c r="H338" s="364"/>
-      <c r="I338" s="602"/>
+      <c r="I338" s="375"/>
       <c r="J338" s="364"/>
       <c r="K338" s="364"/>
-      <c r="L338" s="601" t="s">
+      <c r="L338" s="374" t="s">
         <v>629</v>
       </c>
       <c r="M338" s="364"/>
       <c r="N338" s="364"/>
       <c r="O338" s="364"/>
-      <c r="P338" s="602"/>
-      <c r="Q338" s="602"/>
-      <c r="R338" s="602"/>
-      <c r="S338" s="602"/>
-      <c r="T338" s="602"/>
-      <c r="U338" s="602"/>
-      <c r="V338" s="602"/>
-      <c r="W338" s="602"/>
-      <c r="X338" s="602"/>
-      <c r="Y338" s="602"/>
-      <c r="Z338" s="602"/>
-      <c r="AA338" s="602"/>
-      <c r="AB338" s="602"/>
-      <c r="AC338" s="602"/>
-      <c r="AD338" s="602"/>
-      <c r="AE338" s="602"/>
-      <c r="AF338" s="602"/>
-      <c r="AG338" s="602"/>
-      <c r="AH338" s="603"/>
+      <c r="P338" s="375"/>
+      <c r="Q338" s="375"/>
+      <c r="R338" s="375"/>
+      <c r="S338" s="375"/>
+      <c r="T338" s="375"/>
+      <c r="U338" s="375"/>
+      <c r="V338" s="375"/>
+      <c r="W338" s="375"/>
+      <c r="X338" s="375"/>
+      <c r="Y338" s="375"/>
+      <c r="Z338" s="375"/>
+      <c r="AA338" s="375"/>
+      <c r="AB338" s="375"/>
+      <c r="AC338" s="375"/>
+      <c r="AD338" s="375"/>
+      <c r="AE338" s="375"/>
+      <c r="AF338" s="375"/>
+      <c r="AG338" s="375"/>
+      <c r="AH338" s="376"/>
     </row>
     <row r="339" spans="4:34" x14ac:dyDescent="0.15">
       <c r="D339" s="319"/>
@@ -40625,9 +40505,6 @@
     <row r="346" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="A3:D3"/>
     <mergeCell ref="T14:AG14"/>
     <mergeCell ref="E14:J14"/>
     <mergeCell ref="K14:S14"/>
@@ -40645,6 +40522,9 @@
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="AA1:AB1"/>
     <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="A3:D3"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
@@ -40691,151 +40571,151 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="454" t="s">
+      <c r="A1" s="466" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="455"/>
-      <c r="C1" s="455"/>
-      <c r="D1" s="456"/>
-      <c r="E1" s="457"/>
-      <c r="F1" s="458"/>
-      <c r="G1" s="458"/>
-      <c r="H1" s="458"/>
-      <c r="I1" s="458"/>
-      <c r="J1" s="458"/>
-      <c r="K1" s="458"/>
-      <c r="L1" s="458"/>
-      <c r="M1" s="458"/>
-      <c r="N1" s="459"/>
-      <c r="O1" s="463" t="s">
+      <c r="B1" s="467"/>
+      <c r="C1" s="467"/>
+      <c r="D1" s="468"/>
+      <c r="E1" s="469"/>
+      <c r="F1" s="470"/>
+      <c r="G1" s="470"/>
+      <c r="H1" s="470"/>
+      <c r="I1" s="470"/>
+      <c r="J1" s="470"/>
+      <c r="K1" s="470"/>
+      <c r="L1" s="470"/>
+      <c r="M1" s="470"/>
+      <c r="N1" s="471"/>
+      <c r="O1" s="475" t="s">
         <v>66</v>
       </c>
-      <c r="P1" s="464"/>
-      <c r="Q1" s="464"/>
-      <c r="R1" s="465"/>
-      <c r="S1" s="472" t="str">
+      <c r="P1" s="476"/>
+      <c r="Q1" s="476"/>
+      <c r="R1" s="477"/>
+      <c r="S1" s="484" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>UI標準(画面)</v>
       </c>
-      <c r="T1" s="473"/>
-      <c r="U1" s="473"/>
-      <c r="V1" s="473"/>
-      <c r="W1" s="473"/>
-      <c r="X1" s="473"/>
-      <c r="Y1" s="473"/>
-      <c r="Z1" s="474"/>
-      <c r="AA1" s="454" t="s">
+      <c r="T1" s="485"/>
+      <c r="U1" s="485"/>
+      <c r="V1" s="485"/>
+      <c r="W1" s="485"/>
+      <c r="X1" s="485"/>
+      <c r="Y1" s="485"/>
+      <c r="Z1" s="486"/>
+      <c r="AA1" s="466" t="s">
         <v>14</v>
       </c>
-      <c r="AB1" s="456"/>
-      <c r="AC1" s="460" t="str">
+      <c r="AB1" s="468"/>
+      <c r="AC1" s="472" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="461"/>
-      <c r="AE1" s="461"/>
-      <c r="AF1" s="462"/>
-      <c r="AG1" s="481">
+      <c r="AD1" s="473"/>
+      <c r="AE1" s="473"/>
+      <c r="AF1" s="474"/>
+      <c r="AG1" s="493">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="482"/>
-      <c r="AI1" s="483"/>
+      <c r="AH1" s="494"/>
+      <c r="AI1" s="495"/>
     </row>
     <row r="2" spans="1:35" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="454" t="s">
+      <c r="A2" s="466" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="455"/>
-      <c r="C2" s="455"/>
-      <c r="D2" s="456"/>
-      <c r="E2" s="457"/>
-      <c r="F2" s="458"/>
-      <c r="G2" s="458"/>
-      <c r="H2" s="458"/>
-      <c r="I2" s="458"/>
-      <c r="J2" s="458"/>
-      <c r="K2" s="458"/>
-      <c r="L2" s="458"/>
-      <c r="M2" s="458"/>
-      <c r="N2" s="459"/>
-      <c r="O2" s="466"/>
-      <c r="P2" s="467"/>
-      <c r="Q2" s="467"/>
-      <c r="R2" s="468"/>
-      <c r="S2" s="475"/>
-      <c r="T2" s="476"/>
-      <c r="U2" s="476"/>
-      <c r="V2" s="476"/>
-      <c r="W2" s="476"/>
-      <c r="X2" s="476"/>
-      <c r="Y2" s="476"/>
-      <c r="Z2" s="477"/>
-      <c r="AA2" s="454" t="s">
+      <c r="B2" s="467"/>
+      <c r="C2" s="467"/>
+      <c r="D2" s="468"/>
+      <c r="E2" s="469"/>
+      <c r="F2" s="470"/>
+      <c r="G2" s="470"/>
+      <c r="H2" s="470"/>
+      <c r="I2" s="470"/>
+      <c r="J2" s="470"/>
+      <c r="K2" s="470"/>
+      <c r="L2" s="470"/>
+      <c r="M2" s="470"/>
+      <c r="N2" s="471"/>
+      <c r="O2" s="478"/>
+      <c r="P2" s="479"/>
+      <c r="Q2" s="479"/>
+      <c r="R2" s="480"/>
+      <c r="S2" s="487"/>
+      <c r="T2" s="488"/>
+      <c r="U2" s="488"/>
+      <c r="V2" s="488"/>
+      <c r="W2" s="488"/>
+      <c r="X2" s="488"/>
+      <c r="Y2" s="488"/>
+      <c r="Z2" s="489"/>
+      <c r="AA2" s="466" t="s">
         <v>15</v>
       </c>
-      <c r="AB2" s="456"/>
-      <c r="AC2" s="460" t="str">
+      <c r="AB2" s="468"/>
+      <c r="AC2" s="472" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="461"/>
-      <c r="AE2" s="461"/>
-      <c r="AF2" s="462"/>
-      <c r="AG2" s="481" t="str">
+      <c r="AD2" s="473"/>
+      <c r="AE2" s="473"/>
+      <c r="AF2" s="474"/>
+      <c r="AG2" s="493" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="482"/>
-      <c r="AI2" s="483"/>
+      <c r="AH2" s="494"/>
+      <c r="AI2" s="495"/>
     </row>
     <row r="3" spans="1:35" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="454" t="s">
+      <c r="A3" s="466" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="455"/>
-      <c r="C3" s="455"/>
-      <c r="D3" s="456"/>
-      <c r="E3" s="457" t="str">
+      <c r="B3" s="467"/>
+      <c r="C3" s="467"/>
+      <c r="D3" s="468"/>
+      <c r="E3" s="469" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="458"/>
-      <c r="G3" s="458"/>
-      <c r="H3" s="458"/>
-      <c r="I3" s="458"/>
-      <c r="J3" s="458"/>
-      <c r="K3" s="458"/>
-      <c r="L3" s="458"/>
-      <c r="M3" s="458"/>
-      <c r="N3" s="459"/>
-      <c r="O3" s="469"/>
-      <c r="P3" s="470"/>
-      <c r="Q3" s="470"/>
-      <c r="R3" s="471"/>
-      <c r="S3" s="478"/>
-      <c r="T3" s="479"/>
-      <c r="U3" s="479"/>
-      <c r="V3" s="479"/>
-      <c r="W3" s="479"/>
-      <c r="X3" s="479"/>
-      <c r="Y3" s="479"/>
-      <c r="Z3" s="480"/>
-      <c r="AA3" s="454"/>
-      <c r="AB3" s="456"/>
-      <c r="AC3" s="460" t="str">
+      <c r="F3" s="470"/>
+      <c r="G3" s="470"/>
+      <c r="H3" s="470"/>
+      <c r="I3" s="470"/>
+      <c r="J3" s="470"/>
+      <c r="K3" s="470"/>
+      <c r="L3" s="470"/>
+      <c r="M3" s="470"/>
+      <c r="N3" s="471"/>
+      <c r="O3" s="481"/>
+      <c r="P3" s="482"/>
+      <c r="Q3" s="482"/>
+      <c r="R3" s="483"/>
+      <c r="S3" s="490"/>
+      <c r="T3" s="491"/>
+      <c r="U3" s="491"/>
+      <c r="V3" s="491"/>
+      <c r="W3" s="491"/>
+      <c r="X3" s="491"/>
+      <c r="Y3" s="491"/>
+      <c r="Z3" s="492"/>
+      <c r="AA3" s="466"/>
+      <c r="AB3" s="468"/>
+      <c r="AC3" s="472" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="461"/>
-      <c r="AE3" s="461"/>
-      <c r="AF3" s="462"/>
-      <c r="AG3" s="481" t="str">
+      <c r="AD3" s="473"/>
+      <c r="AE3" s="473"/>
+      <c r="AF3" s="474"/>
+      <c r="AG3" s="493" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="482"/>
-      <c r="AI3" s="483"/>
+      <c r="AH3" s="494"/>
+      <c r="AI3" s="495"/>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.15">
       <c r="B5" s="36" t="s">
@@ -41997,12 +41877,12 @@
     <row r="74" spans="1:35" s="48" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A74" s="34"/>
       <c r="E74" s="34"/>
-      <c r="F74" s="445" t="s">
+      <c r="F74" s="457" t="s">
         <v>51</v>
       </c>
-      <c r="G74" s="446"/>
-      <c r="H74" s="446"/>
-      <c r="I74" s="447"/>
+      <c r="G74" s="458"/>
+      <c r="H74" s="458"/>
+      <c r="I74" s="459"/>
       <c r="J74" s="251" t="s">
         <v>210</v>
       </c>
@@ -42031,12 +41911,12 @@
     <row r="75" spans="1:35" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="34"/>
       <c r="E75" s="34"/>
-      <c r="F75" s="532" t="s">
+      <c r="F75" s="516" t="s">
         <v>249</v>
       </c>
-      <c r="G75" s="533"/>
-      <c r="H75" s="533"/>
-      <c r="I75" s="534"/>
+      <c r="G75" s="517"/>
+      <c r="H75" s="517"/>
+      <c r="I75" s="518"/>
       <c r="J75" s="258" t="s">
         <v>257</v>
       </c>
@@ -42066,12 +41946,12 @@
       <c r="A76" s="34"/>
       <c r="C76" s="34"/>
       <c r="E76" s="34"/>
-      <c r="F76" s="508" t="s">
+      <c r="F76" s="519" t="s">
         <v>352</v>
       </c>
-      <c r="G76" s="535"/>
-      <c r="H76" s="535"/>
-      <c r="I76" s="536"/>
+      <c r="G76" s="520"/>
+      <c r="H76" s="520"/>
+      <c r="I76" s="521"/>
       <c r="J76" s="279" t="s">
         <v>211</v>
       </c>
@@ -42101,10 +41981,10 @@
       <c r="A77" s="34"/>
       <c r="C77" s="34"/>
       <c r="E77" s="34"/>
-      <c r="F77" s="537"/>
-      <c r="G77" s="538"/>
-      <c r="H77" s="538"/>
-      <c r="I77" s="539"/>
+      <c r="F77" s="522"/>
+      <c r="G77" s="523"/>
+      <c r="H77" s="523"/>
+      <c r="I77" s="524"/>
       <c r="J77" s="255"/>
       <c r="K77" s="256"/>
       <c r="L77" s="256"/>
@@ -42129,12 +42009,12 @@
     <row r="78" spans="1:35" s="48" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A78" s="34"/>
       <c r="E78" s="34"/>
-      <c r="F78" s="532" t="s">
+      <c r="F78" s="516" t="s">
         <v>250</v>
       </c>
-      <c r="G78" s="533"/>
-      <c r="H78" s="533"/>
-      <c r="I78" s="534"/>
+      <c r="G78" s="517"/>
+      <c r="H78" s="517"/>
+      <c r="I78" s="518"/>
       <c r="J78" s="287" t="s">
         <v>212</v>
       </c>
@@ -42163,12 +42043,12 @@
     <row r="79" spans="1:35" s="48" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A79" s="34"/>
       <c r="E79" s="34"/>
-      <c r="F79" s="532" t="s">
+      <c r="F79" s="516" t="s">
         <v>248</v>
       </c>
-      <c r="G79" s="533"/>
-      <c r="H79" s="533"/>
-      <c r="I79" s="534"/>
+      <c r="G79" s="517"/>
+      <c r="H79" s="517"/>
+      <c r="I79" s="518"/>
       <c r="J79" s="258" t="s">
         <v>215</v>
       </c>
@@ -42198,12 +42078,12 @@
     <row r="80" spans="1:35" s="48" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A80" s="34"/>
       <c r="E80" s="34"/>
-      <c r="F80" s="532" t="s">
+      <c r="F80" s="516" t="s">
         <v>247</v>
       </c>
-      <c r="G80" s="533"/>
-      <c r="H80" s="533"/>
-      <c r="I80" s="534"/>
+      <c r="G80" s="517"/>
+      <c r="H80" s="517"/>
+      <c r="I80" s="518"/>
       <c r="J80" s="287" t="s">
         <v>213</v>
       </c>
@@ -42403,7 +42283,7 @@
       <c r="BE137" s="296"/>
     </row>
     <row r="138" spans="5:57" s="48" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F138" s="542">
+      <c r="F138" s="527">
         <v>1</v>
       </c>
       <c r="G138" s="247" t="s">
@@ -42460,7 +42340,7 @@
       <c r="BE138" s="296"/>
     </row>
     <row r="139" spans="5:57" s="67" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F139" s="543"/>
+      <c r="F139" s="528"/>
       <c r="G139" s="250"/>
       <c r="H139" s="128"/>
       <c r="I139" s="128"/>
@@ -42513,7 +42393,7 @@
       <c r="BE139" s="296"/>
     </row>
     <row r="140" spans="5:57" s="71" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F140" s="543"/>
+      <c r="F140" s="528"/>
       <c r="G140" s="250"/>
       <c r="H140" s="128"/>
       <c r="I140" s="128"/>
@@ -42566,7 +42446,7 @@
       <c r="BE140" s="296"/>
     </row>
     <row r="141" spans="5:57" s="78" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F141" s="543"/>
+      <c r="F141" s="528"/>
       <c r="G141" s="250"/>
       <c r="H141" s="128"/>
       <c r="I141" s="128"/>
@@ -42619,7 +42499,7 @@
       <c r="BE141" s="296"/>
     </row>
     <row r="142" spans="5:57" s="78" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F142" s="543"/>
+      <c r="F142" s="528"/>
       <c r="G142" s="250"/>
       <c r="H142" s="128"/>
       <c r="I142" s="128"/>
@@ -42672,7 +42552,7 @@
       <c r="BE142" s="296"/>
     </row>
     <row r="143" spans="5:57" s="71" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F143" s="543"/>
+      <c r="F143" s="528"/>
       <c r="G143" s="250"/>
       <c r="H143" s="128"/>
       <c r="I143" s="128"/>
@@ -42725,7 +42605,7 @@
       <c r="BE143" s="296"/>
     </row>
     <row r="144" spans="5:57" s="67" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F144" s="543"/>
+      <c r="F144" s="528"/>
       <c r="G144" s="250"/>
       <c r="H144" s="128"/>
       <c r="I144" s="128"/>
@@ -42778,7 +42658,7 @@
       <c r="BE144" s="296"/>
     </row>
     <row r="145" spans="1:57" s="67" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F145" s="544"/>
+      <c r="F145" s="529"/>
       <c r="G145" s="250"/>
       <c r="H145" s="128"/>
       <c r="I145" s="128"/>
@@ -42918,7 +42798,7 @@
       <c r="AG147" s="18"/>
     </row>
     <row r="148" spans="1:57" s="67" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F148" s="542">
+      <c r="F148" s="527">
         <v>3</v>
       </c>
       <c r="G148" s="250" t="s">
@@ -42975,7 +42855,7 @@
       <c r="BE148" s="296"/>
     </row>
     <row r="149" spans="1:57" s="71" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F149" s="543"/>
+      <c r="F149" s="528"/>
       <c r="G149" s="250"/>
       <c r="H149" s="128"/>
       <c r="I149" s="128"/>
@@ -43028,7 +42908,7 @@
       <c r="BE149" s="296"/>
     </row>
     <row r="150" spans="1:57" s="71" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F150" s="543"/>
+      <c r="F150" s="528"/>
       <c r="G150" s="250"/>
       <c r="H150" s="128"/>
       <c r="I150" s="128"/>
@@ -43081,7 +42961,7 @@
       <c r="BE150" s="296"/>
     </row>
     <row r="151" spans="1:57" s="67" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F151" s="543"/>
+      <c r="F151" s="528"/>
       <c r="G151" s="259"/>
       <c r="H151" s="84"/>
       <c r="I151" s="84"/>
@@ -43134,7 +43014,7 @@
       <c r="BE151" s="296"/>
     </row>
     <row r="152" spans="1:57" s="67" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F152" s="543"/>
+      <c r="F152" s="528"/>
       <c r="G152" s="259"/>
       <c r="H152" s="84"/>
       <c r="I152" s="84"/>
@@ -43187,7 +43067,7 @@
       <c r="BE152" s="296"/>
     </row>
     <row r="153" spans="1:57" s="67" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F153" s="544"/>
+      <c r="F153" s="529"/>
       <c r="G153" s="259"/>
       <c r="H153" s="84"/>
       <c r="I153" s="84"/>
@@ -43240,7 +43120,7 @@
       <c r="BE153" s="296"/>
     </row>
     <row r="154" spans="1:57" s="67" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F154" s="545">
+      <c r="F154" s="530">
         <v>4</v>
       </c>
       <c r="G154" s="247" t="s">
@@ -43297,7 +43177,7 @@
       <c r="BE154" s="296"/>
     </row>
     <row r="155" spans="1:57" s="67" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F155" s="546"/>
+      <c r="F155" s="531"/>
       <c r="G155" s="255"/>
       <c r="H155" s="256"/>
       <c r="I155" s="256"/>
@@ -44099,7 +43979,7 @@
     </row>
     <row r="228" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A228" s="34"/>
-      <c r="F228" s="540"/>
+      <c r="F228" s="525"/>
       <c r="G228" s="258" t="s">
         <v>259</v>
       </c>
@@ -44136,7 +44016,7 @@
       <c r="AD228" s="266"/>
     </row>
     <row r="229" spans="1:30" x14ac:dyDescent="0.15">
-      <c r="F229" s="540"/>
+      <c r="F229" s="525"/>
       <c r="G229" s="258" t="s">
         <v>301</v>
       </c>
@@ -44173,7 +44053,7 @@
       <c r="AD229" s="266"/>
     </row>
     <row r="230" spans="1:30" x14ac:dyDescent="0.15">
-      <c r="F230" s="541"/>
+      <c r="F230" s="526"/>
       <c r="G230" s="281" t="s">
         <v>302</v>
       </c>
@@ -44752,159 +44632,159 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" s="86" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="377" t="s">
+      <c r="A1" s="389" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="378"/>
-      <c r="C1" s="378"/>
-      <c r="D1" s="379"/>
-      <c r="E1" s="408"/>
-      <c r="F1" s="381"/>
-      <c r="G1" s="381"/>
-      <c r="H1" s="381"/>
-      <c r="I1" s="381"/>
-      <c r="J1" s="381"/>
-      <c r="K1" s="381"/>
-      <c r="L1" s="381"/>
-      <c r="M1" s="381"/>
-      <c r="N1" s="382"/>
-      <c r="O1" s="463" t="s">
+      <c r="B1" s="390"/>
+      <c r="C1" s="390"/>
+      <c r="D1" s="391"/>
+      <c r="E1" s="420"/>
+      <c r="F1" s="393"/>
+      <c r="G1" s="393"/>
+      <c r="H1" s="393"/>
+      <c r="I1" s="393"/>
+      <c r="J1" s="393"/>
+      <c r="K1" s="393"/>
+      <c r="L1" s="393"/>
+      <c r="M1" s="393"/>
+      <c r="N1" s="394"/>
+      <c r="O1" s="475" t="s">
         <v>17</v>
       </c>
-      <c r="P1" s="464"/>
-      <c r="Q1" s="464"/>
-      <c r="R1" s="465"/>
-      <c r="S1" s="472" t="str">
+      <c r="P1" s="476"/>
+      <c r="Q1" s="476"/>
+      <c r="R1" s="477"/>
+      <c r="S1" s="484" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>UI標準(画面)</v>
       </c>
-      <c r="T1" s="473"/>
-      <c r="U1" s="473"/>
-      <c r="V1" s="473"/>
-      <c r="W1" s="473"/>
-      <c r="X1" s="473"/>
-      <c r="Y1" s="473"/>
-      <c r="Z1" s="474"/>
-      <c r="AA1" s="377" t="s">
+      <c r="T1" s="485"/>
+      <c r="U1" s="485"/>
+      <c r="V1" s="485"/>
+      <c r="W1" s="485"/>
+      <c r="X1" s="485"/>
+      <c r="Y1" s="485"/>
+      <c r="Z1" s="486"/>
+      <c r="AA1" s="389" t="s">
         <v>14</v>
       </c>
-      <c r="AB1" s="379"/>
-      <c r="AC1" s="405" t="str">
+      <c r="AB1" s="391"/>
+      <c r="AC1" s="417" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="406"/>
-      <c r="AE1" s="406"/>
-      <c r="AF1" s="407"/>
-      <c r="AG1" s="564">
+      <c r="AD1" s="418"/>
+      <c r="AE1" s="418"/>
+      <c r="AF1" s="419"/>
+      <c r="AG1" s="567">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="565"/>
-      <c r="AI1" s="566"/>
+      <c r="AH1" s="568"/>
+      <c r="AI1" s="569"/>
       <c r="AJ1" s="49"/>
       <c r="AN1" s="89"/>
       <c r="AO1" s="89"/>
       <c r="AP1" s="89"/>
     </row>
     <row r="2" spans="1:42" s="86" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="377" t="s">
+      <c r="A2" s="389" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="378"/>
-      <c r="C2" s="378"/>
-      <c r="D2" s="379"/>
-      <c r="E2" s="408"/>
-      <c r="F2" s="381"/>
-      <c r="G2" s="381"/>
-      <c r="H2" s="381"/>
-      <c r="I2" s="381"/>
-      <c r="J2" s="381"/>
-      <c r="K2" s="381"/>
-      <c r="L2" s="381"/>
-      <c r="M2" s="381"/>
-      <c r="N2" s="382"/>
-      <c r="O2" s="466"/>
-      <c r="P2" s="467"/>
-      <c r="Q2" s="467"/>
-      <c r="R2" s="468"/>
-      <c r="S2" s="475"/>
-      <c r="T2" s="476"/>
-      <c r="U2" s="476"/>
-      <c r="V2" s="476"/>
-      <c r="W2" s="476"/>
-      <c r="X2" s="476"/>
-      <c r="Y2" s="476"/>
-      <c r="Z2" s="477"/>
-      <c r="AA2" s="377" t="s">
+      <c r="B2" s="390"/>
+      <c r="C2" s="390"/>
+      <c r="D2" s="391"/>
+      <c r="E2" s="420"/>
+      <c r="F2" s="393"/>
+      <c r="G2" s="393"/>
+      <c r="H2" s="393"/>
+      <c r="I2" s="393"/>
+      <c r="J2" s="393"/>
+      <c r="K2" s="393"/>
+      <c r="L2" s="393"/>
+      <c r="M2" s="393"/>
+      <c r="N2" s="394"/>
+      <c r="O2" s="478"/>
+      <c r="P2" s="479"/>
+      <c r="Q2" s="479"/>
+      <c r="R2" s="480"/>
+      <c r="S2" s="487"/>
+      <c r="T2" s="488"/>
+      <c r="U2" s="488"/>
+      <c r="V2" s="488"/>
+      <c r="W2" s="488"/>
+      <c r="X2" s="488"/>
+      <c r="Y2" s="488"/>
+      <c r="Z2" s="489"/>
+      <c r="AA2" s="389" t="s">
         <v>15</v>
       </c>
-      <c r="AB2" s="379"/>
-      <c r="AC2" s="405" t="str">
+      <c r="AB2" s="391"/>
+      <c r="AC2" s="417" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="406"/>
-      <c r="AE2" s="406"/>
-      <c r="AF2" s="407"/>
-      <c r="AG2" s="564" t="str">
+      <c r="AD2" s="418"/>
+      <c r="AE2" s="418"/>
+      <c r="AF2" s="419"/>
+      <c r="AG2" s="567" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="565"/>
-      <c r="AI2" s="566"/>
+      <c r="AH2" s="568"/>
+      <c r="AI2" s="569"/>
       <c r="AJ2" s="49"/>
       <c r="AN2" s="89"/>
       <c r="AO2" s="89"/>
       <c r="AP2" s="89"/>
     </row>
     <row r="3" spans="1:42" s="86" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="377" t="s">
+      <c r="A3" s="389" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="378"/>
-      <c r="C3" s="378"/>
-      <c r="D3" s="379"/>
-      <c r="E3" s="408" t="str">
+      <c r="B3" s="390"/>
+      <c r="C3" s="390"/>
+      <c r="D3" s="391"/>
+      <c r="E3" s="420" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="381"/>
-      <c r="G3" s="381"/>
-      <c r="H3" s="381"/>
-      <c r="I3" s="381"/>
-      <c r="J3" s="381"/>
-      <c r="K3" s="381"/>
-      <c r="L3" s="381"/>
-      <c r="M3" s="381"/>
-      <c r="N3" s="382"/>
-      <c r="O3" s="469"/>
-      <c r="P3" s="470"/>
-      <c r="Q3" s="470"/>
-      <c r="R3" s="471"/>
-      <c r="S3" s="478"/>
-      <c r="T3" s="479"/>
-      <c r="U3" s="479"/>
-      <c r="V3" s="479"/>
-      <c r="W3" s="479"/>
-      <c r="X3" s="479"/>
-      <c r="Y3" s="479"/>
-      <c r="Z3" s="480"/>
-      <c r="AA3" s="377"/>
-      <c r="AB3" s="379"/>
-      <c r="AC3" s="405" t="str">
+      <c r="F3" s="393"/>
+      <c r="G3" s="393"/>
+      <c r="H3" s="393"/>
+      <c r="I3" s="393"/>
+      <c r="J3" s="393"/>
+      <c r="K3" s="393"/>
+      <c r="L3" s="393"/>
+      <c r="M3" s="393"/>
+      <c r="N3" s="394"/>
+      <c r="O3" s="481"/>
+      <c r="P3" s="482"/>
+      <c r="Q3" s="482"/>
+      <c r="R3" s="483"/>
+      <c r="S3" s="490"/>
+      <c r="T3" s="491"/>
+      <c r="U3" s="491"/>
+      <c r="V3" s="491"/>
+      <c r="W3" s="491"/>
+      <c r="X3" s="491"/>
+      <c r="Y3" s="491"/>
+      <c r="Z3" s="492"/>
+      <c r="AA3" s="389"/>
+      <c r="AB3" s="391"/>
+      <c r="AC3" s="417" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="406"/>
-      <c r="AE3" s="406"/>
-      <c r="AF3" s="407"/>
-      <c r="AG3" s="564" t="str">
+      <c r="AD3" s="418"/>
+      <c r="AE3" s="418"/>
+      <c r="AF3" s="419"/>
+      <c r="AG3" s="567" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="565"/>
-      <c r="AI3" s="566"/>
+      <c r="AH3" s="568"/>
+      <c r="AI3" s="569"/>
       <c r="AJ3" s="49"/>
       <c r="AN3" s="89"/>
       <c r="AO3" s="89"/>
@@ -45594,477 +45474,477 @@
     </row>
     <row r="150" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="151" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D151" s="445" t="s">
+      <c r="D151" s="457" t="s">
         <v>347</v>
       </c>
-      <c r="E151" s="552"/>
-      <c r="F151" s="552"/>
-      <c r="G151" s="552"/>
-      <c r="H151" s="552"/>
-      <c r="I151" s="552"/>
-      <c r="J151" s="553"/>
-      <c r="K151" s="557" t="s">
+      <c r="E151" s="538"/>
+      <c r="F151" s="538"/>
+      <c r="G151" s="538"/>
+      <c r="H151" s="538"/>
+      <c r="I151" s="538"/>
+      <c r="J151" s="539"/>
+      <c r="K151" s="543" t="s">
         <v>51</v>
       </c>
-      <c r="L151" s="557"/>
-      <c r="M151" s="557"/>
-      <c r="N151" s="557"/>
-      <c r="O151" s="557"/>
-      <c r="P151" s="557"/>
-      <c r="Q151" s="557"/>
-      <c r="R151" s="557"/>
-      <c r="S151" s="557"/>
-      <c r="T151" s="557"/>
-      <c r="U151" s="557"/>
-      <c r="V151" s="557"/>
-      <c r="W151" s="557"/>
-      <c r="X151" s="557"/>
-      <c r="Y151" s="557"/>
-      <c r="Z151" s="557"/>
-      <c r="AA151" s="556" t="s">
+      <c r="L151" s="543"/>
+      <c r="M151" s="543"/>
+      <c r="N151" s="543"/>
+      <c r="O151" s="543"/>
+      <c r="P151" s="543"/>
+      <c r="Q151" s="543"/>
+      <c r="R151" s="543"/>
+      <c r="S151" s="543"/>
+      <c r="T151" s="543"/>
+      <c r="U151" s="543"/>
+      <c r="V151" s="543"/>
+      <c r="W151" s="543"/>
+      <c r="X151" s="543"/>
+      <c r="Y151" s="543"/>
+      <c r="Z151" s="543"/>
+      <c r="AA151" s="542" t="s">
         <v>52</v>
       </c>
-      <c r="AB151" s="557"/>
-      <c r="AC151" s="557"/>
-      <c r="AD151" s="557"/>
-      <c r="AE151" s="557"/>
-      <c r="AF151" s="557"/>
-      <c r="AG151" s="557"/>
-      <c r="AH151" s="557"/>
+      <c r="AB151" s="543"/>
+      <c r="AC151" s="543"/>
+      <c r="AD151" s="543"/>
+      <c r="AE151" s="543"/>
+      <c r="AF151" s="543"/>
+      <c r="AG151" s="543"/>
+      <c r="AH151" s="543"/>
     </row>
     <row r="152" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D152" s="448" t="s">
+      <c r="D152" s="460" t="s">
         <v>53</v>
       </c>
-      <c r="E152" s="449"/>
-      <c r="F152" s="449"/>
-      <c r="G152" s="449"/>
-      <c r="H152" s="449"/>
-      <c r="I152" s="449"/>
-      <c r="J152" s="450"/>
-      <c r="K152" s="563" t="s">
+      <c r="E152" s="461"/>
+      <c r="F152" s="461"/>
+      <c r="G152" s="461"/>
+      <c r="H152" s="461"/>
+      <c r="I152" s="461"/>
+      <c r="J152" s="462"/>
+      <c r="K152" s="566" t="s">
         <v>311</v>
       </c>
-      <c r="L152" s="563"/>
-      <c r="M152" s="563"/>
-      <c r="N152" s="563"/>
-      <c r="O152" s="563"/>
-      <c r="P152" s="563"/>
-      <c r="Q152" s="563"/>
-      <c r="R152" s="563"/>
-      <c r="S152" s="563"/>
-      <c r="T152" s="563"/>
-      <c r="U152" s="563"/>
-      <c r="V152" s="563"/>
-      <c r="W152" s="563"/>
-      <c r="X152" s="563"/>
-      <c r="Y152" s="563"/>
-      <c r="Z152" s="563"/>
-      <c r="AA152" s="554" t="s">
+      <c r="L152" s="566"/>
+      <c r="M152" s="566"/>
+      <c r="N152" s="566"/>
+      <c r="O152" s="566"/>
+      <c r="P152" s="566"/>
+      <c r="Q152" s="566"/>
+      <c r="R152" s="566"/>
+      <c r="S152" s="566"/>
+      <c r="T152" s="566"/>
+      <c r="U152" s="566"/>
+      <c r="V152" s="566"/>
+      <c r="W152" s="566"/>
+      <c r="X152" s="566"/>
+      <c r="Y152" s="566"/>
+      <c r="Z152" s="566"/>
+      <c r="AA152" s="540" t="s">
         <v>77</v>
       </c>
-      <c r="AB152" s="555"/>
-      <c r="AC152" s="555"/>
-      <c r="AD152" s="555"/>
-      <c r="AE152" s="555"/>
-      <c r="AF152" s="555"/>
-      <c r="AG152" s="555"/>
-      <c r="AH152" s="555"/>
+      <c r="AB152" s="541"/>
+      <c r="AC152" s="541"/>
+      <c r="AD152" s="541"/>
+      <c r="AE152" s="541"/>
+      <c r="AF152" s="541"/>
+      <c r="AG152" s="541"/>
+      <c r="AH152" s="541"/>
     </row>
     <row r="153" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D153" s="532" t="s">
+      <c r="D153" s="516" t="s">
         <v>326</v>
       </c>
-      <c r="E153" s="533"/>
-      <c r="F153" s="533"/>
-      <c r="G153" s="533"/>
-      <c r="H153" s="533"/>
-      <c r="I153" s="533"/>
-      <c r="J153" s="534"/>
-      <c r="K153" s="563" t="s">
+      <c r="E153" s="517"/>
+      <c r="F153" s="517"/>
+      <c r="G153" s="517"/>
+      <c r="H153" s="517"/>
+      <c r="I153" s="517"/>
+      <c r="J153" s="518"/>
+      <c r="K153" s="566" t="s">
         <v>312</v>
       </c>
-      <c r="L153" s="563"/>
-      <c r="M153" s="563"/>
-      <c r="N153" s="563"/>
-      <c r="O153" s="563"/>
-      <c r="P153" s="563"/>
-      <c r="Q153" s="563"/>
-      <c r="R153" s="563"/>
-      <c r="S153" s="563"/>
-      <c r="T153" s="563"/>
-      <c r="U153" s="563"/>
-      <c r="V153" s="563"/>
-      <c r="W153" s="563"/>
-      <c r="X153" s="563"/>
-      <c r="Y153" s="563"/>
-      <c r="Z153" s="563"/>
-      <c r="AA153" s="554" t="s">
+      <c r="L153" s="566"/>
+      <c r="M153" s="566"/>
+      <c r="N153" s="566"/>
+      <c r="O153" s="566"/>
+      <c r="P153" s="566"/>
+      <c r="Q153" s="566"/>
+      <c r="R153" s="566"/>
+      <c r="S153" s="566"/>
+      <c r="T153" s="566"/>
+      <c r="U153" s="566"/>
+      <c r="V153" s="566"/>
+      <c r="W153" s="566"/>
+      <c r="X153" s="566"/>
+      <c r="Y153" s="566"/>
+      <c r="Z153" s="566"/>
+      <c r="AA153" s="540" t="s">
         <v>77</v>
       </c>
-      <c r="AB153" s="555"/>
-      <c r="AC153" s="555"/>
-      <c r="AD153" s="555"/>
-      <c r="AE153" s="555"/>
-      <c r="AF153" s="555"/>
-      <c r="AG153" s="555"/>
-      <c r="AH153" s="555"/>
+      <c r="AB153" s="541"/>
+      <c r="AC153" s="541"/>
+      <c r="AD153" s="541"/>
+      <c r="AE153" s="541"/>
+      <c r="AF153" s="541"/>
+      <c r="AG153" s="541"/>
+      <c r="AH153" s="541"/>
     </row>
     <row r="154" spans="3:34" s="96" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D154" s="549" t="s">
+      <c r="D154" s="534" t="s">
         <v>342</v>
       </c>
-      <c r="E154" s="452"/>
-      <c r="F154" s="452"/>
-      <c r="G154" s="452"/>
-      <c r="H154" s="452"/>
-      <c r="I154" s="452"/>
-      <c r="J154" s="453"/>
-      <c r="K154" s="520" t="s">
+      <c r="E154" s="464"/>
+      <c r="F154" s="464"/>
+      <c r="G154" s="464"/>
+      <c r="H154" s="464"/>
+      <c r="I154" s="464"/>
+      <c r="J154" s="465"/>
+      <c r="K154" s="544" t="s">
         <v>344</v>
       </c>
-      <c r="L154" s="573"/>
-      <c r="M154" s="573"/>
-      <c r="N154" s="573"/>
-      <c r="O154" s="573"/>
-      <c r="P154" s="573"/>
-      <c r="Q154" s="573"/>
-      <c r="R154" s="573"/>
-      <c r="S154" s="573"/>
-      <c r="T154" s="573"/>
-      <c r="U154" s="573"/>
-      <c r="V154" s="573"/>
-      <c r="W154" s="573"/>
-      <c r="X154" s="573"/>
-      <c r="Y154" s="573"/>
-      <c r="Z154" s="574"/>
-      <c r="AA154" s="570" t="s">
+      <c r="L154" s="545"/>
+      <c r="M154" s="545"/>
+      <c r="N154" s="545"/>
+      <c r="O154" s="545"/>
+      <c r="P154" s="545"/>
+      <c r="Q154" s="545"/>
+      <c r="R154" s="545"/>
+      <c r="S154" s="545"/>
+      <c r="T154" s="545"/>
+      <c r="U154" s="545"/>
+      <c r="V154" s="545"/>
+      <c r="W154" s="545"/>
+      <c r="X154" s="545"/>
+      <c r="Y154" s="545"/>
+      <c r="Z154" s="546"/>
+      <c r="AA154" s="572" t="s">
         <v>343</v>
       </c>
-      <c r="AB154" s="571"/>
-      <c r="AC154" s="571"/>
-      <c r="AD154" s="571"/>
-      <c r="AE154" s="571"/>
-      <c r="AF154" s="571"/>
-      <c r="AG154" s="571"/>
-      <c r="AH154" s="572"/>
+      <c r="AB154" s="573"/>
+      <c r="AC154" s="573"/>
+      <c r="AD154" s="573"/>
+      <c r="AE154" s="573"/>
+      <c r="AF154" s="573"/>
+      <c r="AG154" s="573"/>
+      <c r="AH154" s="574"/>
     </row>
     <row r="155" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D155" s="547"/>
-      <c r="E155" s="517" t="s">
+      <c r="D155" s="532"/>
+      <c r="E155" s="535" t="s">
         <v>346</v>
       </c>
-      <c r="F155" s="550"/>
-      <c r="G155" s="550"/>
-      <c r="H155" s="550"/>
-      <c r="I155" s="550"/>
-      <c r="J155" s="551"/>
-      <c r="K155" s="563" t="s">
+      <c r="F155" s="536"/>
+      <c r="G155" s="536"/>
+      <c r="H155" s="536"/>
+      <c r="I155" s="536"/>
+      <c r="J155" s="537"/>
+      <c r="K155" s="566" t="s">
         <v>182</v>
       </c>
-      <c r="L155" s="563"/>
-      <c r="M155" s="563"/>
-      <c r="N155" s="563"/>
-      <c r="O155" s="563"/>
-      <c r="P155" s="563"/>
-      <c r="Q155" s="563"/>
-      <c r="R155" s="563"/>
-      <c r="S155" s="563"/>
-      <c r="T155" s="563"/>
-      <c r="U155" s="563"/>
-      <c r="V155" s="563"/>
-      <c r="W155" s="563"/>
-      <c r="X155" s="563"/>
-      <c r="Y155" s="563"/>
-      <c r="Z155" s="563"/>
-      <c r="AA155" s="568" t="s">
+      <c r="L155" s="566"/>
+      <c r="M155" s="566"/>
+      <c r="N155" s="566"/>
+      <c r="O155" s="566"/>
+      <c r="P155" s="566"/>
+      <c r="Q155" s="566"/>
+      <c r="R155" s="566"/>
+      <c r="S155" s="566"/>
+      <c r="T155" s="566"/>
+      <c r="U155" s="566"/>
+      <c r="V155" s="566"/>
+      <c r="W155" s="566"/>
+      <c r="X155" s="566"/>
+      <c r="Y155" s="566"/>
+      <c r="Z155" s="566"/>
+      <c r="AA155" s="570" t="s">
         <v>348</v>
       </c>
-      <c r="AB155" s="569"/>
-      <c r="AC155" s="569"/>
-      <c r="AD155" s="569"/>
-      <c r="AE155" s="569"/>
-      <c r="AF155" s="569"/>
-      <c r="AG155" s="569"/>
-      <c r="AH155" s="569"/>
+      <c r="AB155" s="571"/>
+      <c r="AC155" s="571"/>
+      <c r="AD155" s="571"/>
+      <c r="AE155" s="571"/>
+      <c r="AF155" s="571"/>
+      <c r="AG155" s="571"/>
+      <c r="AH155" s="571"/>
     </row>
     <row r="156" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D156" s="547"/>
-      <c r="E156" s="517"/>
-      <c r="F156" s="550"/>
-      <c r="G156" s="550"/>
-      <c r="H156" s="550"/>
-      <c r="I156" s="550"/>
-      <c r="J156" s="551"/>
-      <c r="K156" s="563" t="s">
+      <c r="D156" s="532"/>
+      <c r="E156" s="535"/>
+      <c r="F156" s="536"/>
+      <c r="G156" s="536"/>
+      <c r="H156" s="536"/>
+      <c r="I156" s="536"/>
+      <c r="J156" s="537"/>
+      <c r="K156" s="566" t="s">
         <v>72</v>
       </c>
-      <c r="L156" s="563"/>
-      <c r="M156" s="563"/>
-      <c r="N156" s="563"/>
-      <c r="O156" s="563"/>
-      <c r="P156" s="563"/>
-      <c r="Q156" s="563"/>
-      <c r="R156" s="563"/>
-      <c r="S156" s="563"/>
-      <c r="T156" s="563"/>
-      <c r="U156" s="563"/>
-      <c r="V156" s="563"/>
-      <c r="W156" s="563"/>
-      <c r="X156" s="563"/>
-      <c r="Y156" s="563"/>
-      <c r="Z156" s="563"/>
-      <c r="AA156" s="554" t="s">
+      <c r="L156" s="566"/>
+      <c r="M156" s="566"/>
+      <c r="N156" s="566"/>
+      <c r="O156" s="566"/>
+      <c r="P156" s="566"/>
+      <c r="Q156" s="566"/>
+      <c r="R156" s="566"/>
+      <c r="S156" s="566"/>
+      <c r="T156" s="566"/>
+      <c r="U156" s="566"/>
+      <c r="V156" s="566"/>
+      <c r="W156" s="566"/>
+      <c r="X156" s="566"/>
+      <c r="Y156" s="566"/>
+      <c r="Z156" s="566"/>
+      <c r="AA156" s="540" t="s">
         <v>305</v>
       </c>
-      <c r="AB156" s="569"/>
-      <c r="AC156" s="569"/>
-      <c r="AD156" s="569"/>
-      <c r="AE156" s="569"/>
-      <c r="AF156" s="569"/>
-      <c r="AG156" s="569"/>
-      <c r="AH156" s="569"/>
+      <c r="AB156" s="571"/>
+      <c r="AC156" s="571"/>
+      <c r="AD156" s="571"/>
+      <c r="AE156" s="571"/>
+      <c r="AF156" s="571"/>
+      <c r="AG156" s="571"/>
+      <c r="AH156" s="571"/>
     </row>
     <row r="157" spans="3:34" x14ac:dyDescent="0.15">
-      <c r="D157" s="547"/>
-      <c r="E157" s="517"/>
-      <c r="F157" s="550"/>
-      <c r="G157" s="550"/>
-      <c r="H157" s="550"/>
-      <c r="I157" s="550"/>
-      <c r="J157" s="551"/>
-      <c r="K157" s="563"/>
-      <c r="L157" s="563"/>
-      <c r="M157" s="563"/>
-      <c r="N157" s="563"/>
-      <c r="O157" s="563"/>
-      <c r="P157" s="563"/>
-      <c r="Q157" s="563"/>
-      <c r="R157" s="563"/>
-      <c r="S157" s="563"/>
-      <c r="T157" s="563"/>
-      <c r="U157" s="563"/>
-      <c r="V157" s="563"/>
-      <c r="W157" s="563"/>
-      <c r="X157" s="563"/>
-      <c r="Y157" s="563"/>
-      <c r="Z157" s="563"/>
-      <c r="AA157" s="569"/>
-      <c r="AB157" s="569"/>
-      <c r="AC157" s="569"/>
-      <c r="AD157" s="569"/>
-      <c r="AE157" s="569"/>
-      <c r="AF157" s="569"/>
-      <c r="AG157" s="569"/>
-      <c r="AH157" s="569"/>
+      <c r="D157" s="532"/>
+      <c r="E157" s="535"/>
+      <c r="F157" s="536"/>
+      <c r="G157" s="536"/>
+      <c r="H157" s="536"/>
+      <c r="I157" s="536"/>
+      <c r="J157" s="537"/>
+      <c r="K157" s="566"/>
+      <c r="L157" s="566"/>
+      <c r="M157" s="566"/>
+      <c r="N157" s="566"/>
+      <c r="O157" s="566"/>
+      <c r="P157" s="566"/>
+      <c r="Q157" s="566"/>
+      <c r="R157" s="566"/>
+      <c r="S157" s="566"/>
+      <c r="T157" s="566"/>
+      <c r="U157" s="566"/>
+      <c r="V157" s="566"/>
+      <c r="W157" s="566"/>
+      <c r="X157" s="566"/>
+      <c r="Y157" s="566"/>
+      <c r="Z157" s="566"/>
+      <c r="AA157" s="571"/>
+      <c r="AB157" s="571"/>
+      <c r="AC157" s="571"/>
+      <c r="AD157" s="571"/>
+      <c r="AE157" s="571"/>
+      <c r="AF157" s="571"/>
+      <c r="AG157" s="571"/>
+      <c r="AH157" s="571"/>
     </row>
     <row r="158" spans="3:34" x14ac:dyDescent="0.15">
-      <c r="D158" s="547"/>
-      <c r="E158" s="517"/>
-      <c r="F158" s="550"/>
-      <c r="G158" s="550"/>
-      <c r="H158" s="550"/>
-      <c r="I158" s="550"/>
-      <c r="J158" s="551"/>
-      <c r="K158" s="563"/>
-      <c r="L158" s="563"/>
-      <c r="M158" s="563"/>
-      <c r="N158" s="563"/>
-      <c r="O158" s="563"/>
-      <c r="P158" s="563"/>
-      <c r="Q158" s="563"/>
-      <c r="R158" s="563"/>
-      <c r="S158" s="563"/>
-      <c r="T158" s="563"/>
-      <c r="U158" s="563"/>
-      <c r="V158" s="563"/>
-      <c r="W158" s="563"/>
-      <c r="X158" s="563"/>
-      <c r="Y158" s="563"/>
-      <c r="Z158" s="563"/>
-      <c r="AA158" s="569"/>
-      <c r="AB158" s="569"/>
-      <c r="AC158" s="569"/>
-      <c r="AD158" s="569"/>
-      <c r="AE158" s="569"/>
-      <c r="AF158" s="569"/>
-      <c r="AG158" s="569"/>
-      <c r="AH158" s="569"/>
+      <c r="D158" s="532"/>
+      <c r="E158" s="535"/>
+      <c r="F158" s="536"/>
+      <c r="G158" s="536"/>
+      <c r="H158" s="536"/>
+      <c r="I158" s="536"/>
+      <c r="J158" s="537"/>
+      <c r="K158" s="566"/>
+      <c r="L158" s="566"/>
+      <c r="M158" s="566"/>
+      <c r="N158" s="566"/>
+      <c r="O158" s="566"/>
+      <c r="P158" s="566"/>
+      <c r="Q158" s="566"/>
+      <c r="R158" s="566"/>
+      <c r="S158" s="566"/>
+      <c r="T158" s="566"/>
+      <c r="U158" s="566"/>
+      <c r="V158" s="566"/>
+      <c r="W158" s="566"/>
+      <c r="X158" s="566"/>
+      <c r="Y158" s="566"/>
+      <c r="Z158" s="566"/>
+      <c r="AA158" s="571"/>
+      <c r="AB158" s="571"/>
+      <c r="AC158" s="571"/>
+      <c r="AD158" s="571"/>
+      <c r="AE158" s="571"/>
+      <c r="AF158" s="571"/>
+      <c r="AG158" s="571"/>
+      <c r="AH158" s="571"/>
     </row>
     <row r="159" spans="3:34" x14ac:dyDescent="0.15">
-      <c r="D159" s="547"/>
-      <c r="E159" s="517"/>
-      <c r="F159" s="550"/>
-      <c r="G159" s="550"/>
-      <c r="H159" s="550"/>
-      <c r="I159" s="550"/>
-      <c r="J159" s="551"/>
-      <c r="K159" s="563"/>
-      <c r="L159" s="563"/>
-      <c r="M159" s="563"/>
-      <c r="N159" s="563"/>
-      <c r="O159" s="563"/>
-      <c r="P159" s="563"/>
-      <c r="Q159" s="563"/>
-      <c r="R159" s="563"/>
-      <c r="S159" s="563"/>
-      <c r="T159" s="563"/>
-      <c r="U159" s="563"/>
-      <c r="V159" s="563"/>
-      <c r="W159" s="563"/>
-      <c r="X159" s="563"/>
-      <c r="Y159" s="563"/>
-      <c r="Z159" s="563"/>
-      <c r="AA159" s="569"/>
-      <c r="AB159" s="569"/>
-      <c r="AC159" s="569"/>
-      <c r="AD159" s="569"/>
-      <c r="AE159" s="569"/>
-      <c r="AF159" s="569"/>
-      <c r="AG159" s="569"/>
-      <c r="AH159" s="569"/>
+      <c r="D159" s="532"/>
+      <c r="E159" s="535"/>
+      <c r="F159" s="536"/>
+      <c r="G159" s="536"/>
+      <c r="H159" s="536"/>
+      <c r="I159" s="536"/>
+      <c r="J159" s="537"/>
+      <c r="K159" s="566"/>
+      <c r="L159" s="566"/>
+      <c r="M159" s="566"/>
+      <c r="N159" s="566"/>
+      <c r="O159" s="566"/>
+      <c r="P159" s="566"/>
+      <c r="Q159" s="566"/>
+      <c r="R159" s="566"/>
+      <c r="S159" s="566"/>
+      <c r="T159" s="566"/>
+      <c r="U159" s="566"/>
+      <c r="V159" s="566"/>
+      <c r="W159" s="566"/>
+      <c r="X159" s="566"/>
+      <c r="Y159" s="566"/>
+      <c r="Z159" s="566"/>
+      <c r="AA159" s="571"/>
+      <c r="AB159" s="571"/>
+      <c r="AC159" s="571"/>
+      <c r="AD159" s="571"/>
+      <c r="AE159" s="571"/>
+      <c r="AF159" s="571"/>
+      <c r="AG159" s="571"/>
+      <c r="AH159" s="571"/>
     </row>
     <row r="160" spans="3:34" x14ac:dyDescent="0.15">
-      <c r="D160" s="547"/>
-      <c r="E160" s="517"/>
-      <c r="F160" s="550"/>
-      <c r="G160" s="550"/>
-      <c r="H160" s="550"/>
-      <c r="I160" s="550"/>
-      <c r="J160" s="551"/>
-      <c r="K160" s="563"/>
-      <c r="L160" s="563"/>
-      <c r="M160" s="563"/>
-      <c r="N160" s="563"/>
-      <c r="O160" s="563"/>
-      <c r="P160" s="563"/>
-      <c r="Q160" s="563"/>
-      <c r="R160" s="563"/>
-      <c r="S160" s="563"/>
-      <c r="T160" s="563"/>
-      <c r="U160" s="563"/>
-      <c r="V160" s="563"/>
-      <c r="W160" s="563"/>
-      <c r="X160" s="563"/>
-      <c r="Y160" s="563"/>
-      <c r="Z160" s="563"/>
-      <c r="AA160" s="569"/>
-      <c r="AB160" s="569"/>
-      <c r="AC160" s="569"/>
-      <c r="AD160" s="569"/>
-      <c r="AE160" s="569"/>
-      <c r="AF160" s="569"/>
-      <c r="AG160" s="569"/>
-      <c r="AH160" s="569"/>
+      <c r="D160" s="532"/>
+      <c r="E160" s="535"/>
+      <c r="F160" s="536"/>
+      <c r="G160" s="536"/>
+      <c r="H160" s="536"/>
+      <c r="I160" s="536"/>
+      <c r="J160" s="537"/>
+      <c r="K160" s="566"/>
+      <c r="L160" s="566"/>
+      <c r="M160" s="566"/>
+      <c r="N160" s="566"/>
+      <c r="O160" s="566"/>
+      <c r="P160" s="566"/>
+      <c r="Q160" s="566"/>
+      <c r="R160" s="566"/>
+      <c r="S160" s="566"/>
+      <c r="T160" s="566"/>
+      <c r="U160" s="566"/>
+      <c r="V160" s="566"/>
+      <c r="W160" s="566"/>
+      <c r="X160" s="566"/>
+      <c r="Y160" s="566"/>
+      <c r="Z160" s="566"/>
+      <c r="AA160" s="571"/>
+      <c r="AB160" s="571"/>
+      <c r="AC160" s="571"/>
+      <c r="AD160" s="571"/>
+      <c r="AE160" s="571"/>
+      <c r="AF160" s="571"/>
+      <c r="AG160" s="571"/>
+      <c r="AH160" s="571"/>
     </row>
     <row r="161" spans="1:34" x14ac:dyDescent="0.15">
-      <c r="D161" s="547"/>
-      <c r="E161" s="517"/>
-      <c r="F161" s="550"/>
-      <c r="G161" s="550"/>
-      <c r="H161" s="550"/>
-      <c r="I161" s="550"/>
-      <c r="J161" s="551"/>
-      <c r="K161" s="609" t="s">
+      <c r="D161" s="532"/>
+      <c r="E161" s="535"/>
+      <c r="F161" s="536"/>
+      <c r="G161" s="536"/>
+      <c r="H161" s="536"/>
+      <c r="I161" s="536"/>
+      <c r="J161" s="537"/>
+      <c r="K161" s="565" t="s">
         <v>663</v>
       </c>
-      <c r="L161" s="563"/>
-      <c r="M161" s="563"/>
-      <c r="N161" s="563"/>
-      <c r="O161" s="563"/>
-      <c r="P161" s="563"/>
-      <c r="Q161" s="563"/>
-      <c r="R161" s="563"/>
-      <c r="S161" s="563"/>
-      <c r="T161" s="563"/>
-      <c r="U161" s="563"/>
-      <c r="V161" s="563"/>
-      <c r="W161" s="563"/>
-      <c r="X161" s="563"/>
-      <c r="Y161" s="563"/>
-      <c r="Z161" s="563"/>
-      <c r="AA161" s="554" t="s">
+      <c r="L161" s="566"/>
+      <c r="M161" s="566"/>
+      <c r="N161" s="566"/>
+      <c r="O161" s="566"/>
+      <c r="P161" s="566"/>
+      <c r="Q161" s="566"/>
+      <c r="R161" s="566"/>
+      <c r="S161" s="566"/>
+      <c r="T161" s="566"/>
+      <c r="U161" s="566"/>
+      <c r="V161" s="566"/>
+      <c r="W161" s="566"/>
+      <c r="X161" s="566"/>
+      <c r="Y161" s="566"/>
+      <c r="Z161" s="566"/>
+      <c r="AA161" s="540" t="s">
         <v>77</v>
       </c>
-      <c r="AB161" s="555"/>
-      <c r="AC161" s="555"/>
-      <c r="AD161" s="555"/>
-      <c r="AE161" s="555"/>
-      <c r="AF161" s="555"/>
-      <c r="AG161" s="555"/>
-      <c r="AH161" s="555"/>
+      <c r="AB161" s="541"/>
+      <c r="AC161" s="541"/>
+      <c r="AD161" s="541"/>
+      <c r="AE161" s="541"/>
+      <c r="AF161" s="541"/>
+      <c r="AG161" s="541"/>
+      <c r="AH161" s="541"/>
     </row>
     <row r="162" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D162" s="547"/>
-      <c r="E162" s="517" t="s">
+      <c r="D162" s="532"/>
+      <c r="E162" s="535" t="s">
         <v>345</v>
       </c>
-      <c r="F162" s="550"/>
-      <c r="G162" s="550"/>
-      <c r="H162" s="550"/>
-      <c r="I162" s="550"/>
-      <c r="J162" s="551"/>
-      <c r="K162" s="517" t="s">
+      <c r="F162" s="536"/>
+      <c r="G162" s="536"/>
+      <c r="H162" s="536"/>
+      <c r="I162" s="536"/>
+      <c r="J162" s="537"/>
+      <c r="K162" s="535" t="s">
         <v>662</v>
       </c>
-      <c r="L162" s="550"/>
-      <c r="M162" s="550"/>
-      <c r="N162" s="550"/>
-      <c r="O162" s="550"/>
-      <c r="P162" s="550"/>
-      <c r="Q162" s="550"/>
-      <c r="R162" s="550"/>
-      <c r="S162" s="550"/>
-      <c r="T162" s="550"/>
-      <c r="U162" s="550"/>
-      <c r="V162" s="550"/>
-      <c r="W162" s="550"/>
-      <c r="X162" s="550"/>
-      <c r="Y162" s="550"/>
-      <c r="Z162" s="551"/>
-      <c r="AA162" s="555" t="s">
+      <c r="L162" s="536"/>
+      <c r="M162" s="536"/>
+      <c r="N162" s="536"/>
+      <c r="O162" s="536"/>
+      <c r="P162" s="536"/>
+      <c r="Q162" s="536"/>
+      <c r="R162" s="536"/>
+      <c r="S162" s="536"/>
+      <c r="T162" s="536"/>
+      <c r="U162" s="536"/>
+      <c r="V162" s="536"/>
+      <c r="W162" s="536"/>
+      <c r="X162" s="536"/>
+      <c r="Y162" s="536"/>
+      <c r="Z162" s="537"/>
+      <c r="AA162" s="541" t="s">
         <v>73</v>
       </c>
-      <c r="AB162" s="555"/>
-      <c r="AC162" s="555"/>
-      <c r="AD162" s="555"/>
-      <c r="AE162" s="555"/>
-      <c r="AF162" s="555"/>
-      <c r="AG162" s="555"/>
-      <c r="AH162" s="555"/>
+      <c r="AB162" s="541"/>
+      <c r="AC162" s="541"/>
+      <c r="AD162" s="541"/>
+      <c r="AE162" s="541"/>
+      <c r="AF162" s="541"/>
+      <c r="AG162" s="541"/>
+      <c r="AH162" s="541"/>
     </row>
     <row r="163" spans="1:34" x14ac:dyDescent="0.15">
-      <c r="D163" s="548"/>
-      <c r="E163" s="517"/>
-      <c r="F163" s="550"/>
-      <c r="G163" s="550"/>
-      <c r="H163" s="550"/>
-      <c r="I163" s="550"/>
-      <c r="J163" s="551"/>
-      <c r="K163" s="567"/>
-      <c r="L163" s="567"/>
-      <c r="M163" s="567"/>
-      <c r="N163" s="567"/>
-      <c r="O163" s="567"/>
-      <c r="P163" s="567"/>
-      <c r="Q163" s="567"/>
-      <c r="R163" s="567"/>
-      <c r="S163" s="567"/>
-      <c r="T163" s="567"/>
-      <c r="U163" s="567"/>
-      <c r="V163" s="567"/>
-      <c r="W163" s="567"/>
-      <c r="X163" s="567"/>
-      <c r="Y163" s="567"/>
-      <c r="Z163" s="567"/>
-      <c r="AA163" s="555"/>
-      <c r="AB163" s="555"/>
-      <c r="AC163" s="555"/>
-      <c r="AD163" s="555"/>
-      <c r="AE163" s="555"/>
-      <c r="AF163" s="555"/>
-      <c r="AG163" s="555"/>
-      <c r="AH163" s="555"/>
+      <c r="D163" s="533"/>
+      <c r="E163" s="535"/>
+      <c r="F163" s="536"/>
+      <c r="G163" s="536"/>
+      <c r="H163" s="536"/>
+      <c r="I163" s="536"/>
+      <c r="J163" s="537"/>
+      <c r="K163" s="575"/>
+      <c r="L163" s="575"/>
+      <c r="M163" s="575"/>
+      <c r="N163" s="575"/>
+      <c r="O163" s="575"/>
+      <c r="P163" s="575"/>
+      <c r="Q163" s="575"/>
+      <c r="R163" s="575"/>
+      <c r="S163" s="575"/>
+      <c r="T163" s="575"/>
+      <c r="U163" s="575"/>
+      <c r="V163" s="575"/>
+      <c r="W163" s="575"/>
+      <c r="X163" s="575"/>
+      <c r="Y163" s="575"/>
+      <c r="Z163" s="575"/>
+      <c r="AA163" s="541"/>
+      <c r="AB163" s="541"/>
+      <c r="AC163" s="541"/>
+      <c r="AD163" s="541"/>
+      <c r="AE163" s="541"/>
+      <c r="AF163" s="541"/>
+      <c r="AG163" s="541"/>
+      <c r="AH163" s="541"/>
     </row>
     <row r="164" spans="1:34" s="96" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D164" s="94"/>
@@ -46173,837 +46053,837 @@
     </row>
     <row r="174" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A174" s="50"/>
-      <c r="F174" s="581" t="s">
+      <c r="F174" s="586" t="s">
         <v>44</v>
       </c>
-      <c r="G174" s="552"/>
-      <c r="H174" s="552"/>
-      <c r="I174" s="552"/>
-      <c r="J174" s="553"/>
-      <c r="K174" s="584" t="s">
+      <c r="G174" s="538"/>
+      <c r="H174" s="538"/>
+      <c r="I174" s="538"/>
+      <c r="J174" s="539"/>
+      <c r="K174" s="563" t="s">
         <v>30</v>
       </c>
-      <c r="L174" s="585"/>
-      <c r="M174" s="584" t="s">
+      <c r="L174" s="564"/>
+      <c r="M174" s="563" t="s">
         <v>46</v>
       </c>
-      <c r="N174" s="585"/>
-      <c r="O174" s="581" t="s">
+      <c r="N174" s="564"/>
+      <c r="O174" s="586" t="s">
         <v>45</v>
       </c>
-      <c r="P174" s="552"/>
-      <c r="Q174" s="552"/>
-      <c r="R174" s="552"/>
-      <c r="S174" s="552"/>
-      <c r="T174" s="552"/>
-      <c r="U174" s="552"/>
-      <c r="V174" s="552"/>
-      <c r="W174" s="552"/>
-      <c r="X174" s="552"/>
-      <c r="Y174" s="552"/>
-      <c r="Z174" s="552"/>
-      <c r="AA174" s="552"/>
-      <c r="AB174" s="552"/>
-      <c r="AC174" s="552"/>
-      <c r="AD174" s="552"/>
-      <c r="AE174" s="552"/>
-      <c r="AF174" s="552"/>
-      <c r="AG174" s="552"/>
-      <c r="AH174" s="553"/>
+      <c r="P174" s="538"/>
+      <c r="Q174" s="538"/>
+      <c r="R174" s="538"/>
+      <c r="S174" s="538"/>
+      <c r="T174" s="538"/>
+      <c r="U174" s="538"/>
+      <c r="V174" s="538"/>
+      <c r="W174" s="538"/>
+      <c r="X174" s="538"/>
+      <c r="Y174" s="538"/>
+      <c r="Z174" s="538"/>
+      <c r="AA174" s="538"/>
+      <c r="AB174" s="538"/>
+      <c r="AC174" s="538"/>
+      <c r="AD174" s="538"/>
+      <c r="AE174" s="538"/>
+      <c r="AF174" s="538"/>
+      <c r="AG174" s="538"/>
+      <c r="AH174" s="539"/>
     </row>
     <row r="175" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A175" s="50"/>
-      <c r="F175" s="532" t="s">
+      <c r="F175" s="516" t="s">
         <v>307</v>
       </c>
-      <c r="G175" s="449"/>
-      <c r="H175" s="449"/>
-      <c r="I175" s="449"/>
-      <c r="J175" s="450"/>
-      <c r="K175" s="562" t="s">
+      <c r="G175" s="461"/>
+      <c r="H175" s="461"/>
+      <c r="I175" s="461"/>
+      <c r="J175" s="462"/>
+      <c r="K175" s="560" t="s">
         <v>32</v>
       </c>
-      <c r="L175" s="489"/>
-      <c r="M175" s="520" t="s">
+      <c r="L175" s="501"/>
+      <c r="M175" s="544" t="s">
         <v>324</v>
       </c>
-      <c r="N175" s="521"/>
-      <c r="O175" s="451" t="s">
+      <c r="N175" s="557"/>
+      <c r="O175" s="463" t="s">
         <v>329</v>
       </c>
-      <c r="P175" s="582"/>
-      <c r="Q175" s="582"/>
-      <c r="R175" s="582"/>
-      <c r="S175" s="582"/>
-      <c r="T175" s="582"/>
-      <c r="U175" s="582"/>
-      <c r="V175" s="582"/>
-      <c r="W175" s="582"/>
-      <c r="X175" s="582"/>
-      <c r="Y175" s="582"/>
-      <c r="Z175" s="582"/>
-      <c r="AA175" s="582"/>
-      <c r="AB175" s="582"/>
-      <c r="AC175" s="582"/>
-      <c r="AD175" s="582"/>
-      <c r="AE175" s="582"/>
-      <c r="AF175" s="582"/>
-      <c r="AG175" s="582"/>
-      <c r="AH175" s="583"/>
+      <c r="P175" s="587"/>
+      <c r="Q175" s="587"/>
+      <c r="R175" s="587"/>
+      <c r="S175" s="587"/>
+      <c r="T175" s="587"/>
+      <c r="U175" s="587"/>
+      <c r="V175" s="587"/>
+      <c r="W175" s="587"/>
+      <c r="X175" s="587"/>
+      <c r="Y175" s="587"/>
+      <c r="Z175" s="587"/>
+      <c r="AA175" s="587"/>
+      <c r="AB175" s="587"/>
+      <c r="AC175" s="587"/>
+      <c r="AD175" s="587"/>
+      <c r="AE175" s="587"/>
+      <c r="AF175" s="587"/>
+      <c r="AG175" s="587"/>
+      <c r="AH175" s="588"/>
     </row>
     <row r="176" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A176" s="50"/>
-      <c r="F176" s="487" t="s">
+      <c r="F176" s="499" t="s">
         <v>325</v>
       </c>
-      <c r="G176" s="488"/>
-      <c r="H176" s="488"/>
-      <c r="I176" s="488"/>
-      <c r="J176" s="489"/>
-      <c r="K176" s="562" t="s">
+      <c r="G176" s="500"/>
+      <c r="H176" s="500"/>
+      <c r="I176" s="500"/>
+      <c r="J176" s="501"/>
+      <c r="K176" s="560" t="s">
         <v>47</v>
       </c>
-      <c r="L176" s="489"/>
-      <c r="M176" s="508" t="s">
+      <c r="L176" s="501"/>
+      <c r="M176" s="519" t="s">
         <v>361</v>
       </c>
-      <c r="N176" s="513"/>
-      <c r="O176" s="487" t="s">
+      <c r="N176" s="558"/>
+      <c r="O176" s="499" t="s">
         <v>328</v>
       </c>
-      <c r="P176" s="488"/>
-      <c r="Q176" s="488"/>
-      <c r="R176" s="488"/>
-      <c r="S176" s="488"/>
-      <c r="T176" s="488"/>
-      <c r="U176" s="488"/>
-      <c r="V176" s="488"/>
-      <c r="W176" s="488"/>
-      <c r="X176" s="488"/>
-      <c r="Y176" s="488"/>
-      <c r="Z176" s="488"/>
-      <c r="AA176" s="488"/>
-      <c r="AB176" s="488"/>
-      <c r="AC176" s="488"/>
-      <c r="AD176" s="488"/>
-      <c r="AE176" s="488"/>
-      <c r="AF176" s="488"/>
-      <c r="AG176" s="488"/>
-      <c r="AH176" s="489"/>
+      <c r="P176" s="500"/>
+      <c r="Q176" s="500"/>
+      <c r="R176" s="500"/>
+      <c r="S176" s="500"/>
+      <c r="T176" s="500"/>
+      <c r="U176" s="500"/>
+      <c r="V176" s="500"/>
+      <c r="W176" s="500"/>
+      <c r="X176" s="500"/>
+      <c r="Y176" s="500"/>
+      <c r="Z176" s="500"/>
+      <c r="AA176" s="500"/>
+      <c r="AB176" s="500"/>
+      <c r="AC176" s="500"/>
+      <c r="AD176" s="500"/>
+      <c r="AE176" s="500"/>
+      <c r="AF176" s="500"/>
+      <c r="AG176" s="500"/>
+      <c r="AH176" s="501"/>
     </row>
     <row r="177" spans="1:34" s="99" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A177" s="50"/>
-      <c r="F177" s="496"/>
-      <c r="G177" s="491"/>
-      <c r="H177" s="491"/>
-      <c r="I177" s="491"/>
-      <c r="J177" s="492"/>
-      <c r="K177" s="490"/>
-      <c r="L177" s="492"/>
-      <c r="M177" s="525"/>
-      <c r="N177" s="524"/>
-      <c r="O177" s="496"/>
-      <c r="P177" s="491"/>
-      <c r="Q177" s="491"/>
-      <c r="R177" s="491"/>
-      <c r="S177" s="491"/>
-      <c r="T177" s="491"/>
-      <c r="U177" s="491"/>
-      <c r="V177" s="491"/>
-      <c r="W177" s="491"/>
-      <c r="X177" s="491"/>
-      <c r="Y177" s="491"/>
-      <c r="Z177" s="491"/>
-      <c r="AA177" s="491"/>
-      <c r="AB177" s="491"/>
-      <c r="AC177" s="491"/>
-      <c r="AD177" s="491"/>
-      <c r="AE177" s="491"/>
-      <c r="AF177" s="491"/>
-      <c r="AG177" s="491"/>
-      <c r="AH177" s="492"/>
+      <c r="F177" s="508"/>
+      <c r="G177" s="503"/>
+      <c r="H177" s="503"/>
+      <c r="I177" s="503"/>
+      <c r="J177" s="504"/>
+      <c r="K177" s="502"/>
+      <c r="L177" s="504"/>
+      <c r="M177" s="559"/>
+      <c r="N177" s="549"/>
+      <c r="O177" s="508"/>
+      <c r="P177" s="503"/>
+      <c r="Q177" s="503"/>
+      <c r="R177" s="503"/>
+      <c r="S177" s="503"/>
+      <c r="T177" s="503"/>
+      <c r="U177" s="503"/>
+      <c r="V177" s="503"/>
+      <c r="W177" s="503"/>
+      <c r="X177" s="503"/>
+      <c r="Y177" s="503"/>
+      <c r="Z177" s="503"/>
+      <c r="AA177" s="503"/>
+      <c r="AB177" s="503"/>
+      <c r="AC177" s="503"/>
+      <c r="AD177" s="503"/>
+      <c r="AE177" s="503"/>
+      <c r="AF177" s="503"/>
+      <c r="AG177" s="503"/>
+      <c r="AH177" s="504"/>
     </row>
     <row r="178" spans="1:34" s="99" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A178" s="50"/>
-      <c r="F178" s="496"/>
-      <c r="G178" s="491"/>
-      <c r="H178" s="491"/>
-      <c r="I178" s="491"/>
-      <c r="J178" s="492"/>
-      <c r="K178" s="490"/>
-      <c r="L178" s="492"/>
-      <c r="M178" s="525"/>
-      <c r="N178" s="524"/>
-      <c r="O178" s="496"/>
-      <c r="P178" s="491"/>
-      <c r="Q178" s="491"/>
-      <c r="R178" s="491"/>
-      <c r="S178" s="491"/>
-      <c r="T178" s="491"/>
-      <c r="U178" s="491"/>
-      <c r="V178" s="491"/>
-      <c r="W178" s="491"/>
-      <c r="X178" s="491"/>
-      <c r="Y178" s="491"/>
-      <c r="Z178" s="491"/>
-      <c r="AA178" s="491"/>
-      <c r="AB178" s="491"/>
-      <c r="AC178" s="491"/>
-      <c r="AD178" s="491"/>
-      <c r="AE178" s="491"/>
-      <c r="AF178" s="491"/>
-      <c r="AG178" s="491"/>
-      <c r="AH178" s="492"/>
+      <c r="F178" s="508"/>
+      <c r="G178" s="503"/>
+      <c r="H178" s="503"/>
+      <c r="I178" s="503"/>
+      <c r="J178" s="504"/>
+      <c r="K178" s="502"/>
+      <c r="L178" s="504"/>
+      <c r="M178" s="559"/>
+      <c r="N178" s="549"/>
+      <c r="O178" s="508"/>
+      <c r="P178" s="503"/>
+      <c r="Q178" s="503"/>
+      <c r="R178" s="503"/>
+      <c r="S178" s="503"/>
+      <c r="T178" s="503"/>
+      <c r="U178" s="503"/>
+      <c r="V178" s="503"/>
+      <c r="W178" s="503"/>
+      <c r="X178" s="503"/>
+      <c r="Y178" s="503"/>
+      <c r="Z178" s="503"/>
+      <c r="AA178" s="503"/>
+      <c r="AB178" s="503"/>
+      <c r="AC178" s="503"/>
+      <c r="AD178" s="503"/>
+      <c r="AE178" s="503"/>
+      <c r="AF178" s="503"/>
+      <c r="AG178" s="503"/>
+      <c r="AH178" s="504"/>
     </row>
     <row r="179" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A179" s="50"/>
-      <c r="F179" s="493"/>
-      <c r="G179" s="494"/>
-      <c r="H179" s="494"/>
-      <c r="I179" s="494"/>
-      <c r="J179" s="495"/>
-      <c r="K179" s="493"/>
-      <c r="L179" s="495"/>
-      <c r="M179" s="514"/>
-      <c r="N179" s="516"/>
-      <c r="O179" s="493"/>
-      <c r="P179" s="494"/>
-      <c r="Q179" s="494"/>
-      <c r="R179" s="494"/>
-      <c r="S179" s="494"/>
-      <c r="T179" s="494"/>
-      <c r="U179" s="494"/>
-      <c r="V179" s="494"/>
-      <c r="W179" s="494"/>
-      <c r="X179" s="494"/>
-      <c r="Y179" s="494"/>
-      <c r="Z179" s="494"/>
-      <c r="AA179" s="494"/>
-      <c r="AB179" s="494"/>
-      <c r="AC179" s="494"/>
-      <c r="AD179" s="494"/>
-      <c r="AE179" s="494"/>
-      <c r="AF179" s="494"/>
-      <c r="AG179" s="494"/>
-      <c r="AH179" s="495"/>
+      <c r="F179" s="505"/>
+      <c r="G179" s="506"/>
+      <c r="H179" s="506"/>
+      <c r="I179" s="506"/>
+      <c r="J179" s="507"/>
+      <c r="K179" s="505"/>
+      <c r="L179" s="507"/>
+      <c r="M179" s="550"/>
+      <c r="N179" s="552"/>
+      <c r="O179" s="505"/>
+      <c r="P179" s="506"/>
+      <c r="Q179" s="506"/>
+      <c r="R179" s="506"/>
+      <c r="S179" s="506"/>
+      <c r="T179" s="506"/>
+      <c r="U179" s="506"/>
+      <c r="V179" s="506"/>
+      <c r="W179" s="506"/>
+      <c r="X179" s="506"/>
+      <c r="Y179" s="506"/>
+      <c r="Z179" s="506"/>
+      <c r="AA179" s="506"/>
+      <c r="AB179" s="506"/>
+      <c r="AC179" s="506"/>
+      <c r="AD179" s="506"/>
+      <c r="AE179" s="506"/>
+      <c r="AF179" s="506"/>
+      <c r="AG179" s="506"/>
+      <c r="AH179" s="507"/>
     </row>
     <row r="180" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A180" s="50"/>
-      <c r="F180" s="562" t="s">
+      <c r="F180" s="560" t="s">
         <v>48</v>
       </c>
-      <c r="G180" s="488"/>
-      <c r="H180" s="488"/>
-      <c r="I180" s="488"/>
-      <c r="J180" s="489"/>
-      <c r="K180" s="562" t="s">
+      <c r="G180" s="500"/>
+      <c r="H180" s="500"/>
+      <c r="I180" s="500"/>
+      <c r="J180" s="501"/>
+      <c r="K180" s="560" t="s">
         <v>47</v>
       </c>
-      <c r="L180" s="489"/>
-      <c r="M180" s="562" t="s">
+      <c r="L180" s="501"/>
+      <c r="M180" s="560" t="s">
         <v>49</v>
       </c>
-      <c r="N180" s="513"/>
-      <c r="O180" s="508" t="s">
+      <c r="N180" s="558"/>
+      <c r="O180" s="519" t="s">
         <v>332</v>
       </c>
-      <c r="P180" s="535"/>
-      <c r="Q180" s="535"/>
-      <c r="R180" s="535"/>
-      <c r="S180" s="535"/>
-      <c r="T180" s="535"/>
-      <c r="U180" s="535"/>
-      <c r="V180" s="535"/>
-      <c r="W180" s="535"/>
-      <c r="X180" s="535"/>
-      <c r="Y180" s="535"/>
-      <c r="Z180" s="535"/>
-      <c r="AA180" s="535"/>
-      <c r="AB180" s="535"/>
-      <c r="AC180" s="535"/>
-      <c r="AD180" s="535"/>
-      <c r="AE180" s="535"/>
-      <c r="AF180" s="535"/>
-      <c r="AG180" s="535"/>
-      <c r="AH180" s="536"/>
+      <c r="P180" s="520"/>
+      <c r="Q180" s="520"/>
+      <c r="R180" s="520"/>
+      <c r="S180" s="520"/>
+      <c r="T180" s="520"/>
+      <c r="U180" s="520"/>
+      <c r="V180" s="520"/>
+      <c r="W180" s="520"/>
+      <c r="X180" s="520"/>
+      <c r="Y180" s="520"/>
+      <c r="Z180" s="520"/>
+      <c r="AA180" s="520"/>
+      <c r="AB180" s="520"/>
+      <c r="AC180" s="520"/>
+      <c r="AD180" s="520"/>
+      <c r="AE180" s="520"/>
+      <c r="AF180" s="520"/>
+      <c r="AG180" s="520"/>
+      <c r="AH180" s="521"/>
     </row>
     <row r="181" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A181" s="50"/>
-      <c r="F181" s="487" t="s">
+      <c r="F181" s="499" t="s">
         <v>308</v>
       </c>
-      <c r="G181" s="488"/>
-      <c r="H181" s="488"/>
-      <c r="I181" s="488"/>
-      <c r="J181" s="489"/>
-      <c r="K181" s="562" t="s">
+      <c r="G181" s="500"/>
+      <c r="H181" s="500"/>
+      <c r="I181" s="500"/>
+      <c r="J181" s="501"/>
+      <c r="K181" s="560" t="s">
         <v>47</v>
       </c>
-      <c r="L181" s="489"/>
-      <c r="M181" s="562" t="s">
+      <c r="L181" s="501"/>
+      <c r="M181" s="560" t="s">
         <v>78</v>
       </c>
-      <c r="N181" s="513"/>
-      <c r="O181" s="508" t="s">
+      <c r="N181" s="558"/>
+      <c r="O181" s="519" t="s">
         <v>333</v>
       </c>
-      <c r="P181" s="535"/>
-      <c r="Q181" s="535"/>
-      <c r="R181" s="535"/>
-      <c r="S181" s="535"/>
-      <c r="T181" s="535"/>
-      <c r="U181" s="535"/>
-      <c r="V181" s="535"/>
-      <c r="W181" s="535"/>
-      <c r="X181" s="535"/>
-      <c r="Y181" s="535"/>
-      <c r="Z181" s="535"/>
-      <c r="AA181" s="535"/>
-      <c r="AB181" s="535"/>
-      <c r="AC181" s="535"/>
-      <c r="AD181" s="535"/>
-      <c r="AE181" s="535"/>
-      <c r="AF181" s="535"/>
-      <c r="AG181" s="535"/>
-      <c r="AH181" s="536"/>
+      <c r="P181" s="520"/>
+      <c r="Q181" s="520"/>
+      <c r="R181" s="520"/>
+      <c r="S181" s="520"/>
+      <c r="T181" s="520"/>
+      <c r="U181" s="520"/>
+      <c r="V181" s="520"/>
+      <c r="W181" s="520"/>
+      <c r="X181" s="520"/>
+      <c r="Y181" s="520"/>
+      <c r="Z181" s="520"/>
+      <c r="AA181" s="520"/>
+      <c r="AB181" s="520"/>
+      <c r="AC181" s="520"/>
+      <c r="AD181" s="520"/>
+      <c r="AE181" s="520"/>
+      <c r="AF181" s="520"/>
+      <c r="AG181" s="520"/>
+      <c r="AH181" s="521"/>
     </row>
     <row r="182" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A182" s="50"/>
-      <c r="F182" s="522"/>
-      <c r="G182" s="523"/>
-      <c r="H182" s="523"/>
-      <c r="I182" s="523"/>
-      <c r="J182" s="524"/>
-      <c r="K182" s="490"/>
-      <c r="L182" s="492"/>
-      <c r="M182" s="522"/>
-      <c r="N182" s="524"/>
-      <c r="O182" s="522"/>
-      <c r="P182" s="523"/>
-      <c r="Q182" s="523"/>
-      <c r="R182" s="523"/>
-      <c r="S182" s="523"/>
-      <c r="T182" s="523"/>
-      <c r="U182" s="523"/>
-      <c r="V182" s="523"/>
-      <c r="W182" s="523"/>
-      <c r="X182" s="523"/>
-      <c r="Y182" s="523"/>
-      <c r="Z182" s="523"/>
-      <c r="AA182" s="523"/>
-      <c r="AB182" s="523"/>
-      <c r="AC182" s="523"/>
-      <c r="AD182" s="523"/>
-      <c r="AE182" s="523"/>
-      <c r="AF182" s="523"/>
-      <c r="AG182" s="523"/>
-      <c r="AH182" s="524"/>
+      <c r="F182" s="547"/>
+      <c r="G182" s="548"/>
+      <c r="H182" s="548"/>
+      <c r="I182" s="548"/>
+      <c r="J182" s="549"/>
+      <c r="K182" s="502"/>
+      <c r="L182" s="504"/>
+      <c r="M182" s="547"/>
+      <c r="N182" s="549"/>
+      <c r="O182" s="547"/>
+      <c r="P182" s="548"/>
+      <c r="Q182" s="548"/>
+      <c r="R182" s="548"/>
+      <c r="S182" s="548"/>
+      <c r="T182" s="548"/>
+      <c r="U182" s="548"/>
+      <c r="V182" s="548"/>
+      <c r="W182" s="548"/>
+      <c r="X182" s="548"/>
+      <c r="Y182" s="548"/>
+      <c r="Z182" s="548"/>
+      <c r="AA182" s="548"/>
+      <c r="AB182" s="548"/>
+      <c r="AC182" s="548"/>
+      <c r="AD182" s="548"/>
+      <c r="AE182" s="548"/>
+      <c r="AF182" s="548"/>
+      <c r="AG182" s="548"/>
+      <c r="AH182" s="549"/>
     </row>
     <row r="183" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A183" s="50"/>
-      <c r="F183" s="522"/>
-      <c r="G183" s="523"/>
-      <c r="H183" s="523"/>
-      <c r="I183" s="523"/>
-      <c r="J183" s="524"/>
-      <c r="K183" s="490"/>
-      <c r="L183" s="492"/>
-      <c r="M183" s="522"/>
-      <c r="N183" s="524"/>
-      <c r="O183" s="522"/>
-      <c r="P183" s="523"/>
-      <c r="Q183" s="523"/>
-      <c r="R183" s="523"/>
-      <c r="S183" s="523"/>
-      <c r="T183" s="523"/>
-      <c r="U183" s="523"/>
-      <c r="V183" s="523"/>
-      <c r="W183" s="523"/>
-      <c r="X183" s="523"/>
-      <c r="Y183" s="523"/>
-      <c r="Z183" s="523"/>
-      <c r="AA183" s="523"/>
-      <c r="AB183" s="523"/>
-      <c r="AC183" s="523"/>
-      <c r="AD183" s="523"/>
-      <c r="AE183" s="523"/>
-      <c r="AF183" s="523"/>
-      <c r="AG183" s="523"/>
-      <c r="AH183" s="524"/>
+      <c r="F183" s="547"/>
+      <c r="G183" s="548"/>
+      <c r="H183" s="548"/>
+      <c r="I183" s="548"/>
+      <c r="J183" s="549"/>
+      <c r="K183" s="502"/>
+      <c r="L183" s="504"/>
+      <c r="M183" s="547"/>
+      <c r="N183" s="549"/>
+      <c r="O183" s="547"/>
+      <c r="P183" s="548"/>
+      <c r="Q183" s="548"/>
+      <c r="R183" s="548"/>
+      <c r="S183" s="548"/>
+      <c r="T183" s="548"/>
+      <c r="U183" s="548"/>
+      <c r="V183" s="548"/>
+      <c r="W183" s="548"/>
+      <c r="X183" s="548"/>
+      <c r="Y183" s="548"/>
+      <c r="Z183" s="548"/>
+      <c r="AA183" s="548"/>
+      <c r="AB183" s="548"/>
+      <c r="AC183" s="548"/>
+      <c r="AD183" s="548"/>
+      <c r="AE183" s="548"/>
+      <c r="AF183" s="548"/>
+      <c r="AG183" s="548"/>
+      <c r="AH183" s="549"/>
     </row>
     <row r="184" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A184" s="50"/>
-      <c r="F184" s="514"/>
-      <c r="G184" s="515"/>
-      <c r="H184" s="515"/>
-      <c r="I184" s="515"/>
-      <c r="J184" s="516"/>
-      <c r="K184" s="493"/>
-      <c r="L184" s="495"/>
-      <c r="M184" s="514"/>
-      <c r="N184" s="516"/>
-      <c r="O184" s="514"/>
-      <c r="P184" s="515"/>
-      <c r="Q184" s="515"/>
-      <c r="R184" s="515"/>
-      <c r="S184" s="515"/>
-      <c r="T184" s="515"/>
-      <c r="U184" s="515"/>
-      <c r="V184" s="515"/>
-      <c r="W184" s="515"/>
-      <c r="X184" s="515"/>
-      <c r="Y184" s="515"/>
-      <c r="Z184" s="515"/>
-      <c r="AA184" s="515"/>
-      <c r="AB184" s="515"/>
-      <c r="AC184" s="515"/>
-      <c r="AD184" s="515"/>
-      <c r="AE184" s="515"/>
-      <c r="AF184" s="515"/>
-      <c r="AG184" s="515"/>
-      <c r="AH184" s="516"/>
+      <c r="F184" s="550"/>
+      <c r="G184" s="551"/>
+      <c r="H184" s="551"/>
+      <c r="I184" s="551"/>
+      <c r="J184" s="552"/>
+      <c r="K184" s="505"/>
+      <c r="L184" s="507"/>
+      <c r="M184" s="550"/>
+      <c r="N184" s="552"/>
+      <c r="O184" s="550"/>
+      <c r="P184" s="551"/>
+      <c r="Q184" s="551"/>
+      <c r="R184" s="551"/>
+      <c r="S184" s="551"/>
+      <c r="T184" s="551"/>
+      <c r="U184" s="551"/>
+      <c r="V184" s="551"/>
+      <c r="W184" s="551"/>
+      <c r="X184" s="551"/>
+      <c r="Y184" s="551"/>
+      <c r="Z184" s="551"/>
+      <c r="AA184" s="551"/>
+      <c r="AB184" s="551"/>
+      <c r="AC184" s="551"/>
+      <c r="AD184" s="551"/>
+      <c r="AE184" s="551"/>
+      <c r="AF184" s="551"/>
+      <c r="AG184" s="551"/>
+      <c r="AH184" s="552"/>
     </row>
     <row r="185" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A185" s="50"/>
-      <c r="F185" s="562" t="s">
+      <c r="F185" s="560" t="s">
         <v>38</v>
       </c>
-      <c r="G185" s="488"/>
-      <c r="H185" s="488"/>
-      <c r="I185" s="488"/>
-      <c r="J185" s="489"/>
-      <c r="K185" s="562" t="s">
+      <c r="G185" s="500"/>
+      <c r="H185" s="500"/>
+      <c r="I185" s="500"/>
+      <c r="J185" s="501"/>
+      <c r="K185" s="560" t="s">
         <v>35</v>
       </c>
-      <c r="L185" s="489"/>
-      <c r="M185" s="562" t="s">
+      <c r="L185" s="501"/>
+      <c r="M185" s="560" t="s">
         <v>49</v>
       </c>
-      <c r="N185" s="513"/>
-      <c r="O185" s="508" t="s">
+      <c r="N185" s="558"/>
+      <c r="O185" s="519" t="s">
         <v>531</v>
       </c>
-      <c r="P185" s="535"/>
-      <c r="Q185" s="535"/>
-      <c r="R185" s="535"/>
-      <c r="S185" s="535"/>
-      <c r="T185" s="535"/>
-      <c r="U185" s="535"/>
-      <c r="V185" s="535"/>
-      <c r="W185" s="535"/>
-      <c r="X185" s="535"/>
-      <c r="Y185" s="535"/>
-      <c r="Z185" s="535"/>
-      <c r="AA185" s="535"/>
-      <c r="AB185" s="535"/>
-      <c r="AC185" s="535"/>
-      <c r="AD185" s="535"/>
-      <c r="AE185" s="535"/>
-      <c r="AF185" s="535"/>
-      <c r="AG185" s="535"/>
-      <c r="AH185" s="536"/>
+      <c r="P185" s="520"/>
+      <c r="Q185" s="520"/>
+      <c r="R185" s="520"/>
+      <c r="S185" s="520"/>
+      <c r="T185" s="520"/>
+      <c r="U185" s="520"/>
+      <c r="V185" s="520"/>
+      <c r="W185" s="520"/>
+      <c r="X185" s="520"/>
+      <c r="Y185" s="520"/>
+      <c r="Z185" s="520"/>
+      <c r="AA185" s="520"/>
+      <c r="AB185" s="520"/>
+      <c r="AC185" s="520"/>
+      <c r="AD185" s="520"/>
+      <c r="AE185" s="520"/>
+      <c r="AF185" s="520"/>
+      <c r="AG185" s="520"/>
+      <c r="AH185" s="521"/>
     </row>
     <row r="186" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A186" s="50"/>
-      <c r="F186" s="514"/>
-      <c r="G186" s="515"/>
-      <c r="H186" s="515"/>
-      <c r="I186" s="515"/>
-      <c r="J186" s="516"/>
-      <c r="K186" s="493"/>
-      <c r="L186" s="495"/>
-      <c r="M186" s="514"/>
-      <c r="N186" s="516"/>
-      <c r="O186" s="514"/>
-      <c r="P186" s="515"/>
-      <c r="Q186" s="515"/>
-      <c r="R186" s="515"/>
-      <c r="S186" s="515"/>
-      <c r="T186" s="515"/>
-      <c r="U186" s="515"/>
-      <c r="V186" s="515"/>
-      <c r="W186" s="515"/>
-      <c r="X186" s="515"/>
-      <c r="Y186" s="515"/>
-      <c r="Z186" s="515"/>
-      <c r="AA186" s="515"/>
-      <c r="AB186" s="515"/>
-      <c r="AC186" s="515"/>
-      <c r="AD186" s="515"/>
-      <c r="AE186" s="515"/>
-      <c r="AF186" s="515"/>
-      <c r="AG186" s="515"/>
-      <c r="AH186" s="516"/>
+      <c r="F186" s="550"/>
+      <c r="G186" s="551"/>
+      <c r="H186" s="551"/>
+      <c r="I186" s="551"/>
+      <c r="J186" s="552"/>
+      <c r="K186" s="505"/>
+      <c r="L186" s="507"/>
+      <c r="M186" s="550"/>
+      <c r="N186" s="552"/>
+      <c r="O186" s="550"/>
+      <c r="P186" s="551"/>
+      <c r="Q186" s="551"/>
+      <c r="R186" s="551"/>
+      <c r="S186" s="551"/>
+      <c r="T186" s="551"/>
+      <c r="U186" s="551"/>
+      <c r="V186" s="551"/>
+      <c r="W186" s="551"/>
+      <c r="X186" s="551"/>
+      <c r="Y186" s="551"/>
+      <c r="Z186" s="551"/>
+      <c r="AA186" s="551"/>
+      <c r="AB186" s="551"/>
+      <c r="AC186" s="551"/>
+      <c r="AD186" s="551"/>
+      <c r="AE186" s="551"/>
+      <c r="AF186" s="551"/>
+      <c r="AG186" s="551"/>
+      <c r="AH186" s="552"/>
     </row>
     <row r="187" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A187" s="50"/>
-      <c r="F187" s="562" t="s">
+      <c r="F187" s="560" t="s">
         <v>39</v>
       </c>
-      <c r="G187" s="488"/>
-      <c r="H187" s="488"/>
-      <c r="I187" s="488"/>
-      <c r="J187" s="489"/>
-      <c r="K187" s="562" t="s">
+      <c r="G187" s="500"/>
+      <c r="H187" s="500"/>
+      <c r="I187" s="500"/>
+      <c r="J187" s="501"/>
+      <c r="K187" s="560" t="s">
         <v>35</v>
       </c>
-      <c r="L187" s="489"/>
-      <c r="M187" s="562" t="s">
+      <c r="L187" s="501"/>
+      <c r="M187" s="560" t="s">
         <v>81</v>
       </c>
-      <c r="N187" s="513"/>
-      <c r="O187" s="508" t="s">
+      <c r="N187" s="558"/>
+      <c r="O187" s="519" t="s">
         <v>530</v>
       </c>
-      <c r="P187" s="535"/>
-      <c r="Q187" s="535"/>
-      <c r="R187" s="535"/>
-      <c r="S187" s="535"/>
-      <c r="T187" s="535"/>
-      <c r="U187" s="535"/>
-      <c r="V187" s="535"/>
-      <c r="W187" s="535"/>
-      <c r="X187" s="535"/>
-      <c r="Y187" s="535"/>
-      <c r="Z187" s="535"/>
-      <c r="AA187" s="535"/>
-      <c r="AB187" s="535"/>
-      <c r="AC187" s="535"/>
-      <c r="AD187" s="535"/>
-      <c r="AE187" s="535"/>
-      <c r="AF187" s="535"/>
-      <c r="AG187" s="535"/>
-      <c r="AH187" s="536"/>
+      <c r="P187" s="520"/>
+      <c r="Q187" s="520"/>
+      <c r="R187" s="520"/>
+      <c r="S187" s="520"/>
+      <c r="T187" s="520"/>
+      <c r="U187" s="520"/>
+      <c r="V187" s="520"/>
+      <c r="W187" s="520"/>
+      <c r="X187" s="520"/>
+      <c r="Y187" s="520"/>
+      <c r="Z187" s="520"/>
+      <c r="AA187" s="520"/>
+      <c r="AB187" s="520"/>
+      <c r="AC187" s="520"/>
+      <c r="AD187" s="520"/>
+      <c r="AE187" s="520"/>
+      <c r="AF187" s="520"/>
+      <c r="AG187" s="520"/>
+      <c r="AH187" s="521"/>
     </row>
     <row r="188" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A188" s="50"/>
-      <c r="F188" s="514"/>
-      <c r="G188" s="515"/>
-      <c r="H188" s="515"/>
-      <c r="I188" s="515"/>
-      <c r="J188" s="516"/>
-      <c r="K188" s="493"/>
-      <c r="L188" s="495"/>
-      <c r="M188" s="514"/>
-      <c r="N188" s="516"/>
-      <c r="O188" s="514"/>
-      <c r="P188" s="515"/>
-      <c r="Q188" s="515"/>
-      <c r="R188" s="515"/>
-      <c r="S188" s="515"/>
-      <c r="T188" s="515"/>
-      <c r="U188" s="515"/>
-      <c r="V188" s="515"/>
-      <c r="W188" s="515"/>
-      <c r="X188" s="515"/>
-      <c r="Y188" s="515"/>
-      <c r="Z188" s="515"/>
-      <c r="AA188" s="515"/>
-      <c r="AB188" s="515"/>
-      <c r="AC188" s="515"/>
-      <c r="AD188" s="515"/>
-      <c r="AE188" s="515"/>
-      <c r="AF188" s="515"/>
-      <c r="AG188" s="515"/>
-      <c r="AH188" s="516"/>
+      <c r="F188" s="550"/>
+      <c r="G188" s="551"/>
+      <c r="H188" s="551"/>
+      <c r="I188" s="551"/>
+      <c r="J188" s="552"/>
+      <c r="K188" s="505"/>
+      <c r="L188" s="507"/>
+      <c r="M188" s="550"/>
+      <c r="N188" s="552"/>
+      <c r="O188" s="550"/>
+      <c r="P188" s="551"/>
+      <c r="Q188" s="551"/>
+      <c r="R188" s="551"/>
+      <c r="S188" s="551"/>
+      <c r="T188" s="551"/>
+      <c r="U188" s="551"/>
+      <c r="V188" s="551"/>
+      <c r="W188" s="551"/>
+      <c r="X188" s="551"/>
+      <c r="Y188" s="551"/>
+      <c r="Z188" s="551"/>
+      <c r="AA188" s="551"/>
+      <c r="AB188" s="551"/>
+      <c r="AC188" s="551"/>
+      <c r="AD188" s="551"/>
+      <c r="AE188" s="551"/>
+      <c r="AF188" s="551"/>
+      <c r="AG188" s="551"/>
+      <c r="AH188" s="552"/>
     </row>
     <row r="189" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A189" s="50"/>
-      <c r="F189" s="562" t="s">
+      <c r="F189" s="560" t="s">
         <v>150</v>
       </c>
-      <c r="G189" s="488"/>
-      <c r="H189" s="488"/>
-      <c r="I189" s="488"/>
-      <c r="J189" s="489"/>
-      <c r="K189" s="562" t="s">
+      <c r="G189" s="500"/>
+      <c r="H189" s="500"/>
+      <c r="I189" s="500"/>
+      <c r="J189" s="501"/>
+      <c r="K189" s="560" t="s">
         <v>47</v>
       </c>
-      <c r="L189" s="489"/>
-      <c r="M189" s="562" t="s">
+      <c r="L189" s="501"/>
+      <c r="M189" s="560" t="s">
         <v>74</v>
       </c>
-      <c r="N189" s="513"/>
-      <c r="O189" s="487" t="s">
+      <c r="N189" s="558"/>
+      <c r="O189" s="499" t="s">
         <v>330</v>
       </c>
-      <c r="P189" s="488"/>
-      <c r="Q189" s="488"/>
-      <c r="R189" s="488"/>
-      <c r="S189" s="488"/>
-      <c r="T189" s="488"/>
-      <c r="U189" s="488"/>
-      <c r="V189" s="488"/>
-      <c r="W189" s="488"/>
-      <c r="X189" s="488"/>
-      <c r="Y189" s="488"/>
-      <c r="Z189" s="488"/>
-      <c r="AA189" s="488"/>
-      <c r="AB189" s="488"/>
-      <c r="AC189" s="488"/>
-      <c r="AD189" s="488"/>
-      <c r="AE189" s="488"/>
-      <c r="AF189" s="488"/>
-      <c r="AG189" s="488"/>
-      <c r="AH189" s="489"/>
+      <c r="P189" s="500"/>
+      <c r="Q189" s="500"/>
+      <c r="R189" s="500"/>
+      <c r="S189" s="500"/>
+      <c r="T189" s="500"/>
+      <c r="U189" s="500"/>
+      <c r="V189" s="500"/>
+      <c r="W189" s="500"/>
+      <c r="X189" s="500"/>
+      <c r="Y189" s="500"/>
+      <c r="Z189" s="500"/>
+      <c r="AA189" s="500"/>
+      <c r="AB189" s="500"/>
+      <c r="AC189" s="500"/>
+      <c r="AD189" s="500"/>
+      <c r="AE189" s="500"/>
+      <c r="AF189" s="500"/>
+      <c r="AG189" s="500"/>
+      <c r="AH189" s="501"/>
     </row>
     <row r="190" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A190" s="50"/>
-      <c r="F190" s="514"/>
-      <c r="G190" s="515"/>
-      <c r="H190" s="515"/>
-      <c r="I190" s="515"/>
-      <c r="J190" s="516"/>
-      <c r="K190" s="493"/>
-      <c r="L190" s="495"/>
-      <c r="M190" s="514"/>
-      <c r="N190" s="516"/>
-      <c r="O190" s="514"/>
-      <c r="P190" s="515"/>
-      <c r="Q190" s="515"/>
-      <c r="R190" s="515"/>
-      <c r="S190" s="515"/>
-      <c r="T190" s="515"/>
-      <c r="U190" s="515"/>
-      <c r="V190" s="515"/>
-      <c r="W190" s="515"/>
-      <c r="X190" s="515"/>
-      <c r="Y190" s="515"/>
-      <c r="Z190" s="515"/>
-      <c r="AA190" s="515"/>
-      <c r="AB190" s="515"/>
-      <c r="AC190" s="515"/>
-      <c r="AD190" s="515"/>
-      <c r="AE190" s="515"/>
-      <c r="AF190" s="515"/>
-      <c r="AG190" s="515"/>
-      <c r="AH190" s="516"/>
+      <c r="F190" s="550"/>
+      <c r="G190" s="551"/>
+      <c r="H190" s="551"/>
+      <c r="I190" s="551"/>
+      <c r="J190" s="552"/>
+      <c r="K190" s="505"/>
+      <c r="L190" s="507"/>
+      <c r="M190" s="550"/>
+      <c r="N190" s="552"/>
+      <c r="O190" s="550"/>
+      <c r="P190" s="551"/>
+      <c r="Q190" s="551"/>
+      <c r="R190" s="551"/>
+      <c r="S190" s="551"/>
+      <c r="T190" s="551"/>
+      <c r="U190" s="551"/>
+      <c r="V190" s="551"/>
+      <c r="W190" s="551"/>
+      <c r="X190" s="551"/>
+      <c r="Y190" s="551"/>
+      <c r="Z190" s="551"/>
+      <c r="AA190" s="551"/>
+      <c r="AB190" s="551"/>
+      <c r="AC190" s="551"/>
+      <c r="AD190" s="551"/>
+      <c r="AE190" s="551"/>
+      <c r="AF190" s="551"/>
+      <c r="AG190" s="551"/>
+      <c r="AH190" s="552"/>
     </row>
     <row r="191" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A191" s="50"/>
-      <c r="F191" s="532" t="s">
+      <c r="F191" s="516" t="s">
         <v>151</v>
       </c>
-      <c r="G191" s="449"/>
-      <c r="H191" s="449"/>
-      <c r="I191" s="449"/>
-      <c r="J191" s="450"/>
-      <c r="K191" s="558" t="s">
+      <c r="G191" s="461"/>
+      <c r="H191" s="461"/>
+      <c r="I191" s="461"/>
+      <c r="J191" s="462"/>
+      <c r="K191" s="553" t="s">
         <v>47</v>
       </c>
-      <c r="L191" s="559"/>
-      <c r="M191" s="558" t="s">
+      <c r="L191" s="554"/>
+      <c r="M191" s="553" t="s">
         <v>74</v>
       </c>
-      <c r="N191" s="521"/>
-      <c r="O191" s="532" t="s">
+      <c r="N191" s="557"/>
+      <c r="O191" s="516" t="s">
         <v>331</v>
       </c>
-      <c r="P191" s="449"/>
-      <c r="Q191" s="449"/>
-      <c r="R191" s="449"/>
-      <c r="S191" s="449"/>
-      <c r="T191" s="449"/>
-      <c r="U191" s="449"/>
-      <c r="V191" s="449"/>
-      <c r="W191" s="449"/>
-      <c r="X191" s="449"/>
-      <c r="Y191" s="449"/>
-      <c r="Z191" s="449"/>
-      <c r="AA191" s="449"/>
-      <c r="AB191" s="449"/>
-      <c r="AC191" s="449"/>
-      <c r="AD191" s="449"/>
-      <c r="AE191" s="449"/>
-      <c r="AF191" s="449"/>
-      <c r="AG191" s="449"/>
-      <c r="AH191" s="450"/>
+      <c r="P191" s="461"/>
+      <c r="Q191" s="461"/>
+      <c r="R191" s="461"/>
+      <c r="S191" s="461"/>
+      <c r="T191" s="461"/>
+      <c r="U191" s="461"/>
+      <c r="V191" s="461"/>
+      <c r="W191" s="461"/>
+      <c r="X191" s="461"/>
+      <c r="Y191" s="461"/>
+      <c r="Z191" s="461"/>
+      <c r="AA191" s="461"/>
+      <c r="AB191" s="461"/>
+      <c r="AC191" s="461"/>
+      <c r="AD191" s="461"/>
+      <c r="AE191" s="461"/>
+      <c r="AF191" s="461"/>
+      <c r="AG191" s="461"/>
+      <c r="AH191" s="462"/>
     </row>
     <row r="192" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A192" s="50"/>
-      <c r="F192" s="562" t="s">
+      <c r="F192" s="560" t="s">
         <v>50</v>
       </c>
-      <c r="G192" s="488"/>
-      <c r="H192" s="488"/>
-      <c r="I192" s="488"/>
-      <c r="J192" s="489"/>
-      <c r="K192" s="562" t="s">
+      <c r="G192" s="500"/>
+      <c r="H192" s="500"/>
+      <c r="I192" s="500"/>
+      <c r="J192" s="501"/>
+      <c r="K192" s="560" t="s">
         <v>47</v>
       </c>
-      <c r="L192" s="489"/>
-      <c r="M192" s="562" t="s">
+      <c r="L192" s="501"/>
+      <c r="M192" s="560" t="s">
         <v>79</v>
       </c>
-      <c r="N192" s="513"/>
-      <c r="O192" s="487" t="s">
+      <c r="N192" s="558"/>
+      <c r="O192" s="499" t="s">
         <v>529</v>
       </c>
-      <c r="P192" s="535"/>
-      <c r="Q192" s="535"/>
-      <c r="R192" s="535"/>
-      <c r="S192" s="535"/>
-      <c r="T192" s="535"/>
-      <c r="U192" s="535"/>
-      <c r="V192" s="535"/>
-      <c r="W192" s="535"/>
-      <c r="X192" s="535"/>
-      <c r="Y192" s="535"/>
-      <c r="Z192" s="535"/>
-      <c r="AA192" s="535"/>
-      <c r="AB192" s="535"/>
-      <c r="AC192" s="535"/>
-      <c r="AD192" s="535"/>
-      <c r="AE192" s="535"/>
-      <c r="AF192" s="535"/>
-      <c r="AG192" s="535"/>
-      <c r="AH192" s="536"/>
+      <c r="P192" s="520"/>
+      <c r="Q192" s="520"/>
+      <c r="R192" s="520"/>
+      <c r="S192" s="520"/>
+      <c r="T192" s="520"/>
+      <c r="U192" s="520"/>
+      <c r="V192" s="520"/>
+      <c r="W192" s="520"/>
+      <c r="X192" s="520"/>
+      <c r="Y192" s="520"/>
+      <c r="Z192" s="520"/>
+      <c r="AA192" s="520"/>
+      <c r="AB192" s="520"/>
+      <c r="AC192" s="520"/>
+      <c r="AD192" s="520"/>
+      <c r="AE192" s="520"/>
+      <c r="AF192" s="520"/>
+      <c r="AG192" s="520"/>
+      <c r="AH192" s="521"/>
     </row>
     <row r="193" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A193" s="50"/>
-      <c r="F193" s="514"/>
-      <c r="G193" s="515"/>
-      <c r="H193" s="515"/>
-      <c r="I193" s="515"/>
-      <c r="J193" s="516"/>
-      <c r="K193" s="493"/>
-      <c r="L193" s="495"/>
-      <c r="M193" s="514"/>
-      <c r="N193" s="516"/>
-      <c r="O193" s="514"/>
-      <c r="P193" s="515"/>
-      <c r="Q193" s="515"/>
-      <c r="R193" s="515"/>
-      <c r="S193" s="515"/>
-      <c r="T193" s="515"/>
-      <c r="U193" s="515"/>
-      <c r="V193" s="515"/>
-      <c r="W193" s="515"/>
-      <c r="X193" s="515"/>
-      <c r="Y193" s="515"/>
-      <c r="Z193" s="515"/>
-      <c r="AA193" s="515"/>
-      <c r="AB193" s="515"/>
-      <c r="AC193" s="515"/>
-      <c r="AD193" s="515"/>
-      <c r="AE193" s="515"/>
-      <c r="AF193" s="515"/>
-      <c r="AG193" s="515"/>
-      <c r="AH193" s="516"/>
+      <c r="F193" s="550"/>
+      <c r="G193" s="551"/>
+      <c r="H193" s="551"/>
+      <c r="I193" s="551"/>
+      <c r="J193" s="552"/>
+      <c r="K193" s="505"/>
+      <c r="L193" s="507"/>
+      <c r="M193" s="550"/>
+      <c r="N193" s="552"/>
+      <c r="O193" s="550"/>
+      <c r="P193" s="551"/>
+      <c r="Q193" s="551"/>
+      <c r="R193" s="551"/>
+      <c r="S193" s="551"/>
+      <c r="T193" s="551"/>
+      <c r="U193" s="551"/>
+      <c r="V193" s="551"/>
+      <c r="W193" s="551"/>
+      <c r="X193" s="551"/>
+      <c r="Y193" s="551"/>
+      <c r="Z193" s="551"/>
+      <c r="AA193" s="551"/>
+      <c r="AB193" s="551"/>
+      <c r="AC193" s="551"/>
+      <c r="AD193" s="551"/>
+      <c r="AE193" s="551"/>
+      <c r="AF193" s="551"/>
+      <c r="AG193" s="551"/>
+      <c r="AH193" s="552"/>
     </row>
     <row r="194" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A194" s="50"/>
-      <c r="F194" s="448" t="s">
+      <c r="F194" s="460" t="s">
         <v>42</v>
       </c>
-      <c r="G194" s="449"/>
-      <c r="H194" s="449"/>
-      <c r="I194" s="449"/>
-      <c r="J194" s="450"/>
-      <c r="K194" s="558" t="s">
+      <c r="G194" s="461"/>
+      <c r="H194" s="461"/>
+      <c r="I194" s="461"/>
+      <c r="J194" s="462"/>
+      <c r="K194" s="553" t="s">
         <v>47</v>
       </c>
-      <c r="L194" s="559"/>
-      <c r="M194" s="558" t="s">
+      <c r="L194" s="554"/>
+      <c r="M194" s="553" t="s">
         <v>78</v>
       </c>
-      <c r="N194" s="521"/>
-      <c r="O194" s="532" t="s">
+      <c r="N194" s="557"/>
+      <c r="O194" s="516" t="s">
         <v>331</v>
       </c>
-      <c r="P194" s="449"/>
-      <c r="Q194" s="449"/>
-      <c r="R194" s="449"/>
-      <c r="S194" s="449"/>
-      <c r="T194" s="449"/>
-      <c r="U194" s="449"/>
-      <c r="V194" s="449"/>
-      <c r="W194" s="449"/>
-      <c r="X194" s="449"/>
-      <c r="Y194" s="449"/>
-      <c r="Z194" s="449"/>
-      <c r="AA194" s="449"/>
-      <c r="AB194" s="449"/>
-      <c r="AC194" s="449"/>
-      <c r="AD194" s="449"/>
-      <c r="AE194" s="449"/>
-      <c r="AF194" s="449"/>
-      <c r="AG194" s="449"/>
-      <c r="AH194" s="450"/>
+      <c r="P194" s="461"/>
+      <c r="Q194" s="461"/>
+      <c r="R194" s="461"/>
+      <c r="S194" s="461"/>
+      <c r="T194" s="461"/>
+      <c r="U194" s="461"/>
+      <c r="V194" s="461"/>
+      <c r="W194" s="461"/>
+      <c r="X194" s="461"/>
+      <c r="Y194" s="461"/>
+      <c r="Z194" s="461"/>
+      <c r="AA194" s="461"/>
+      <c r="AB194" s="461"/>
+      <c r="AC194" s="461"/>
+      <c r="AD194" s="461"/>
+      <c r="AE194" s="461"/>
+      <c r="AF194" s="461"/>
+      <c r="AG194" s="461"/>
+      <c r="AH194" s="462"/>
     </row>
     <row r="195" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A195" s="50"/>
       <c r="E195" s="84"/>
-      <c r="F195" s="508" t="s">
+      <c r="F195" s="519" t="s">
         <v>292</v>
       </c>
-      <c r="G195" s="535"/>
-      <c r="H195" s="535"/>
-      <c r="I195" s="535"/>
-      <c r="J195" s="536"/>
-      <c r="K195" s="500" t="s">
+      <c r="G195" s="520"/>
+      <c r="H195" s="520"/>
+      <c r="I195" s="520"/>
+      <c r="J195" s="521"/>
+      <c r="K195" s="576" t="s">
         <v>47</v>
       </c>
-      <c r="L195" s="501"/>
-      <c r="M195" s="562" t="s">
+      <c r="L195" s="577"/>
+      <c r="M195" s="560" t="s">
         <v>78</v>
       </c>
-      <c r="N195" s="513"/>
-      <c r="O195" s="487" t="s">
+      <c r="N195" s="558"/>
+      <c r="O195" s="499" t="s">
         <v>331</v>
       </c>
-      <c r="P195" s="488"/>
-      <c r="Q195" s="488"/>
-      <c r="R195" s="488"/>
-      <c r="S195" s="488"/>
-      <c r="T195" s="488"/>
-      <c r="U195" s="488"/>
-      <c r="V195" s="488"/>
-      <c r="W195" s="488"/>
-      <c r="X195" s="488"/>
-      <c r="Y195" s="488"/>
-      <c r="Z195" s="488"/>
-      <c r="AA195" s="488"/>
-      <c r="AB195" s="488"/>
-      <c r="AC195" s="488"/>
-      <c r="AD195" s="488"/>
-      <c r="AE195" s="488"/>
-      <c r="AF195" s="488"/>
-      <c r="AG195" s="488"/>
-      <c r="AH195" s="489"/>
+      <c r="P195" s="500"/>
+      <c r="Q195" s="500"/>
+      <c r="R195" s="500"/>
+      <c r="S195" s="500"/>
+      <c r="T195" s="500"/>
+      <c r="U195" s="500"/>
+      <c r="V195" s="500"/>
+      <c r="W195" s="500"/>
+      <c r="X195" s="500"/>
+      <c r="Y195" s="500"/>
+      <c r="Z195" s="500"/>
+      <c r="AA195" s="500"/>
+      <c r="AB195" s="500"/>
+      <c r="AC195" s="500"/>
+      <c r="AD195" s="500"/>
+      <c r="AE195" s="500"/>
+      <c r="AF195" s="500"/>
+      <c r="AG195" s="500"/>
+      <c r="AH195" s="501"/>
     </row>
     <row r="196" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A196" s="50"/>
       <c r="E196" s="84"/>
-      <c r="F196" s="514"/>
-      <c r="G196" s="515"/>
-      <c r="H196" s="515"/>
-      <c r="I196" s="515"/>
-      <c r="J196" s="516"/>
-      <c r="K196" s="510"/>
-      <c r="L196" s="512"/>
-      <c r="M196" s="514"/>
-      <c r="N196" s="516"/>
-      <c r="O196" s="514"/>
-      <c r="P196" s="515"/>
-      <c r="Q196" s="515"/>
-      <c r="R196" s="515"/>
-      <c r="S196" s="515"/>
-      <c r="T196" s="515"/>
-      <c r="U196" s="515"/>
-      <c r="V196" s="515"/>
-      <c r="W196" s="515"/>
-      <c r="X196" s="515"/>
-      <c r="Y196" s="515"/>
-      <c r="Z196" s="515"/>
-      <c r="AA196" s="515"/>
-      <c r="AB196" s="515"/>
-      <c r="AC196" s="515"/>
-      <c r="AD196" s="515"/>
-      <c r="AE196" s="515"/>
-      <c r="AF196" s="515"/>
-      <c r="AG196" s="515"/>
-      <c r="AH196" s="516"/>
+      <c r="F196" s="550"/>
+      <c r="G196" s="551"/>
+      <c r="H196" s="551"/>
+      <c r="I196" s="551"/>
+      <c r="J196" s="552"/>
+      <c r="K196" s="590"/>
+      <c r="L196" s="591"/>
+      <c r="M196" s="550"/>
+      <c r="N196" s="552"/>
+      <c r="O196" s="550"/>
+      <c r="P196" s="551"/>
+      <c r="Q196" s="551"/>
+      <c r="R196" s="551"/>
+      <c r="S196" s="551"/>
+      <c r="T196" s="551"/>
+      <c r="U196" s="551"/>
+      <c r="V196" s="551"/>
+      <c r="W196" s="551"/>
+      <c r="X196" s="551"/>
+      <c r="Y196" s="551"/>
+      <c r="Z196" s="551"/>
+      <c r="AA196" s="551"/>
+      <c r="AB196" s="551"/>
+      <c r="AC196" s="551"/>
+      <c r="AD196" s="551"/>
+      <c r="AE196" s="551"/>
+      <c r="AF196" s="551"/>
+      <c r="AG196" s="551"/>
+      <c r="AH196" s="552"/>
     </row>
     <row r="197" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A197" s="50"/>
@@ -47022,707 +46902,707 @@
     </row>
     <row r="201" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A201" s="50"/>
-      <c r="F201" s="610" t="s">
+      <c r="F201" s="599" t="s">
         <v>664</v>
       </c>
-      <c r="G201" s="595"/>
-      <c r="H201" s="595"/>
-      <c r="I201" s="595"/>
-      <c r="J201" s="596"/>
-      <c r="K201" s="560" t="s">
+      <c r="G201" s="600"/>
+      <c r="H201" s="600"/>
+      <c r="I201" s="600"/>
+      <c r="J201" s="601"/>
+      <c r="K201" s="555" t="s">
         <v>30</v>
       </c>
-      <c r="L201" s="561"/>
-      <c r="M201" s="560" t="s">
+      <c r="L201" s="556"/>
+      <c r="M201" s="555" t="s">
         <v>31</v>
       </c>
-      <c r="N201" s="561"/>
-      <c r="O201" s="445" t="s">
+      <c r="N201" s="556"/>
+      <c r="O201" s="457" t="s">
         <v>327</v>
       </c>
-      <c r="P201" s="446"/>
-      <c r="Q201" s="446"/>
-      <c r="R201" s="446"/>
-      <c r="S201" s="446"/>
-      <c r="T201" s="446"/>
-      <c r="U201" s="446"/>
-      <c r="V201" s="446"/>
-      <c r="W201" s="446"/>
-      <c r="X201" s="446"/>
-      <c r="Y201" s="446"/>
-      <c r="Z201" s="446"/>
-      <c r="AA201" s="446"/>
-      <c r="AB201" s="446"/>
-      <c r="AC201" s="446"/>
-      <c r="AD201" s="446"/>
-      <c r="AE201" s="446"/>
-      <c r="AF201" s="446"/>
-      <c r="AG201" s="446"/>
-      <c r="AH201" s="447"/>
+      <c r="P201" s="458"/>
+      <c r="Q201" s="458"/>
+      <c r="R201" s="458"/>
+      <c r="S201" s="458"/>
+      <c r="T201" s="458"/>
+      <c r="U201" s="458"/>
+      <c r="V201" s="458"/>
+      <c r="W201" s="458"/>
+      <c r="X201" s="458"/>
+      <c r="Y201" s="458"/>
+      <c r="Z201" s="458"/>
+      <c r="AA201" s="458"/>
+      <c r="AB201" s="458"/>
+      <c r="AC201" s="458"/>
+      <c r="AD201" s="458"/>
+      <c r="AE201" s="458"/>
+      <c r="AF201" s="458"/>
+      <c r="AG201" s="458"/>
+      <c r="AH201" s="459"/>
     </row>
     <row r="202" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A202" s="50"/>
-      <c r="F202" s="586" t="s">
+      <c r="F202" s="602" t="s">
         <v>307</v>
       </c>
-      <c r="G202" s="587"/>
-      <c r="H202" s="587"/>
-      <c r="I202" s="587"/>
-      <c r="J202" s="588"/>
-      <c r="K202" s="575" t="s">
+      <c r="G202" s="603"/>
+      <c r="H202" s="603"/>
+      <c r="I202" s="603"/>
+      <c r="J202" s="604"/>
+      <c r="K202" s="580" t="s">
         <v>32</v>
       </c>
-      <c r="L202" s="576"/>
-      <c r="M202" s="575" t="s">
+      <c r="L202" s="581"/>
+      <c r="M202" s="580" t="s">
         <v>33</v>
       </c>
-      <c r="N202" s="576"/>
-      <c r="O202" s="586" t="s">
+      <c r="N202" s="581"/>
+      <c r="O202" s="602" t="s">
         <v>309</v>
       </c>
-      <c r="P202" s="587"/>
-      <c r="Q202" s="587"/>
-      <c r="R202" s="587"/>
-      <c r="S202" s="587"/>
-      <c r="T202" s="587"/>
-      <c r="U202" s="587"/>
-      <c r="V202" s="587"/>
-      <c r="W202" s="587"/>
-      <c r="X202" s="587"/>
-      <c r="Y202" s="587"/>
-      <c r="Z202" s="587"/>
-      <c r="AA202" s="587"/>
-      <c r="AB202" s="587"/>
-      <c r="AC202" s="587"/>
-      <c r="AD202" s="587"/>
-      <c r="AE202" s="587"/>
-      <c r="AF202" s="587"/>
-      <c r="AG202" s="587"/>
-      <c r="AH202" s="588"/>
+      <c r="P202" s="603"/>
+      <c r="Q202" s="603"/>
+      <c r="R202" s="603"/>
+      <c r="S202" s="603"/>
+      <c r="T202" s="603"/>
+      <c r="U202" s="603"/>
+      <c r="V202" s="603"/>
+      <c r="W202" s="603"/>
+      <c r="X202" s="603"/>
+      <c r="Y202" s="603"/>
+      <c r="Z202" s="603"/>
+      <c r="AA202" s="603"/>
+      <c r="AB202" s="603"/>
+      <c r="AC202" s="603"/>
+      <c r="AD202" s="603"/>
+      <c r="AE202" s="603"/>
+      <c r="AF202" s="603"/>
+      <c r="AG202" s="603"/>
+      <c r="AH202" s="604"/>
     </row>
     <row r="203" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A203" s="50"/>
-      <c r="F203" s="589"/>
-      <c r="G203" s="590"/>
-      <c r="H203" s="590"/>
-      <c r="I203" s="590"/>
-      <c r="J203" s="591"/>
-      <c r="K203" s="493"/>
-      <c r="L203" s="495"/>
-      <c r="M203" s="493"/>
-      <c r="N203" s="495"/>
-      <c r="O203" s="589"/>
-      <c r="P203" s="590"/>
-      <c r="Q203" s="590"/>
-      <c r="R203" s="590"/>
-      <c r="S203" s="590"/>
-      <c r="T203" s="590"/>
-      <c r="U203" s="590"/>
-      <c r="V203" s="590"/>
-      <c r="W203" s="590"/>
-      <c r="X203" s="590"/>
-      <c r="Y203" s="590"/>
-      <c r="Z203" s="590"/>
-      <c r="AA203" s="590"/>
-      <c r="AB203" s="590"/>
-      <c r="AC203" s="590"/>
-      <c r="AD203" s="590"/>
-      <c r="AE203" s="590"/>
-      <c r="AF203" s="590"/>
-      <c r="AG203" s="590"/>
-      <c r="AH203" s="591"/>
+      <c r="F203" s="605"/>
+      <c r="G203" s="606"/>
+      <c r="H203" s="606"/>
+      <c r="I203" s="606"/>
+      <c r="J203" s="607"/>
+      <c r="K203" s="505"/>
+      <c r="L203" s="507"/>
+      <c r="M203" s="505"/>
+      <c r="N203" s="507"/>
+      <c r="O203" s="605"/>
+      <c r="P203" s="606"/>
+      <c r="Q203" s="606"/>
+      <c r="R203" s="606"/>
+      <c r="S203" s="606"/>
+      <c r="T203" s="606"/>
+      <c r="U203" s="606"/>
+      <c r="V203" s="606"/>
+      <c r="W203" s="606"/>
+      <c r="X203" s="606"/>
+      <c r="Y203" s="606"/>
+      <c r="Z203" s="606"/>
+      <c r="AA203" s="606"/>
+      <c r="AB203" s="606"/>
+      <c r="AC203" s="606"/>
+      <c r="AD203" s="606"/>
+      <c r="AE203" s="606"/>
+      <c r="AF203" s="606"/>
+      <c r="AG203" s="606"/>
+      <c r="AH203" s="607"/>
     </row>
     <row r="204" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A204" s="50"/>
-      <c r="F204" s="500" t="s">
+      <c r="F204" s="576" t="s">
         <v>40</v>
       </c>
-      <c r="G204" s="592"/>
-      <c r="H204" s="592"/>
-      <c r="I204" s="592"/>
-      <c r="J204" s="501"/>
-      <c r="K204" s="562" t="s">
+      <c r="G204" s="597"/>
+      <c r="H204" s="597"/>
+      <c r="I204" s="597"/>
+      <c r="J204" s="577"/>
+      <c r="K204" s="560" t="s">
         <v>35</v>
       </c>
-      <c r="L204" s="489"/>
-      <c r="M204" s="575" t="s">
+      <c r="L204" s="501"/>
+      <c r="M204" s="580" t="s">
         <v>33</v>
       </c>
-      <c r="N204" s="576"/>
-      <c r="O204" s="508" t="s">
+      <c r="N204" s="581"/>
+      <c r="O204" s="519" t="s">
         <v>524</v>
       </c>
-      <c r="P204" s="593"/>
-      <c r="Q204" s="593"/>
-      <c r="R204" s="593"/>
-      <c r="S204" s="593"/>
-      <c r="T204" s="593"/>
-      <c r="U204" s="593"/>
-      <c r="V204" s="593"/>
-      <c r="W204" s="593"/>
-      <c r="X204" s="593"/>
-      <c r="Y204" s="593"/>
-      <c r="Z204" s="593"/>
-      <c r="AA204" s="593"/>
-      <c r="AB204" s="593"/>
-      <c r="AC204" s="593"/>
-      <c r="AD204" s="593"/>
-      <c r="AE204" s="593"/>
-      <c r="AF204" s="593"/>
-      <c r="AG204" s="593"/>
-      <c r="AH204" s="509"/>
+      <c r="P204" s="592"/>
+      <c r="Q204" s="592"/>
+      <c r="R204" s="592"/>
+      <c r="S204" s="592"/>
+      <c r="T204" s="592"/>
+      <c r="U204" s="592"/>
+      <c r="V204" s="592"/>
+      <c r="W204" s="592"/>
+      <c r="X204" s="592"/>
+      <c r="Y204" s="592"/>
+      <c r="Z204" s="592"/>
+      <c r="AA204" s="592"/>
+      <c r="AB204" s="592"/>
+      <c r="AC204" s="592"/>
+      <c r="AD204" s="592"/>
+      <c r="AE204" s="592"/>
+      <c r="AF204" s="592"/>
+      <c r="AG204" s="592"/>
+      <c r="AH204" s="593"/>
     </row>
     <row r="205" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A205" s="50"/>
-      <c r="F205" s="510"/>
-      <c r="G205" s="511"/>
-      <c r="H205" s="511"/>
-      <c r="I205" s="511"/>
-      <c r="J205" s="512"/>
-      <c r="K205" s="493"/>
-      <c r="L205" s="495"/>
-      <c r="M205" s="493"/>
-      <c r="N205" s="495"/>
-      <c r="O205" s="510"/>
-      <c r="P205" s="511"/>
-      <c r="Q205" s="511"/>
-      <c r="R205" s="511"/>
-      <c r="S205" s="511"/>
-      <c r="T205" s="511"/>
-      <c r="U205" s="511"/>
-      <c r="V205" s="511"/>
-      <c r="W205" s="511"/>
-      <c r="X205" s="511"/>
-      <c r="Y205" s="511"/>
-      <c r="Z205" s="511"/>
-      <c r="AA205" s="511"/>
-      <c r="AB205" s="511"/>
-      <c r="AC205" s="511"/>
-      <c r="AD205" s="511"/>
-      <c r="AE205" s="511"/>
-      <c r="AF205" s="511"/>
-      <c r="AG205" s="511"/>
-      <c r="AH205" s="512"/>
+      <c r="F205" s="590"/>
+      <c r="G205" s="598"/>
+      <c r="H205" s="598"/>
+      <c r="I205" s="598"/>
+      <c r="J205" s="591"/>
+      <c r="K205" s="505"/>
+      <c r="L205" s="507"/>
+      <c r="M205" s="505"/>
+      <c r="N205" s="507"/>
+      <c r="O205" s="590"/>
+      <c r="P205" s="598"/>
+      <c r="Q205" s="598"/>
+      <c r="R205" s="598"/>
+      <c r="S205" s="598"/>
+      <c r="T205" s="598"/>
+      <c r="U205" s="598"/>
+      <c r="V205" s="598"/>
+      <c r="W205" s="598"/>
+      <c r="X205" s="598"/>
+      <c r="Y205" s="598"/>
+      <c r="Z205" s="598"/>
+      <c r="AA205" s="598"/>
+      <c r="AB205" s="598"/>
+      <c r="AC205" s="598"/>
+      <c r="AD205" s="598"/>
+      <c r="AE205" s="598"/>
+      <c r="AF205" s="598"/>
+      <c r="AG205" s="598"/>
+      <c r="AH205" s="591"/>
     </row>
     <row r="206" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A206" s="50"/>
-      <c r="F206" s="500" t="s">
+      <c r="F206" s="576" t="s">
         <v>41</v>
       </c>
-      <c r="G206" s="592"/>
-      <c r="H206" s="592"/>
-      <c r="I206" s="592"/>
-      <c r="J206" s="501"/>
-      <c r="K206" s="500" t="s">
+      <c r="G206" s="597"/>
+      <c r="H206" s="597"/>
+      <c r="I206" s="597"/>
+      <c r="J206" s="577"/>
+      <c r="K206" s="576" t="s">
         <v>35</v>
       </c>
-      <c r="L206" s="501"/>
-      <c r="M206" s="579" t="s">
+      <c r="L206" s="577"/>
+      <c r="M206" s="584" t="s">
         <v>33</v>
       </c>
-      <c r="N206" s="580"/>
-      <c r="O206" s="508" t="s">
+      <c r="N206" s="585"/>
+      <c r="O206" s="519" t="s">
         <v>525</v>
       </c>
-      <c r="P206" s="593"/>
-      <c r="Q206" s="593"/>
-      <c r="R206" s="593"/>
-      <c r="S206" s="593"/>
-      <c r="T206" s="593"/>
-      <c r="U206" s="593"/>
-      <c r="V206" s="593"/>
-      <c r="W206" s="593"/>
-      <c r="X206" s="593"/>
-      <c r="Y206" s="593"/>
-      <c r="Z206" s="593"/>
-      <c r="AA206" s="593"/>
-      <c r="AB206" s="593"/>
-      <c r="AC206" s="593"/>
-      <c r="AD206" s="593"/>
-      <c r="AE206" s="593"/>
-      <c r="AF206" s="593"/>
-      <c r="AG206" s="593"/>
-      <c r="AH206" s="509"/>
+      <c r="P206" s="592"/>
+      <c r="Q206" s="592"/>
+      <c r="R206" s="592"/>
+      <c r="S206" s="592"/>
+      <c r="T206" s="592"/>
+      <c r="U206" s="592"/>
+      <c r="V206" s="592"/>
+      <c r="W206" s="592"/>
+      <c r="X206" s="592"/>
+      <c r="Y206" s="592"/>
+      <c r="Z206" s="592"/>
+      <c r="AA206" s="592"/>
+      <c r="AB206" s="592"/>
+      <c r="AC206" s="592"/>
+      <c r="AD206" s="592"/>
+      <c r="AE206" s="592"/>
+      <c r="AF206" s="592"/>
+      <c r="AG206" s="592"/>
+      <c r="AH206" s="593"/>
     </row>
     <row r="207" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A207" s="50"/>
-      <c r="F207" s="510"/>
-      <c r="G207" s="511"/>
-      <c r="H207" s="511"/>
-      <c r="I207" s="511"/>
-      <c r="J207" s="512"/>
-      <c r="K207" s="502"/>
-      <c r="L207" s="503"/>
-      <c r="M207" s="502"/>
-      <c r="N207" s="503"/>
-      <c r="O207" s="510"/>
-      <c r="P207" s="511"/>
-      <c r="Q207" s="511"/>
-      <c r="R207" s="511"/>
-      <c r="S207" s="511"/>
-      <c r="T207" s="511"/>
-      <c r="U207" s="511"/>
-      <c r="V207" s="511"/>
-      <c r="W207" s="511"/>
-      <c r="X207" s="511"/>
-      <c r="Y207" s="511"/>
-      <c r="Z207" s="511"/>
-      <c r="AA207" s="511"/>
-      <c r="AB207" s="511"/>
-      <c r="AC207" s="511"/>
-      <c r="AD207" s="511"/>
-      <c r="AE207" s="511"/>
-      <c r="AF207" s="511"/>
-      <c r="AG207" s="511"/>
-      <c r="AH207" s="512"/>
+      <c r="F207" s="590"/>
+      <c r="G207" s="598"/>
+      <c r="H207" s="598"/>
+      <c r="I207" s="598"/>
+      <c r="J207" s="591"/>
+      <c r="K207" s="578"/>
+      <c r="L207" s="579"/>
+      <c r="M207" s="578"/>
+      <c r="N207" s="579"/>
+      <c r="O207" s="590"/>
+      <c r="P207" s="598"/>
+      <c r="Q207" s="598"/>
+      <c r="R207" s="598"/>
+      <c r="S207" s="598"/>
+      <c r="T207" s="598"/>
+      <c r="U207" s="598"/>
+      <c r="V207" s="598"/>
+      <c r="W207" s="598"/>
+      <c r="X207" s="598"/>
+      <c r="Y207" s="598"/>
+      <c r="Z207" s="598"/>
+      <c r="AA207" s="598"/>
+      <c r="AB207" s="598"/>
+      <c r="AC207" s="598"/>
+      <c r="AD207" s="598"/>
+      <c r="AE207" s="598"/>
+      <c r="AF207" s="598"/>
+      <c r="AG207" s="598"/>
+      <c r="AH207" s="591"/>
     </row>
     <row r="208" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A208" s="50"/>
-      <c r="F208" s="508" t="s">
+      <c r="F208" s="519" t="s">
         <v>308</v>
       </c>
-      <c r="G208" s="593"/>
-      <c r="H208" s="593"/>
-      <c r="I208" s="593"/>
-      <c r="J208" s="509"/>
-      <c r="K208" s="562" t="s">
+      <c r="G208" s="592"/>
+      <c r="H208" s="592"/>
+      <c r="I208" s="592"/>
+      <c r="J208" s="593"/>
+      <c r="K208" s="560" t="s">
         <v>35</v>
       </c>
-      <c r="L208" s="489"/>
-      <c r="M208" s="575" t="s">
+      <c r="L208" s="501"/>
+      <c r="M208" s="580" t="s">
         <v>33</v>
       </c>
-      <c r="N208" s="576"/>
-      <c r="O208" s="508" t="s">
+      <c r="N208" s="581"/>
+      <c r="O208" s="519" t="s">
         <v>526</v>
       </c>
-      <c r="P208" s="593"/>
-      <c r="Q208" s="593"/>
-      <c r="R208" s="593"/>
-      <c r="S208" s="593"/>
-      <c r="T208" s="593"/>
-      <c r="U208" s="593"/>
-      <c r="V208" s="593"/>
-      <c r="W208" s="593"/>
-      <c r="X208" s="593"/>
-      <c r="Y208" s="593"/>
-      <c r="Z208" s="593"/>
-      <c r="AA208" s="593"/>
-      <c r="AB208" s="593"/>
-      <c r="AC208" s="593"/>
-      <c r="AD208" s="593"/>
-      <c r="AE208" s="593"/>
-      <c r="AF208" s="593"/>
-      <c r="AG208" s="593"/>
-      <c r="AH208" s="509"/>
+      <c r="P208" s="592"/>
+      <c r="Q208" s="592"/>
+      <c r="R208" s="592"/>
+      <c r="S208" s="592"/>
+      <c r="T208" s="592"/>
+      <c r="U208" s="592"/>
+      <c r="V208" s="592"/>
+      <c r="W208" s="592"/>
+      <c r="X208" s="592"/>
+      <c r="Y208" s="592"/>
+      <c r="Z208" s="592"/>
+      <c r="AA208" s="592"/>
+      <c r="AB208" s="592"/>
+      <c r="AC208" s="592"/>
+      <c r="AD208" s="592"/>
+      <c r="AE208" s="592"/>
+      <c r="AF208" s="592"/>
+      <c r="AG208" s="592"/>
+      <c r="AH208" s="593"/>
     </row>
     <row r="209" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A209" s="50"/>
-      <c r="F209" s="510"/>
-      <c r="G209" s="511"/>
-      <c r="H209" s="511"/>
-      <c r="I209" s="511"/>
-      <c r="J209" s="512"/>
-      <c r="K209" s="493"/>
-      <c r="L209" s="495"/>
-      <c r="M209" s="493"/>
-      <c r="N209" s="495"/>
-      <c r="O209" s="510"/>
-      <c r="P209" s="511"/>
-      <c r="Q209" s="511"/>
-      <c r="R209" s="511"/>
-      <c r="S209" s="511"/>
-      <c r="T209" s="511"/>
-      <c r="U209" s="511"/>
-      <c r="V209" s="511"/>
-      <c r="W209" s="511"/>
-      <c r="X209" s="511"/>
-      <c r="Y209" s="511"/>
-      <c r="Z209" s="511"/>
-      <c r="AA209" s="511"/>
-      <c r="AB209" s="511"/>
-      <c r="AC209" s="511"/>
-      <c r="AD209" s="511"/>
-      <c r="AE209" s="511"/>
-      <c r="AF209" s="511"/>
-      <c r="AG209" s="511"/>
-      <c r="AH209" s="512"/>
+      <c r="F209" s="590"/>
+      <c r="G209" s="598"/>
+      <c r="H209" s="598"/>
+      <c r="I209" s="598"/>
+      <c r="J209" s="591"/>
+      <c r="K209" s="505"/>
+      <c r="L209" s="507"/>
+      <c r="M209" s="505"/>
+      <c r="N209" s="507"/>
+      <c r="O209" s="590"/>
+      <c r="P209" s="598"/>
+      <c r="Q209" s="598"/>
+      <c r="R209" s="598"/>
+      <c r="S209" s="598"/>
+      <c r="T209" s="598"/>
+      <c r="U209" s="598"/>
+      <c r="V209" s="598"/>
+      <c r="W209" s="598"/>
+      <c r="X209" s="598"/>
+      <c r="Y209" s="598"/>
+      <c r="Z209" s="598"/>
+      <c r="AA209" s="598"/>
+      <c r="AB209" s="598"/>
+      <c r="AC209" s="598"/>
+      <c r="AD209" s="598"/>
+      <c r="AE209" s="598"/>
+      <c r="AF209" s="598"/>
+      <c r="AG209" s="598"/>
+      <c r="AH209" s="591"/>
     </row>
     <row r="210" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A210" s="50"/>
-      <c r="F210" s="448" t="s">
+      <c r="F210" s="460" t="s">
         <v>38</v>
       </c>
-      <c r="G210" s="449"/>
-      <c r="H210" s="449"/>
-      <c r="I210" s="449"/>
-      <c r="J210" s="450"/>
-      <c r="K210" s="415" t="s">
+      <c r="G210" s="461"/>
+      <c r="H210" s="461"/>
+      <c r="I210" s="461"/>
+      <c r="J210" s="462"/>
+      <c r="K210" s="427" t="s">
         <v>35</v>
       </c>
-      <c r="L210" s="417"/>
-      <c r="M210" s="577" t="s">
+      <c r="L210" s="429"/>
+      <c r="M210" s="582" t="s">
         <v>33</v>
       </c>
-      <c r="N210" s="578"/>
-      <c r="O210" s="517" t="s">
+      <c r="N210" s="583"/>
+      <c r="O210" s="535" t="s">
         <v>362</v>
       </c>
-      <c r="P210" s="518"/>
-      <c r="Q210" s="518"/>
-      <c r="R210" s="518"/>
-      <c r="S210" s="518"/>
-      <c r="T210" s="518"/>
-      <c r="U210" s="518"/>
-      <c r="V210" s="518"/>
-      <c r="W210" s="518"/>
-      <c r="X210" s="518"/>
-      <c r="Y210" s="518"/>
-      <c r="Z210" s="518"/>
-      <c r="AA210" s="518"/>
-      <c r="AB210" s="518"/>
-      <c r="AC210" s="518"/>
-      <c r="AD210" s="518"/>
-      <c r="AE210" s="518"/>
-      <c r="AF210" s="518"/>
-      <c r="AG210" s="518"/>
-      <c r="AH210" s="519"/>
+      <c r="P210" s="561"/>
+      <c r="Q210" s="561"/>
+      <c r="R210" s="561"/>
+      <c r="S210" s="561"/>
+      <c r="T210" s="561"/>
+      <c r="U210" s="561"/>
+      <c r="V210" s="561"/>
+      <c r="W210" s="561"/>
+      <c r="X210" s="561"/>
+      <c r="Y210" s="561"/>
+      <c r="Z210" s="561"/>
+      <c r="AA210" s="561"/>
+      <c r="AB210" s="561"/>
+      <c r="AC210" s="561"/>
+      <c r="AD210" s="561"/>
+      <c r="AE210" s="561"/>
+      <c r="AF210" s="561"/>
+      <c r="AG210" s="561"/>
+      <c r="AH210" s="562"/>
     </row>
     <row r="211" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A211" s="50"/>
-      <c r="F211" s="448" t="s">
+      <c r="F211" s="460" t="s">
         <v>39</v>
       </c>
-      <c r="G211" s="449"/>
-      <c r="H211" s="449"/>
-      <c r="I211" s="449"/>
-      <c r="J211" s="450"/>
-      <c r="K211" s="415" t="s">
+      <c r="G211" s="461"/>
+      <c r="H211" s="461"/>
+      <c r="I211" s="461"/>
+      <c r="J211" s="462"/>
+      <c r="K211" s="427" t="s">
         <v>35</v>
       </c>
-      <c r="L211" s="417"/>
-      <c r="M211" s="577" t="s">
+      <c r="L211" s="429"/>
+      <c r="M211" s="582" t="s">
         <v>33</v>
       </c>
-      <c r="N211" s="578"/>
-      <c r="O211" s="517" t="s">
+      <c r="N211" s="583"/>
+      <c r="O211" s="535" t="s">
         <v>306</v>
       </c>
-      <c r="P211" s="550"/>
-      <c r="Q211" s="550"/>
-      <c r="R211" s="550"/>
-      <c r="S211" s="550"/>
-      <c r="T211" s="550"/>
-      <c r="U211" s="550"/>
-      <c r="V211" s="550"/>
-      <c r="W211" s="550"/>
-      <c r="X211" s="550"/>
-      <c r="Y211" s="550"/>
-      <c r="Z211" s="550"/>
-      <c r="AA211" s="550"/>
-      <c r="AB211" s="550"/>
-      <c r="AC211" s="550"/>
-      <c r="AD211" s="550"/>
-      <c r="AE211" s="550"/>
-      <c r="AF211" s="550"/>
-      <c r="AG211" s="550"/>
-      <c r="AH211" s="551"/>
+      <c r="P211" s="536"/>
+      <c r="Q211" s="536"/>
+      <c r="R211" s="536"/>
+      <c r="S211" s="536"/>
+      <c r="T211" s="536"/>
+      <c r="U211" s="536"/>
+      <c r="V211" s="536"/>
+      <c r="W211" s="536"/>
+      <c r="X211" s="536"/>
+      <c r="Y211" s="536"/>
+      <c r="Z211" s="536"/>
+      <c r="AA211" s="536"/>
+      <c r="AB211" s="536"/>
+      <c r="AC211" s="536"/>
+      <c r="AD211" s="536"/>
+      <c r="AE211" s="536"/>
+      <c r="AF211" s="536"/>
+      <c r="AG211" s="536"/>
+      <c r="AH211" s="537"/>
     </row>
     <row r="212" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A212" s="50"/>
-      <c r="F212" s="500" t="s">
+      <c r="F212" s="576" t="s">
         <v>34</v>
       </c>
-      <c r="G212" s="592"/>
-      <c r="H212" s="592"/>
-      <c r="I212" s="592"/>
-      <c r="J212" s="501"/>
-      <c r="K212" s="562" t="s">
+      <c r="G212" s="597"/>
+      <c r="H212" s="597"/>
+      <c r="I212" s="597"/>
+      <c r="J212" s="577"/>
+      <c r="K212" s="560" t="s">
         <v>35</v>
       </c>
-      <c r="L212" s="489"/>
-      <c r="M212" s="575" t="s">
+      <c r="L212" s="501"/>
+      <c r="M212" s="580" t="s">
         <v>33</v>
       </c>
-      <c r="N212" s="576"/>
-      <c r="O212" s="508" t="s">
+      <c r="N212" s="581"/>
+      <c r="O212" s="519" t="s">
         <v>527</v>
       </c>
-      <c r="P212" s="593"/>
-      <c r="Q212" s="593"/>
-      <c r="R212" s="593"/>
-      <c r="S212" s="593"/>
-      <c r="T212" s="593"/>
-      <c r="U212" s="593"/>
-      <c r="V212" s="593"/>
-      <c r="W212" s="593"/>
-      <c r="X212" s="593"/>
-      <c r="Y212" s="593"/>
-      <c r="Z212" s="593"/>
-      <c r="AA212" s="593"/>
-      <c r="AB212" s="593"/>
-      <c r="AC212" s="593"/>
-      <c r="AD212" s="593"/>
-      <c r="AE212" s="593"/>
-      <c r="AF212" s="593"/>
-      <c r="AG212" s="593"/>
-      <c r="AH212" s="509"/>
+      <c r="P212" s="592"/>
+      <c r="Q212" s="592"/>
+      <c r="R212" s="592"/>
+      <c r="S212" s="592"/>
+      <c r="T212" s="592"/>
+      <c r="U212" s="592"/>
+      <c r="V212" s="592"/>
+      <c r="W212" s="592"/>
+      <c r="X212" s="592"/>
+      <c r="Y212" s="592"/>
+      <c r="Z212" s="592"/>
+      <c r="AA212" s="592"/>
+      <c r="AB212" s="592"/>
+      <c r="AC212" s="592"/>
+      <c r="AD212" s="592"/>
+      <c r="AE212" s="592"/>
+      <c r="AF212" s="592"/>
+      <c r="AG212" s="592"/>
+      <c r="AH212" s="593"/>
     </row>
     <row r="213" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A213" s="50"/>
-      <c r="F213" s="529"/>
-      <c r="G213" s="530"/>
-      <c r="H213" s="530"/>
-      <c r="I213" s="530"/>
-      <c r="J213" s="531"/>
-      <c r="K213" s="490"/>
-      <c r="L213" s="492"/>
-      <c r="M213" s="490"/>
-      <c r="N213" s="492"/>
-      <c r="O213" s="529"/>
-      <c r="P213" s="530"/>
-      <c r="Q213" s="530"/>
-      <c r="R213" s="530"/>
-      <c r="S213" s="530"/>
-      <c r="T213" s="530"/>
-      <c r="U213" s="530"/>
-      <c r="V213" s="530"/>
-      <c r="W213" s="530"/>
-      <c r="X213" s="530"/>
-      <c r="Y213" s="530"/>
-      <c r="Z213" s="530"/>
-      <c r="AA213" s="530"/>
-      <c r="AB213" s="530"/>
-      <c r="AC213" s="530"/>
-      <c r="AD213" s="530"/>
-      <c r="AE213" s="530"/>
-      <c r="AF213" s="530"/>
-      <c r="AG213" s="530"/>
-      <c r="AH213" s="531"/>
+      <c r="F213" s="608"/>
+      <c r="G213" s="609"/>
+      <c r="H213" s="609"/>
+      <c r="I213" s="609"/>
+      <c r="J213" s="610"/>
+      <c r="K213" s="502"/>
+      <c r="L213" s="504"/>
+      <c r="M213" s="502"/>
+      <c r="N213" s="504"/>
+      <c r="O213" s="608"/>
+      <c r="P213" s="609"/>
+      <c r="Q213" s="609"/>
+      <c r="R213" s="609"/>
+      <c r="S213" s="609"/>
+      <c r="T213" s="609"/>
+      <c r="U213" s="609"/>
+      <c r="V213" s="609"/>
+      <c r="W213" s="609"/>
+      <c r="X213" s="609"/>
+      <c r="Y213" s="609"/>
+      <c r="Z213" s="609"/>
+      <c r="AA213" s="609"/>
+      <c r="AB213" s="609"/>
+      <c r="AC213" s="609"/>
+      <c r="AD213" s="609"/>
+      <c r="AE213" s="609"/>
+      <c r="AF213" s="609"/>
+      <c r="AG213" s="609"/>
+      <c r="AH213" s="610"/>
     </row>
     <row r="214" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A214" s="50"/>
-      <c r="F214" s="510"/>
-      <c r="G214" s="511"/>
-      <c r="H214" s="511"/>
-      <c r="I214" s="511"/>
-      <c r="J214" s="512"/>
-      <c r="K214" s="493"/>
-      <c r="L214" s="495"/>
-      <c r="M214" s="493"/>
-      <c r="N214" s="495"/>
-      <c r="O214" s="510"/>
-      <c r="P214" s="511"/>
-      <c r="Q214" s="511"/>
-      <c r="R214" s="511"/>
-      <c r="S214" s="511"/>
-      <c r="T214" s="511"/>
-      <c r="U214" s="511"/>
-      <c r="V214" s="511"/>
-      <c r="W214" s="511"/>
-      <c r="X214" s="511"/>
-      <c r="Y214" s="511"/>
-      <c r="Z214" s="511"/>
-      <c r="AA214" s="511"/>
-      <c r="AB214" s="511"/>
-      <c r="AC214" s="511"/>
-      <c r="AD214" s="511"/>
-      <c r="AE214" s="511"/>
-      <c r="AF214" s="511"/>
-      <c r="AG214" s="511"/>
-      <c r="AH214" s="512"/>
+      <c r="F214" s="590"/>
+      <c r="G214" s="598"/>
+      <c r="H214" s="598"/>
+      <c r="I214" s="598"/>
+      <c r="J214" s="591"/>
+      <c r="K214" s="505"/>
+      <c r="L214" s="507"/>
+      <c r="M214" s="505"/>
+      <c r="N214" s="507"/>
+      <c r="O214" s="590"/>
+      <c r="P214" s="598"/>
+      <c r="Q214" s="598"/>
+      <c r="R214" s="598"/>
+      <c r="S214" s="598"/>
+      <c r="T214" s="598"/>
+      <c r="U214" s="598"/>
+      <c r="V214" s="598"/>
+      <c r="W214" s="598"/>
+      <c r="X214" s="598"/>
+      <c r="Y214" s="598"/>
+      <c r="Z214" s="598"/>
+      <c r="AA214" s="598"/>
+      <c r="AB214" s="598"/>
+      <c r="AC214" s="598"/>
+      <c r="AD214" s="598"/>
+      <c r="AE214" s="598"/>
+      <c r="AF214" s="598"/>
+      <c r="AG214" s="598"/>
+      <c r="AH214" s="591"/>
     </row>
     <row r="215" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A215" s="50"/>
-      <c r="F215" s="448" t="s">
+      <c r="F215" s="460" t="s">
         <v>287</v>
       </c>
-      <c r="G215" s="449"/>
-      <c r="H215" s="449"/>
-      <c r="I215" s="449"/>
-      <c r="J215" s="450"/>
-      <c r="K215" s="415" t="s">
+      <c r="G215" s="461"/>
+      <c r="H215" s="461"/>
+      <c r="I215" s="461"/>
+      <c r="J215" s="462"/>
+      <c r="K215" s="427" t="s">
         <v>35</v>
       </c>
-      <c r="L215" s="417"/>
-      <c r="M215" s="415" t="s">
+      <c r="L215" s="429"/>
+      <c r="M215" s="427" t="s">
         <v>36</v>
       </c>
-      <c r="N215" s="417"/>
-      <c r="O215" s="594" t="s">
+      <c r="N215" s="429"/>
+      <c r="O215" s="589" t="s">
         <v>37</v>
       </c>
-      <c r="P215" s="518"/>
-      <c r="Q215" s="518"/>
-      <c r="R215" s="518"/>
-      <c r="S215" s="518"/>
-      <c r="T215" s="518"/>
-      <c r="U215" s="518"/>
-      <c r="V215" s="518"/>
-      <c r="W215" s="518"/>
-      <c r="X215" s="518"/>
-      <c r="Y215" s="518"/>
-      <c r="Z215" s="518"/>
-      <c r="AA215" s="518"/>
-      <c r="AB215" s="518"/>
-      <c r="AC215" s="518"/>
-      <c r="AD215" s="518"/>
-      <c r="AE215" s="518"/>
-      <c r="AF215" s="518"/>
-      <c r="AG215" s="518"/>
-      <c r="AH215" s="519"/>
+      <c r="P215" s="561"/>
+      <c r="Q215" s="561"/>
+      <c r="R215" s="561"/>
+      <c r="S215" s="561"/>
+      <c r="T215" s="561"/>
+      <c r="U215" s="561"/>
+      <c r="V215" s="561"/>
+      <c r="W215" s="561"/>
+      <c r="X215" s="561"/>
+      <c r="Y215" s="561"/>
+      <c r="Z215" s="561"/>
+      <c r="AA215" s="561"/>
+      <c r="AB215" s="561"/>
+      <c r="AC215" s="561"/>
+      <c r="AD215" s="561"/>
+      <c r="AE215" s="561"/>
+      <c r="AF215" s="561"/>
+      <c r="AG215" s="561"/>
+      <c r="AH215" s="562"/>
     </row>
     <row r="216" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A216" s="50"/>
-      <c r="F216" s="448" t="s">
+      <c r="F216" s="460" t="s">
         <v>152</v>
       </c>
-      <c r="G216" s="449"/>
-      <c r="H216" s="449"/>
-      <c r="I216" s="449"/>
-      <c r="J216" s="450"/>
-      <c r="K216" s="415" t="s">
+      <c r="G216" s="461"/>
+      <c r="H216" s="461"/>
+      <c r="I216" s="461"/>
+      <c r="J216" s="462"/>
+      <c r="K216" s="427" t="s">
         <v>35</v>
       </c>
-      <c r="L216" s="417"/>
-      <c r="M216" s="577" t="s">
+      <c r="L216" s="429"/>
+      <c r="M216" s="582" t="s">
         <v>33</v>
       </c>
-      <c r="N216" s="578"/>
-      <c r="O216" s="517" t="s">
+      <c r="N216" s="583"/>
+      <c r="O216" s="535" t="s">
         <v>528</v>
       </c>
-      <c r="P216" s="518"/>
-      <c r="Q216" s="518"/>
-      <c r="R216" s="518"/>
-      <c r="S216" s="518"/>
-      <c r="T216" s="518"/>
-      <c r="U216" s="518"/>
-      <c r="V216" s="518"/>
-      <c r="W216" s="518"/>
-      <c r="X216" s="518"/>
-      <c r="Y216" s="518"/>
-      <c r="Z216" s="518"/>
-      <c r="AA216" s="518"/>
-      <c r="AB216" s="518"/>
-      <c r="AC216" s="518"/>
-      <c r="AD216" s="518"/>
-      <c r="AE216" s="518"/>
-      <c r="AF216" s="518"/>
-      <c r="AG216" s="518"/>
-      <c r="AH216" s="519"/>
+      <c r="P216" s="561"/>
+      <c r="Q216" s="561"/>
+      <c r="R216" s="561"/>
+      <c r="S216" s="561"/>
+      <c r="T216" s="561"/>
+      <c r="U216" s="561"/>
+      <c r="V216" s="561"/>
+      <c r="W216" s="561"/>
+      <c r="X216" s="561"/>
+      <c r="Y216" s="561"/>
+      <c r="Z216" s="561"/>
+      <c r="AA216" s="561"/>
+      <c r="AB216" s="561"/>
+      <c r="AC216" s="561"/>
+      <c r="AD216" s="561"/>
+      <c r="AE216" s="561"/>
+      <c r="AF216" s="561"/>
+      <c r="AG216" s="561"/>
+      <c r="AH216" s="562"/>
     </row>
     <row r="217" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A217" s="50"/>
-      <c r="F217" s="448" t="s">
+      <c r="F217" s="460" t="s">
         <v>42</v>
       </c>
-      <c r="G217" s="449"/>
-      <c r="H217" s="449"/>
-      <c r="I217" s="449"/>
-      <c r="J217" s="450"/>
-      <c r="K217" s="415" t="s">
+      <c r="G217" s="461"/>
+      <c r="H217" s="461"/>
+      <c r="I217" s="461"/>
+      <c r="J217" s="462"/>
+      <c r="K217" s="427" t="s">
         <v>35</v>
       </c>
-      <c r="L217" s="417"/>
-      <c r="M217" s="577" t="s">
+      <c r="L217" s="429"/>
+      <c r="M217" s="582" t="s">
         <v>33</v>
       </c>
-      <c r="N217" s="578"/>
-      <c r="O217" s="517" t="s">
+      <c r="N217" s="583"/>
+      <c r="O217" s="535" t="s">
         <v>523</v>
       </c>
-      <c r="P217" s="518"/>
-      <c r="Q217" s="518"/>
-      <c r="R217" s="518"/>
-      <c r="S217" s="518"/>
-      <c r="T217" s="518"/>
-      <c r="U217" s="518"/>
-      <c r="V217" s="518"/>
-      <c r="W217" s="518"/>
-      <c r="X217" s="518"/>
-      <c r="Y217" s="518"/>
-      <c r="Z217" s="518"/>
-      <c r="AA217" s="518"/>
-      <c r="AB217" s="518"/>
-      <c r="AC217" s="518"/>
-      <c r="AD217" s="518"/>
-      <c r="AE217" s="518"/>
-      <c r="AF217" s="518"/>
-      <c r="AG217" s="518"/>
-      <c r="AH217" s="519"/>
+      <c r="P217" s="561"/>
+      <c r="Q217" s="561"/>
+      <c r="R217" s="561"/>
+      <c r="S217" s="561"/>
+      <c r="T217" s="561"/>
+      <c r="U217" s="561"/>
+      <c r="V217" s="561"/>
+      <c r="W217" s="561"/>
+      <c r="X217" s="561"/>
+      <c r="Y217" s="561"/>
+      <c r="Z217" s="561"/>
+      <c r="AA217" s="561"/>
+      <c r="AB217" s="561"/>
+      <c r="AC217" s="561"/>
+      <c r="AD217" s="561"/>
+      <c r="AE217" s="561"/>
+      <c r="AF217" s="561"/>
+      <c r="AG217" s="561"/>
+      <c r="AH217" s="562"/>
     </row>
     <row r="218" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A218" s="50"/>
-      <c r="F218" s="508" t="s">
+      <c r="F218" s="519" t="s">
         <v>292</v>
       </c>
-      <c r="G218" s="593"/>
-      <c r="H218" s="593"/>
-      <c r="I218" s="593"/>
-      <c r="J218" s="509"/>
-      <c r="K218" s="500" t="s">
+      <c r="G218" s="592"/>
+      <c r="H218" s="592"/>
+      <c r="I218" s="592"/>
+      <c r="J218" s="593"/>
+      <c r="K218" s="576" t="s">
         <v>35</v>
       </c>
-      <c r="L218" s="501"/>
-      <c r="M218" s="579" t="s">
+      <c r="L218" s="577"/>
+      <c r="M218" s="584" t="s">
         <v>36</v>
       </c>
-      <c r="N218" s="580"/>
-      <c r="O218" s="500" t="s">
+      <c r="N218" s="585"/>
+      <c r="O218" s="576" t="s">
         <v>43</v>
       </c>
-      <c r="P218" s="592"/>
-      <c r="Q218" s="592"/>
-      <c r="R218" s="592"/>
-      <c r="S218" s="592"/>
-      <c r="T218" s="592"/>
-      <c r="U218" s="592"/>
-      <c r="V218" s="592"/>
-      <c r="W218" s="592"/>
-      <c r="X218" s="592"/>
-      <c r="Y218" s="592"/>
-      <c r="Z218" s="592"/>
-      <c r="AA218" s="592"/>
-      <c r="AB218" s="592"/>
-      <c r="AC218" s="592"/>
-      <c r="AD218" s="592"/>
-      <c r="AE218" s="592"/>
-      <c r="AF218" s="592"/>
-      <c r="AG218" s="592"/>
-      <c r="AH218" s="501"/>
+      <c r="P218" s="597"/>
+      <c r="Q218" s="597"/>
+      <c r="R218" s="597"/>
+      <c r="S218" s="597"/>
+      <c r="T218" s="597"/>
+      <c r="U218" s="597"/>
+      <c r="V218" s="597"/>
+      <c r="W218" s="597"/>
+      <c r="X218" s="597"/>
+      <c r="Y218" s="597"/>
+      <c r="Z218" s="597"/>
+      <c r="AA218" s="597"/>
+      <c r="AB218" s="597"/>
+      <c r="AC218" s="597"/>
+      <c r="AD218" s="597"/>
+      <c r="AE218" s="597"/>
+      <c r="AF218" s="597"/>
+      <c r="AG218" s="597"/>
+      <c r="AH218" s="577"/>
     </row>
     <row r="219" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A219" s="50"/>
-      <c r="F219" s="526"/>
-      <c r="G219" s="527"/>
-      <c r="H219" s="527"/>
-      <c r="I219" s="527"/>
-      <c r="J219" s="528"/>
-      <c r="K219" s="510"/>
-      <c r="L219" s="512"/>
-      <c r="M219" s="510"/>
-      <c r="N219" s="512"/>
-      <c r="O219" s="510"/>
-      <c r="P219" s="511"/>
-      <c r="Q219" s="511"/>
-      <c r="R219" s="511"/>
-      <c r="S219" s="511"/>
-      <c r="T219" s="511"/>
-      <c r="U219" s="511"/>
-      <c r="V219" s="511"/>
-      <c r="W219" s="511"/>
-      <c r="X219" s="511"/>
-      <c r="Y219" s="511"/>
-      <c r="Z219" s="511"/>
-      <c r="AA219" s="511"/>
-      <c r="AB219" s="511"/>
-      <c r="AC219" s="511"/>
-      <c r="AD219" s="511"/>
-      <c r="AE219" s="511"/>
-      <c r="AF219" s="511"/>
-      <c r="AG219" s="511"/>
-      <c r="AH219" s="512"/>
+      <c r="F219" s="594"/>
+      <c r="G219" s="595"/>
+      <c r="H219" s="595"/>
+      <c r="I219" s="595"/>
+      <c r="J219" s="596"/>
+      <c r="K219" s="590"/>
+      <c r="L219" s="591"/>
+      <c r="M219" s="590"/>
+      <c r="N219" s="591"/>
+      <c r="O219" s="590"/>
+      <c r="P219" s="598"/>
+      <c r="Q219" s="598"/>
+      <c r="R219" s="598"/>
+      <c r="S219" s="598"/>
+      <c r="T219" s="598"/>
+      <c r="U219" s="598"/>
+      <c r="V219" s="598"/>
+      <c r="W219" s="598"/>
+      <c r="X219" s="598"/>
+      <c r="Y219" s="598"/>
+      <c r="Z219" s="598"/>
+      <c r="AA219" s="598"/>
+      <c r="AB219" s="598"/>
+      <c r="AC219" s="598"/>
+      <c r="AD219" s="598"/>
+      <c r="AE219" s="598"/>
+      <c r="AF219" s="598"/>
+      <c r="AG219" s="598"/>
+      <c r="AH219" s="591"/>
     </row>
     <row r="220" spans="1:34" s="319" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A220" s="50"/>
@@ -48960,6 +48840,14 @@
     </row>
   </sheetData>
   <mergeCells count="136">
+    <mergeCell ref="F208:J209"/>
+    <mergeCell ref="F212:J214"/>
+    <mergeCell ref="O210:AH210"/>
+    <mergeCell ref="O211:AH211"/>
+    <mergeCell ref="K181:L184"/>
+    <mergeCell ref="K176:L179"/>
+    <mergeCell ref="K174:L174"/>
+    <mergeCell ref="K175:L175"/>
     <mergeCell ref="F218:J219"/>
     <mergeCell ref="K218:L219"/>
     <mergeCell ref="M218:N219"/>
@@ -48980,10 +48868,10 @@
     <mergeCell ref="F202:J203"/>
     <mergeCell ref="F204:J205"/>
     <mergeCell ref="F206:J207"/>
-    <mergeCell ref="F208:J209"/>
-    <mergeCell ref="F212:J214"/>
-    <mergeCell ref="O210:AH210"/>
-    <mergeCell ref="O211:AH211"/>
+    <mergeCell ref="O174:AH174"/>
+    <mergeCell ref="O175:AH175"/>
+    <mergeCell ref="M208:N209"/>
+    <mergeCell ref="M217:N217"/>
     <mergeCell ref="O215:AH215"/>
     <mergeCell ref="F210:J210"/>
     <mergeCell ref="F211:J211"/>
@@ -49004,14 +48892,6 @@
     <mergeCell ref="F187:J188"/>
     <mergeCell ref="K187:L188"/>
     <mergeCell ref="K189:L190"/>
-    <mergeCell ref="K181:L184"/>
-    <mergeCell ref="K176:L179"/>
-    <mergeCell ref="K174:L174"/>
-    <mergeCell ref="K175:L175"/>
-    <mergeCell ref="K185:L186"/>
-    <mergeCell ref="K180:L180"/>
-    <mergeCell ref="K192:L193"/>
-    <mergeCell ref="K162:Z163"/>
     <mergeCell ref="M201:N201"/>
     <mergeCell ref="K217:L217"/>
     <mergeCell ref="K204:L205"/>
@@ -49028,10 +48908,6 @@
     <mergeCell ref="M210:N210"/>
     <mergeCell ref="M202:N203"/>
     <mergeCell ref="M212:N214"/>
-    <mergeCell ref="O174:AH174"/>
-    <mergeCell ref="O175:AH175"/>
-    <mergeCell ref="M208:N209"/>
-    <mergeCell ref="M217:N217"/>
     <mergeCell ref="O216:AH216"/>
     <mergeCell ref="O217:AH217"/>
     <mergeCell ref="M174:N174"/>
@@ -49056,7 +48932,6 @@
     <mergeCell ref="AA161:AH161"/>
     <mergeCell ref="AA152:AH152"/>
     <mergeCell ref="AA154:AH154"/>
-    <mergeCell ref="K154:Z154"/>
     <mergeCell ref="O176:AH179"/>
     <mergeCell ref="O180:AH180"/>
     <mergeCell ref="O181:AH184"/>
@@ -49078,6 +48953,9 @@
     <mergeCell ref="M192:N193"/>
     <mergeCell ref="M194:N194"/>
     <mergeCell ref="M195:N196"/>
+    <mergeCell ref="K185:L186"/>
+    <mergeCell ref="K180:L180"/>
+    <mergeCell ref="K192:L193"/>
     <mergeCell ref="O1:R3"/>
     <mergeCell ref="S1:Z3"/>
     <mergeCell ref="AA1:AB1"/>
@@ -49096,6 +48974,8 @@
     <mergeCell ref="D153:J153"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
+    <mergeCell ref="K154:Z154"/>
+    <mergeCell ref="K162:Z163"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
